--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,56 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Question ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Question Text</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>Possible Answers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="234">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you good at math?</t>
     </r>
@@ -61,16 +35,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Yes,No</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do/did you have any siblings?</t>
     </r>
@@ -81,16 +46,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Yes,Only-child</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you have a "go-to" creative outlet?</t>
     </r>
@@ -101,6 +57,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you pray or meditate on a regular basis?</t>
     </r>
@@ -111,6 +68,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you exercise 3 or more times per week?</t>
     </r>
@@ -121,6 +79,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Does life have a purpose?</t>
     </r>
@@ -131,6 +90,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Did your parents spank you as a form of discipline/punishment?</t>
     </r>
@@ -141,6 +101,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you left-handed?</t>
     </r>
@@ -151,6 +112,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you live alone?</t>
     </r>
@@ -161,6 +123,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you keep check-lists of tasks you need to accomplish?</t>
     </r>
@@ -171,16 +134,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Check!,Nope</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you watch some amount of TV most days?</t>
     </r>
@@ -191,6 +145,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you think your life will be better five years from now than it is today?</t>
     </r>
@@ -201,6 +156,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Have you cried in the past 60 days?</t>
     </r>
@@ -211,6 +167,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you feel like you are currently overweight?</t>
     </r>
@@ -221,6 +178,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you generally more of an optimist or a pessimist?</t>
     </r>
@@ -231,16 +189,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Optimist,Pessimist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Which parent "wore the pants" in your household?</t>
     </r>
@@ -251,16 +200,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Mom,Dad</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>As a kid, did you ever build (or help build) a tree-house?</t>
     </r>
@@ -271,6 +211,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you rent or own your primary residence?</t>
     </r>
@@ -281,16 +222,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Rent,Own</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Does your life feel adventurous?</t>
     </r>
@@ -301,6 +233,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you have any credit card debt that is more than one month old?</t>
     </r>
@@ -311,6 +244,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you eat breakfast every day?</t>
     </r>
@@ -321,6 +255,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you currently carrying a grudge against anyone in your personal life?</t>
     </r>
@@ -331,6 +266,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you have more than one pet?</t>
     </r>
@@ -341,6 +277,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you brush your teeth two or more times every day?</t>
     </r>
@@ -351,6 +288,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Were you awakened by an alarm clock this morning?</t>
     </r>
@@ -361,6 +299,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you ever treat yourself to "retail therapy"?</t>
     </r>
@@ -371,6 +310,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you taking any prescription medications?</t>
     </r>
@@ -381,6 +321,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you own any power tools? (power saws, drills, etc.)</t>
     </r>
@@ -391,6 +332,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you work 50+ hours per week?</t>
     </r>
@@ -401,6 +343,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you a good/effective liar?</t>
     </r>
@@ -411,6 +354,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you like your given first name?</t>
     </r>
@@ -421,6 +365,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you generally like people, or do most of them tend to get on your nerves pretty easily?</t>
     </r>
@@ -431,16 +376,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Yay people!,Grrr people</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you punctuate text messages?</t>
     </r>
@@ -451,6 +387,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you feel like you're "normal"?</t>
     </r>
@@ -461,6 +398,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you spend more time with friends online or in-person?</t>
     </r>
@@ -471,16 +409,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Online,In-person</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you feel like you have too much personal financial debt?</t>
     </r>
@@ -491,6 +420,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you live in a single-parent household?</t>
     </r>
@@ -501,6 +431,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do both of your parents have college degrees?</t>
     </r>
@@ -511,6 +442,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you enjoy getting together with your extended family?</t>
     </r>
@@ -521,16 +453,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Yes!,Umm...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Lots of people are around! Are you more likely to be right in the middle of things, or looking for your own quieter space?</t>
     </r>
@@ -541,16 +464,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Socialize,Space</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you generally a cautious person, or are you comfortable taking risks?</t>
     </r>
@@ -561,16 +475,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Cautious,Risk-friendly</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you a feminist?</t>
     </r>
@@ -581,6 +486,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Have you ever been poor (however you personally defined it at the time)?</t>
     </r>
@@ -591,6 +497,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Mac or PC?</t>
     </r>
@@ -601,16 +508,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Mac,PC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Is your alarm clock intentionally set to be a few minutes fast?</t>
     </r>
@@ -621,6 +519,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>As a teenager, do/did you have parents who were generally more supportive or demanding?</t>
     </r>
@@ -631,16 +530,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Supportive,Demanding</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Did you ever get a straight-A report card in high school or college?</t>
     </r>
@@ -651,6 +541,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you better looking than your best friend?</t>
     </r>
@@ -661,6 +552,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you have any phobias?</t>
     </r>
@@ -671,6 +563,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you naturally skeptical?</t>
     </r>
@@ -681,6 +574,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you meditate or pray on a regular basis?</t>
     </r>
@@ -691,6 +585,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>While driving: music or talk/news radio?</t>
     </r>
@@ -701,16 +596,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Tunes,Talk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>During your average day, do you spend more time interacting with people (face-to-face) or technology?</t>
     </r>
@@ -721,16 +607,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>People,Technology</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you gamble?</t>
     </r>
@@ -741,6 +618,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you support a particular charitable cause with a lot of your time and/or money?</t>
     </r>
@@ -751,6 +629,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you more likely to over-share or under-share?</t>
     </r>
@@ -761,16 +640,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>TMI,Mysterious</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you turn a TV on in the morning while getting ready for your day?</t>
     </r>
@@ -781,6 +651,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you drink the unfiltered tap water in your home?</t>
     </r>
@@ -791,6 +662,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Can money buy happiness?</t>
     </r>
@@ -801,6 +673,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you live within 20 miles of a major metropolitan area?</t>
     </r>
@@ -811,6 +684,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Has your personality changed much from what you were like as a child?</t>
     </r>
@@ -821,6 +695,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Were you an obedient child?</t>
     </r>
@@ -831,6 +706,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Does the "power of positive thinking" actually work?</t>
     </r>
@@ -841,6 +717,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you personally own a gun?</t>
     </r>
@@ -851,6 +728,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you find it easier to start and maintain a new good habit, or to permanently kick a bad habit?</t>
     </r>
@@ -861,16 +739,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Start,End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Would you say most of the hardship in your life has been the result of circumstances beyond your own control, or has it been mostly the result of your own decisions and actions?</t>
     </r>
@@ -881,16 +750,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Circumstances,Me</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you a morning person or a night person?</t>
     </r>
@@ -901,16 +761,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>A.M.,P.M.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you have a car payment?</t>
     </r>
@@ -921,6 +772,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>If you had to stop telling *any* lies for 6 months (even the smallest "little-white-lie" would immediately make you violently ill), would it change your life in any noticeable way?</t>
     </r>
@@ -931,6 +783,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Have you ever traveled out of the U.S.?</t>
     </r>
@@ -941,6 +794,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you take a daily multi-vitamin?</t>
     </r>
@@ -951,6 +805,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Would you rather be happy or right?</t>
     </r>
@@ -961,16 +816,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Happy,Right</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you like rules?</t>
     </r>
@@ -981,6 +827,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you have a quick temper?</t>
     </r>
@@ -991,16 +838,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Hot headed,Cool headed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you work (or attend school) on a pretty standard "9-to-5ish" daytime schedule, or do you have to work unusual hours?</t>
     </r>
@@ -1011,16 +849,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Standard hours,Odd hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Have you lived in the same state your whole life?</t>
     </r>
@@ -1031,6 +860,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you more of an idealist or a pragmatist?</t>
     </r>
@@ -1041,16 +871,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Idealist,Pragmatist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Have you ever had your life genuinely threatened by intentional violence (or the threat of it)?</t>
     </r>
@@ -1061,6 +882,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you feel like you are "in over-your-head" in any aspect of your life right now?</t>
     </r>
@@ -1071,6 +893,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you wear glasses or contact lenses?</t>
     </r>
@@ -1081,6 +904,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Did you accomplish anything exciting or inspiring in 2013? (comments from the 2012 poll are linked for inspiration)</t>
     </r>
@@ -1091,6 +915,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Which do you really enjoy more: giving or receiving?</t>
     </r>
@@ -1101,16 +926,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Giving,Receiving</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you in the middle of reading a good book right now?</t>
     </r>
@@ -1121,6 +937,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Does the weather have a large effect on your mood?</t>
     </r>
@@ -1131,6 +948,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you more successful than most of your high-school friends?</t>
     </r>
@@ -1141,6 +959,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Your generally preferred approach to starting a new task: read up on everything you can before trying it out, or dive in with almost no knowledge and learn as you go?</t>
     </r>
@@ -1151,16 +970,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Study first,Try first</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you have (or plan to pursue) a Masters or Doctoral degree?</t>
     </r>
@@ -1171,6 +981,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Science or Art?</t>
     </r>
@@ -1181,16 +992,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Science,Art</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Were your parents married when you were born?</t>
     </r>
@@ -1201,6 +1003,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>As a kid, did you watch Sesame Street on a regular basis?</t>
     </r>
@@ -1211,6 +1014,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Changing or losing a job, getting married or divorced, the death of a close relative, moving, a major health issue, bankruptcy...all are life events that can create high stress for people. Have you experienced any of these in 2013?</t>
     </r>
@@ -1221,6 +1025,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>2013: did you drink alcohol?</t>
     </r>
@@ -1231,6 +1036,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>2013: did you start a new romantic relationship?</t>
     </r>
@@ -1241,6 +1047,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Your significant other takes an extra long look at a very attractive person (of your gender) walking past both of you. Are you upset?</t>
     </r>
@@ -1251,6 +1058,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you collect anything (as a hobby)?</t>
     </r>
@@ -1261,6 +1069,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you have more than $20 cash in your wallet or purse right now?</t>
     </r>
@@ -1271,6 +1080,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do/did you get most of your K-12 education in public school, or private school?</t>
     </r>
@@ -1281,16 +1091,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
-      </rPr>
-      <t>Public,Private</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you currently have a job that pays minimum wage?</t>
     </r>
@@ -1301,6 +1102,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Are you currently employed in a full-time job?</t>
     </r>
@@ -1311,6 +1113,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Did your parents fight in front of you?</t>
     </r>
@@ -1321,45 +1124,442 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t>Do you have to personally interact with anyone that you really dislike on a daily basis?</t>
     </r>
+  </si>
+  <si>
+    <t>Question_ID</t>
+  </si>
+  <si>
+    <t>Question_Text</t>
+  </si>
+  <si>
+    <t>Possible_Answers</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Q96024</t>
+  </si>
+  <si>
+    <t>Q98059</t>
+  </si>
+  <si>
+    <t>Q98078</t>
+  </si>
+  <si>
+    <t>Q98197</t>
+  </si>
+  <si>
+    <t>Q98578</t>
+  </si>
+  <si>
+    <t>Q98869</t>
+  </si>
+  <si>
+    <t>Q99480</t>
+  </si>
+  <si>
+    <t>Q99581</t>
+  </si>
+  <si>
+    <t>Q99716</t>
+  </si>
+  <si>
+    <t>Q99982</t>
+  </si>
+  <si>
+    <t>Q100010</t>
+  </si>
+  <si>
+    <t>Q100562</t>
+  </si>
+  <si>
+    <t>Q100680</t>
+  </si>
+  <si>
+    <t>Q100689</t>
+  </si>
+  <si>
+    <t>Q101162</t>
+  </si>
+  <si>
+    <t>Q101163</t>
+  </si>
+  <si>
+    <t>Q101596</t>
+  </si>
+  <si>
+    <t>Q102089</t>
+  </si>
+  <si>
+    <t>Q102289</t>
+  </si>
+  <si>
+    <t>Q102674</t>
+  </si>
+  <si>
+    <t>Q102687</t>
+  </si>
+  <si>
+    <t>Q102906</t>
+  </si>
+  <si>
+    <t>Q103293</t>
+  </si>
+  <si>
+    <t>Q104996</t>
+  </si>
+  <si>
+    <t>Q105655</t>
+  </si>
+  <si>
+    <t>Q105840</t>
+  </si>
+  <si>
+    <t>Q106042</t>
+  </si>
+  <si>
+    <t>Q106272</t>
+  </si>
+  <si>
+    <t>Q106388</t>
+  </si>
+  <si>
+    <t>Q106389</t>
+  </si>
+  <si>
+    <t>Q106993</t>
+  </si>
+  <si>
+    <t>Q106997</t>
+  </si>
+  <si>
+    <t>Q107491</t>
+  </si>
+  <si>
+    <t>Q107869</t>
+  </si>
+  <si>
+    <t>Q108342</t>
+  </si>
+  <si>
+    <t>Q108343</t>
+  </si>
+  <si>
+    <t>Q108617</t>
+  </si>
+  <si>
+    <t>Q108754</t>
+  </si>
+  <si>
+    <t>Q108855</t>
+  </si>
+  <si>
+    <t>Q108856</t>
+  </si>
+  <si>
+    <t>Q108950</t>
+  </si>
+  <si>
+    <t>Q109244</t>
+  </si>
+  <si>
+    <t>Q109367</t>
+  </si>
+  <si>
+    <t>Q110740</t>
+  </si>
+  <si>
+    <t>Q111220</t>
+  </si>
+  <si>
+    <t>Q111580</t>
+  </si>
+  <si>
+    <t>Q111848</t>
+  </si>
+  <si>
+    <t>Q112270</t>
+  </si>
+  <si>
+    <t>Q112478</t>
+  </si>
+  <si>
+    <t>Q112512</t>
+  </si>
+  <si>
+    <t>Q113181</t>
+  </si>
+  <si>
+    <t>Q113583</t>
+  </si>
+  <si>
+    <t>Q113584</t>
+  </si>
+  <si>
+    <t>Q113992</t>
+  </si>
+  <si>
+    <t>Q114152</t>
+  </si>
+  <si>
+    <t>Q114386</t>
+  </si>
+  <si>
+    <t>Q114517</t>
+  </si>
+  <si>
+    <t>Q114748</t>
+  </si>
+  <si>
+    <t>Q114961</t>
+  </si>
+  <si>
+    <t>Q115195</t>
+  </si>
+  <si>
+    <t>Q115390</t>
+  </si>
+  <si>
+    <t>Q115602</t>
+  </si>
+  <si>
+    <t>Q115610</t>
+  </si>
+  <si>
+    <t>Q115611</t>
+  </si>
+  <si>
+    <t>Q115777</t>
+  </si>
+  <si>
+    <t>Q115899</t>
+  </si>
+  <si>
+    <t>Q116197</t>
+  </si>
+  <si>
+    <t>Q116441</t>
+  </si>
+  <si>
+    <t>Q116448</t>
+  </si>
+  <si>
+    <t>Q116601</t>
+  </si>
+  <si>
+    <t>Q116797</t>
+  </si>
+  <si>
+    <t>Q116881</t>
+  </si>
+  <si>
+    <t>Q116953</t>
+  </si>
+  <si>
+    <t>Q117186</t>
+  </si>
+  <si>
+    <t>Q117193</t>
+  </si>
+  <si>
+    <t>Q118117</t>
+  </si>
+  <si>
+    <t>Q118232</t>
+  </si>
+  <si>
+    <t>Q118233</t>
+  </si>
+  <si>
+    <t>Q118237</t>
+  </si>
+  <si>
+    <t>Q118892</t>
+  </si>
+  <si>
+    <t>Q119334</t>
+  </si>
+  <si>
+    <t>Q119650</t>
+  </si>
+  <si>
+    <t>Q119851</t>
+  </si>
+  <si>
+    <t>Q120012</t>
+  </si>
+  <si>
+    <t>Q120014</t>
+  </si>
+  <si>
+    <t>Q120194</t>
+  </si>
+  <si>
+    <t>Q120379</t>
+  </si>
+  <si>
+    <t>Q120472</t>
+  </si>
+  <si>
+    <t>Q120650</t>
+  </si>
+  <si>
+    <t>Q120978</t>
+  </si>
+  <si>
+    <t>Q121011</t>
+  </si>
+  <si>
+    <t>Q121699</t>
+  </si>
+  <si>
+    <t>Q121700</t>
+  </si>
+  <si>
+    <t>Q122120</t>
+  </si>
+  <si>
+    <t>Q122769</t>
+  </si>
+  <si>
+    <t>Q122770</t>
+  </si>
+  <si>
+    <t>Q122771</t>
+  </si>
+  <si>
+    <t>Q123464</t>
+  </si>
+  <si>
+    <t>Q123621</t>
+  </si>
+  <si>
+    <t>Q124122</t>
+  </si>
+  <si>
+    <t>Q124742</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Public/Private</t>
+  </si>
+  <si>
+    <t>Science/Art</t>
+  </si>
+  <si>
+    <t>Study first/Try first</t>
+  </si>
+  <si>
+    <t>Giving/Receiving</t>
+  </si>
+  <si>
+    <t>Idealist/Pragmatist</t>
+  </si>
+  <si>
+    <t>Standard hours/Odd hours</t>
+  </si>
+  <si>
+    <t>Hot headed/Cool headed</t>
+  </si>
+  <si>
+    <t>Happy/Right</t>
+  </si>
+  <si>
+    <t>Circumstances/Me</t>
+  </si>
+  <si>
+    <t>Start/End</t>
+  </si>
+  <si>
+    <t>TMI/Mysterious</t>
+  </si>
+  <si>
+    <t>People/Technology</t>
+  </si>
+  <si>
+    <t>Tunes/Talk</t>
+  </si>
+  <si>
+    <t>Supportive/Demanding</t>
+  </si>
+  <si>
+    <t>Mac/PC</t>
+  </si>
+  <si>
+    <t>Socialize/Space</t>
+  </si>
+  <si>
+    <t>Rent/Own</t>
+  </si>
+  <si>
+    <t>Mom/Dad</t>
+  </si>
+  <si>
+    <t>Optimist/Pessimist</t>
+  </si>
+  <si>
+    <t>AM/PM</t>
+  </si>
+  <si>
+    <t>Yes/Umm</t>
+  </si>
+  <si>
+    <t>Yay people/Grrr people</t>
+  </si>
+  <si>
+    <t>Check/Nope</t>
+  </si>
+  <si>
+    <t>Cautious/Risk friendly</t>
+  </si>
+  <si>
+    <t>Online/In person</t>
+  </si>
+  <si>
+    <t>Yes/Only child</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="###0;###0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1416,67 +1616,156 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1602,7 +1891,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1611,7 +1900,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1620,7 +1909,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1694,7 +1983,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1702,7 +1991,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1721,7 +2010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1751,7 +2040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1777,7 +2066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1803,7 +2092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1829,7 +2118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1855,7 +2144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1881,7 +2170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1907,7 +2196,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1933,7 +2222,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1959,7 +2248,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1972,9 +2261,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1989,7 +2284,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1997,7 +2292,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2016,7 +2311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2042,7 +2337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2068,7 +2363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2094,7 +2389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2120,7 +2415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2146,7 +2441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2172,7 +2467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2198,7 +2493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2224,7 +2519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2250,7 +2545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2263,9 +2558,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2279,7 +2580,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2298,7 +2599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2328,7 +2629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2354,7 +2655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2380,7 +2681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2406,7 +2707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2432,7 +2733,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2458,7 +2759,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2484,7 +2785,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2510,7 +2811,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2536,7 +2837,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2549,1155 +2850,1781 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW102"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="256" width="9.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="257" width="9.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>96024</v>
-      </c>
-      <c r="B2" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
+        <v>124742</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>98059</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
+        <v>124122</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>98078</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+        <v>123621</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>98197</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
+        <v>123464</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>98578</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+        <v>122771</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>98869</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
+        <v>122770</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>99480</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
+        <v>122769</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>99581</v>
-      </c>
-      <c r="B9" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
+        <v>122120</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>99716</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
+        <v>121700</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>99982</v>
-      </c>
-      <c r="B11" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
+        <v>121699</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>100010</v>
-      </c>
-      <c r="B12" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
+        <v>121011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>100562</v>
-      </c>
-      <c r="B13" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
+        <v>120978</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>100680</v>
-      </c>
-      <c r="B14" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
+        <v>120650</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>100689</v>
-      </c>
-      <c r="B15" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
+        <v>120472</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>101162</v>
-      </c>
-      <c r="B16" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
+        <v>120379</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>101163</v>
-      </c>
-      <c r="B17" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
+        <v>120194</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>101596</v>
-      </c>
-      <c r="B18" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
+        <v>120014</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>102089</v>
-      </c>
-      <c r="B19" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
+        <v>120012</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>102289</v>
-      </c>
-      <c r="B20" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
+        <v>119851</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>102674</v>
-      </c>
-      <c r="B21" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
+        <v>119650</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>102687</v>
-      </c>
-      <c r="B22" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
+        <v>119334</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>102906</v>
-      </c>
-      <c r="B23" t="s" s="6">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
+        <v>118892</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>103293</v>
-      </c>
-      <c r="B24" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
+        <v>118237</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>104996</v>
-      </c>
-      <c r="B25" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
+        <v>118233</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>105655</v>
-      </c>
-      <c r="B26" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
+        <v>118232</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>105840</v>
-      </c>
-      <c r="B27" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
+        <v>118117</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>106042</v>
-      </c>
-      <c r="B28" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
+        <v>117193</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>106272</v>
-      </c>
-      <c r="B29" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
+        <v>117186</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>106388</v>
-      </c>
-      <c r="B30" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
+        <v>116953</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>106389</v>
-      </c>
-      <c r="B31" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1">
+        <v>116881</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>106993</v>
-      </c>
-      <c r="B32" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" ht="27" customHeight="1">
+        <v>116797</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>106997</v>
-      </c>
-      <c r="B33" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1">
+        <v>116601</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>107491</v>
-      </c>
-      <c r="B34" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1">
+        <v>116448</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>107869</v>
-      </c>
-      <c r="B35" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
+        <v>116441</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>108342</v>
-      </c>
-      <c r="B36" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
+        <v>116197</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>108343</v>
-      </c>
-      <c r="B37" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="C37" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
+        <v>115899</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>108617</v>
-      </c>
-      <c r="B38" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1">
+        <v>115777</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>108754</v>
-      </c>
-      <c r="B39" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
+        <v>115611</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>108855</v>
-      </c>
-      <c r="B40" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="C40" t="s" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" ht="27" customHeight="1">
+        <v>115610</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>108856</v>
-      </c>
-      <c r="B41" t="s" s="6">
+        <v>115602</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>115390</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>115195</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>114961</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>114748</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>114517</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>114386</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>114152</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>113992</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>113584</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>113583</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C41" t="s" s="8">
+      <c r="D51" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51">
         <v>52</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="5">
-        <v>108950</v>
-      </c>
-      <c r="B42" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s" s="7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="5">
-        <v>109244</v>
-      </c>
-      <c r="B43" t="s" s="6">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="5">
-        <v>109367</v>
-      </c>
-      <c r="B44" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="C44" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="5">
-        <v>110740</v>
-      </c>
-      <c r="B45" t="s" s="6">
-        <v>57</v>
-      </c>
-      <c r="C45" t="s" s="7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="5">
-        <v>111220</v>
-      </c>
-      <c r="B46" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" ht="27" customHeight="1">
-      <c r="A47" s="5">
-        <v>111580</v>
-      </c>
-      <c r="B47" t="s" s="9">
-        <v>60</v>
-      </c>
-      <c r="C47" t="s" s="8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="5">
-        <v>111848</v>
-      </c>
-      <c r="B48" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="C48" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="5">
-        <v>112270</v>
-      </c>
-      <c r="B49" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="C49" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="5">
-        <v>112478</v>
-      </c>
-      <c r="B50" t="s" s="6">
-        <v>64</v>
-      </c>
-      <c r="C50" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="5">
-        <v>112512</v>
-      </c>
-      <c r="B51" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>113181</v>
       </c>
-      <c r="B52" t="s" s="6">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s" s="7">
+      <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>112512</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>112478</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>112270</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>111848</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>111580</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>111220</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>110740</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>109367</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>109244</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>108950</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>108856</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>108855</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>108754</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>108617</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>108343</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>108342</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>107869</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>107491</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>106997</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>106993</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>106389</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>106388</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>106272</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>106042</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>105840</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>105655</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>104996</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>103293</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>102906</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E81">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>102687</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>102674</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>102289</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>102089</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>101596</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>101163</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>101162</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>100689</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>100680</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>100562</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>100010</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>99982</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>99716</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>99581</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>99480</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>98869</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>98578</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="5">
-        <v>113583</v>
-      </c>
-      <c r="B53" t="s" s="6">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" ht="27" customHeight="1">
-      <c r="A54" s="5">
-        <v>113584</v>
-      </c>
-      <c r="B54" t="s" s="6">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="5">
-        <v>113992</v>
-      </c>
-      <c r="B55" t="s" s="6">
-        <v>71</v>
-      </c>
-      <c r="C55" t="s" s="7">
+      <c r="D98" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>98197</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99">
         <v>4</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="5">
-        <v>114152</v>
-      </c>
-      <c r="B56" t="s" s="6">
-        <v>72</v>
-      </c>
-      <c r="C56" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="5">
-        <v>114386</v>
-      </c>
-      <c r="B57" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s" s="7">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="5">
-        <v>114517</v>
-      </c>
-      <c r="B58" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="C58" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="5">
-        <v>114748</v>
-      </c>
-      <c r="B59" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="C59" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="A60" s="5">
-        <v>114961</v>
-      </c>
-      <c r="B60" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="C60" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="5">
-        <v>115195</v>
-      </c>
-      <c r="B61" t="s" s="6">
-        <v>78</v>
-      </c>
-      <c r="C61" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="5">
-        <v>115390</v>
-      </c>
-      <c r="B62" t="s" s="6">
-        <v>79</v>
-      </c>
-      <c r="C62" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="5">
-        <v>115602</v>
-      </c>
-      <c r="B63" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="C63" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="5">
-        <v>115610</v>
-      </c>
-      <c r="B64" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="C64" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="5">
-        <v>115611</v>
-      </c>
-      <c r="B65" t="s" s="6">
-        <v>82</v>
-      </c>
-      <c r="C65" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" ht="27" customHeight="1">
-      <c r="A66" s="5">
-        <v>115777</v>
-      </c>
-      <c r="B66" t="s" s="6">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s" s="8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" ht="39" customHeight="1">
-      <c r="A67" s="5">
-        <v>115899</v>
-      </c>
-      <c r="B67" t="s" s="6">
-        <v>85</v>
-      </c>
-      <c r="C67" t="s" s="8">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="5">
-        <v>116197</v>
-      </c>
-      <c r="B68" t="s" s="6">
-        <v>87</v>
-      </c>
-      <c r="C68" t="s" s="7">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="5">
-        <v>116441</v>
-      </c>
-      <c r="B69" t="s" s="6">
-        <v>89</v>
-      </c>
-      <c r="C69" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" ht="39" customHeight="1">
-      <c r="A70" s="5">
-        <v>116448</v>
-      </c>
-      <c r="B70" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="C70" t="s" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="5">
-        <v>116601</v>
-      </c>
-      <c r="B71" t="s" s="6">
-        <v>91</v>
-      </c>
-      <c r="C71" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="5">
-        <v>116797</v>
-      </c>
-      <c r="B72" t="s" s="6">
-        <v>92</v>
-      </c>
-      <c r="C72" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="5">
-        <v>116881</v>
-      </c>
-      <c r="B73" t="s" s="6">
-        <v>93</v>
-      </c>
-      <c r="C73" t="s" s="7">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="5">
-        <v>116953</v>
-      </c>
-      <c r="B74" t="s" s="6">
-        <v>95</v>
-      </c>
-      <c r="C74" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="5">
-        <v>117186</v>
-      </c>
-      <c r="B75" t="s" s="6">
-        <v>96</v>
-      </c>
-      <c r="C75" t="s" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" ht="27" customHeight="1">
-      <c r="A76" s="5">
-        <v>117193</v>
-      </c>
-      <c r="B76" t="s" s="6">
-        <v>98</v>
-      </c>
-      <c r="C76" t="s" s="8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="5">
-        <v>118117</v>
-      </c>
-      <c r="B77" t="s" s="6">
-        <v>100</v>
-      </c>
-      <c r="C77" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="5">
-        <v>118232</v>
-      </c>
-      <c r="B78" t="s" s="6">
-        <v>101</v>
-      </c>
-      <c r="C78" t="s" s="7">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" ht="27" customHeight="1">
-      <c r="A79" s="5">
-        <v>118233</v>
-      </c>
-      <c r="B79" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="5">
-        <v>118237</v>
-      </c>
-      <c r="B80" t="s" s="6">
-        <v>104</v>
-      </c>
-      <c r="C80" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="5">
-        <v>118892</v>
-      </c>
-      <c r="B81" t="s" s="6">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>98078</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>98059</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>96024</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C81" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" ht="27" customHeight="1">
-      <c r="A82" s="5">
-        <v>119334</v>
-      </c>
-      <c r="B82" t="s" s="6">
-        <v>106</v>
-      </c>
-      <c r="C82" t="s" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="5">
-        <v>119650</v>
-      </c>
-      <c r="B83" t="s" s="6">
-        <v>107</v>
-      </c>
-      <c r="C83" t="s" s="7">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="5">
-        <v>119851</v>
-      </c>
-      <c r="B84" t="s" s="6">
-        <v>109</v>
-      </c>
-      <c r="C84" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="5">
-        <v>120012</v>
-      </c>
-      <c r="B85" t="s" s="6">
-        <v>110</v>
-      </c>
-      <c r="C85" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="5">
-        <v>120014</v>
-      </c>
-      <c r="B86" t="s" s="6">
-        <v>111</v>
-      </c>
-      <c r="C86" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" ht="27" customHeight="1">
-      <c r="A87" s="5">
-        <v>120194</v>
-      </c>
-      <c r="B87" t="s" s="6">
-        <v>112</v>
-      </c>
-      <c r="C87" t="s" s="8">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="5">
-        <v>120379</v>
-      </c>
-      <c r="B88" t="s" s="6">
-        <v>114</v>
-      </c>
-      <c r="C88" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="5">
-        <v>120472</v>
-      </c>
-      <c r="B89" t="s" s="6">
-        <v>115</v>
-      </c>
-      <c r="C89" t="s" s="7">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="5">
-        <v>120650</v>
-      </c>
-      <c r="B90" t="s" s="6">
-        <v>117</v>
-      </c>
-      <c r="C90" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="5">
-        <v>120978</v>
-      </c>
-      <c r="B91" t="s" s="6">
-        <v>118</v>
-      </c>
-      <c r="C91" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" ht="39" customHeight="1">
-      <c r="A92" s="5">
-        <v>121011</v>
-      </c>
-      <c r="B92" t="s" s="6">
-        <v>119</v>
-      </c>
-      <c r="C92" t="s" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="5">
-        <v>121699</v>
-      </c>
-      <c r="B93" t="s" s="6">
-        <v>120</v>
-      </c>
-      <c r="C93" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="5">
-        <v>121700</v>
-      </c>
-      <c r="B94" t="s" s="6">
-        <v>121</v>
-      </c>
-      <c r="C94" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" ht="27" customHeight="1">
-      <c r="A95" s="5">
-        <v>122120</v>
-      </c>
-      <c r="B95" t="s" s="6">
-        <v>122</v>
-      </c>
-      <c r="C95" t="s" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="5">
-        <v>122769</v>
-      </c>
-      <c r="B96" t="s" s="6">
-        <v>123</v>
-      </c>
-      <c r="C96" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="5">
-        <v>122770</v>
-      </c>
-      <c r="B97" t="s" s="6">
-        <v>124</v>
-      </c>
-      <c r="C97" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="5">
-        <v>122771</v>
-      </c>
-      <c r="B98" t="s" s="6">
-        <v>125</v>
-      </c>
-      <c r="C98" t="s" s="7">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="5">
-        <v>123464</v>
-      </c>
-      <c r="B99" t="s" s="6">
-        <v>127</v>
-      </c>
-      <c r="C99" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="5">
-        <v>123621</v>
-      </c>
-      <c r="B100" t="s" s="6">
-        <v>128</v>
-      </c>
-      <c r="C100" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="5">
-        <v>124122</v>
-      </c>
-      <c r="B101" t="s" s="6">
-        <v>129</v>
-      </c>
-      <c r="C101" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="A102" s="5">
-        <v>124742</v>
-      </c>
-      <c r="B102" t="s" s="6">
-        <v>130</v>
-      </c>
-      <c r="C102" t="s" s="7">
-        <v>4</v>
+      <c r="C102" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:IW102">
+    <sortCondition descending="1" ref="E2:E102"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -59,40 +59,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Do you pray or meditate on a regular basis?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Do you exercise 3 or more times per week?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Does life have a purpose?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Did your parents spank you as a form of discipline/punishment?</t>
     </r>
   </si>
   <si>
@@ -180,28 +147,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Are you generally more of an optimist or a pessimist?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Which parent "wore the pants" in your household?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>As a kid, did you ever build (or help build) a tree-house?</t>
     </r>
   </si>
@@ -235,17 +180,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Do you have any credit card debt that is more than one month old?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Do you eat breakfast every day?</t>
     </r>
   </si>
@@ -301,40 +235,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Do you ever treat yourself to "retail therapy"?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Are you taking any prescription medications?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Do you own any power tools? (power saws, drills, etc.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Do you work 50+ hours per week?</t>
     </r>
   </si>
   <si>
@@ -367,17 +268,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Do you generally like people, or do most of them tend to get on your nerves pretty easily?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Do you punctuate text messages?</t>
     </r>
   </si>
@@ -411,17 +301,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Do you feel like you have too much personal financial debt?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Do you live in a single-parent household?</t>
     </r>
   </si>
@@ -477,17 +356,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Are you a feminist?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Have you ever been poor (however you personally defined it at the time)?</t>
     </r>
   </si>
@@ -576,17 +444,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Do you meditate or pray on a regular basis?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>While driving: music or talk/news radio?</t>
     </r>
   </si>
@@ -741,29 +598,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Would you say most of the hardship in your life has been the result of circumstances beyond your own control, or has it been mostly the result of your own decisions and actions?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Are you a morning person or a night person?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Do you have a car payment?</t>
     </r>
   </si>
   <si>
@@ -807,17 +642,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Would you rather be happy or right?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Do you like rules?</t>
     </r>
   </si>
@@ -972,28 +796,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Do you have (or plan to pursue) a Masters or Doctoral degree?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>Science or Art?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Were your parents married when you were born?</t>
     </r>
   </si>
@@ -1104,17 +906,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Are you currently employed in a full-time job?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Did your parents fight in front of you?</t>
     </r>
   </si>
@@ -1528,6 +1319,63 @@
   <si>
     <t>Yes/Only child</t>
   </si>
+  <si>
+    <t>Do you feel like you have too much personal financial debt?</t>
+  </si>
+  <si>
+    <t>Do you have any credit card debt that is more than one month old?</t>
+  </si>
+  <si>
+    <t>Do you pray or meditate on a regular basis?</t>
+  </si>
+  <si>
+    <t>Does life have a purpose?</t>
+  </si>
+  <si>
+    <t>Do you meditate or pray on a regular basis?</t>
+  </si>
+  <si>
+    <t>Do you work 50+ hours per week?</t>
+  </si>
+  <si>
+    <t>Are you currently employed in a full-time job?</t>
+  </si>
+  <si>
+    <t>Do you have a car payment?</t>
+  </si>
+  <si>
+    <t>Are you generally more of an optimist or a pessimist?</t>
+  </si>
+  <si>
+    <t>Do you generally like people, or do most of them tend to get on your nerves pretty easily?</t>
+  </si>
+  <si>
+    <t>Are you a feminist?</t>
+  </si>
+  <si>
+    <t>Did your parents spank you as a form of discipline/punishment?</t>
+  </si>
+  <si>
+    <t>Do you ever treat yourself to "retail therapy"?</t>
+  </si>
+  <si>
+    <t>Which parent "wore the pants" in your household?</t>
+  </si>
+  <si>
+    <t>Do you have (or plan to pursue) a Masters or Doctoral degree?</t>
+  </si>
+  <si>
+    <t>Would you rather be happy or right?</t>
+  </si>
+  <si>
+    <t>Science or Art?</t>
+  </si>
+  <si>
+    <t>Would you say most of the hardship in your life has been the result of circumstances beyond your own control, or has it been mostly the result of your own decisions and actions?</t>
+  </si>
+  <si>
+    <t>Do you own any power tools? (power saws, drills, etc.)</t>
+  </si>
 </sst>
 </file>
 
@@ -1536,7 +1384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1556,6 +1404,79 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -1620,7 +1541,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1653,6 +1574,96 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2871,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2885,1735 +2896,6523 @@
     <col min="6" max="257" width="9.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>124742</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>124122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:257" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
         <v>123621</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="20">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17"/>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
+      <c r="CA4" s="17"/>
+      <c r="CB4" s="17"/>
+      <c r="CC4" s="17"/>
+      <c r="CD4" s="17"/>
+      <c r="CE4" s="17"/>
+      <c r="CF4" s="17"/>
+      <c r="CG4" s="17"/>
+      <c r="CH4" s="17"/>
+      <c r="CI4" s="17"/>
+      <c r="CJ4" s="17"/>
+      <c r="CK4" s="17"/>
+      <c r="CL4" s="17"/>
+      <c r="CM4" s="17"/>
+      <c r="CN4" s="17"/>
+      <c r="CO4" s="17"/>
+      <c r="CP4" s="17"/>
+      <c r="CQ4" s="17"/>
+      <c r="CR4" s="17"/>
+      <c r="CS4" s="17"/>
+      <c r="CT4" s="17"/>
+      <c r="CU4" s="17"/>
+      <c r="CV4" s="17"/>
+      <c r="CW4" s="17"/>
+      <c r="CX4" s="17"/>
+      <c r="CY4" s="17"/>
+      <c r="CZ4" s="17"/>
+      <c r="DA4" s="17"/>
+      <c r="DB4" s="17"/>
+      <c r="DC4" s="17"/>
+      <c r="DD4" s="17"/>
+      <c r="DE4" s="17"/>
+      <c r="DF4" s="17"/>
+      <c r="DG4" s="17"/>
+      <c r="DH4" s="17"/>
+      <c r="DI4" s="17"/>
+      <c r="DJ4" s="17"/>
+      <c r="DK4" s="17"/>
+      <c r="DL4" s="17"/>
+      <c r="DM4" s="17"/>
+      <c r="DN4" s="17"/>
+      <c r="DO4" s="17"/>
+      <c r="DP4" s="17"/>
+      <c r="DQ4" s="17"/>
+      <c r="DR4" s="17"/>
+      <c r="DS4" s="17"/>
+      <c r="DT4" s="17"/>
+      <c r="DU4" s="17"/>
+      <c r="DV4" s="17"/>
+      <c r="DW4" s="17"/>
+      <c r="DX4" s="17"/>
+      <c r="DY4" s="17"/>
+      <c r="DZ4" s="17"/>
+      <c r="EA4" s="17"/>
+      <c r="EB4" s="17"/>
+      <c r="EC4" s="17"/>
+      <c r="ED4" s="17"/>
+      <c r="EE4" s="17"/>
+      <c r="EF4" s="17"/>
+      <c r="EG4" s="17"/>
+      <c r="EH4" s="17"/>
+      <c r="EI4" s="17"/>
+      <c r="EJ4" s="17"/>
+      <c r="EK4" s="17"/>
+      <c r="EL4" s="17"/>
+      <c r="EM4" s="17"/>
+      <c r="EN4" s="17"/>
+      <c r="EO4" s="17"/>
+      <c r="EP4" s="17"/>
+      <c r="EQ4" s="17"/>
+      <c r="ER4" s="17"/>
+      <c r="ES4" s="17"/>
+      <c r="ET4" s="17"/>
+      <c r="EU4" s="17"/>
+      <c r="EV4" s="17"/>
+      <c r="EW4" s="17"/>
+      <c r="EX4" s="17"/>
+      <c r="EY4" s="17"/>
+      <c r="EZ4" s="17"/>
+      <c r="FA4" s="17"/>
+      <c r="FB4" s="17"/>
+      <c r="FC4" s="17"/>
+      <c r="FD4" s="17"/>
+      <c r="FE4" s="17"/>
+      <c r="FF4" s="17"/>
+      <c r="FG4" s="17"/>
+      <c r="FH4" s="17"/>
+      <c r="FI4" s="17"/>
+      <c r="FJ4" s="17"/>
+      <c r="FK4" s="17"/>
+      <c r="FL4" s="17"/>
+      <c r="FM4" s="17"/>
+      <c r="FN4" s="17"/>
+      <c r="FO4" s="17"/>
+      <c r="FP4" s="17"/>
+      <c r="FQ4" s="17"/>
+      <c r="FR4" s="17"/>
+      <c r="FS4" s="17"/>
+      <c r="FT4" s="17"/>
+      <c r="FU4" s="17"/>
+      <c r="FV4" s="17"/>
+      <c r="FW4" s="17"/>
+      <c r="FX4" s="17"/>
+      <c r="FY4" s="17"/>
+      <c r="FZ4" s="17"/>
+      <c r="GA4" s="17"/>
+      <c r="GB4" s="17"/>
+      <c r="GC4" s="17"/>
+      <c r="GD4" s="17"/>
+      <c r="GE4" s="17"/>
+      <c r="GF4" s="17"/>
+      <c r="GG4" s="17"/>
+      <c r="GH4" s="17"/>
+      <c r="GI4" s="17"/>
+      <c r="GJ4" s="17"/>
+      <c r="GK4" s="17"/>
+      <c r="GL4" s="17"/>
+      <c r="GM4" s="17"/>
+      <c r="GN4" s="17"/>
+      <c r="GO4" s="17"/>
+      <c r="GP4" s="17"/>
+      <c r="GQ4" s="17"/>
+      <c r="GR4" s="17"/>
+      <c r="GS4" s="17"/>
+      <c r="GT4" s="17"/>
+      <c r="GU4" s="17"/>
+      <c r="GV4" s="17"/>
+      <c r="GW4" s="17"/>
+      <c r="GX4" s="17"/>
+      <c r="GY4" s="17"/>
+      <c r="GZ4" s="17"/>
+      <c r="HA4" s="17"/>
+      <c r="HB4" s="17"/>
+      <c r="HC4" s="17"/>
+      <c r="HD4" s="17"/>
+      <c r="HE4" s="17"/>
+      <c r="HF4" s="17"/>
+      <c r="HG4" s="17"/>
+      <c r="HH4" s="17"/>
+      <c r="HI4" s="17"/>
+      <c r="HJ4" s="17"/>
+      <c r="HK4" s="17"/>
+      <c r="HL4" s="17"/>
+      <c r="HM4" s="17"/>
+      <c r="HN4" s="17"/>
+      <c r="HO4" s="17"/>
+      <c r="HP4" s="17"/>
+      <c r="HQ4" s="17"/>
+      <c r="HR4" s="17"/>
+      <c r="HS4" s="17"/>
+      <c r="HT4" s="17"/>
+      <c r="HU4" s="17"/>
+      <c r="HV4" s="17"/>
+      <c r="HW4" s="17"/>
+      <c r="HX4" s="17"/>
+      <c r="HY4" s="17"/>
+      <c r="HZ4" s="17"/>
+      <c r="IA4" s="17"/>
+      <c r="IB4" s="17"/>
+      <c r="IC4" s="17"/>
+      <c r="ID4" s="17"/>
+      <c r="IE4" s="17"/>
+      <c r="IF4" s="17"/>
+      <c r="IG4" s="17"/>
+      <c r="IH4" s="17"/>
+      <c r="II4" s="17"/>
+      <c r="IJ4" s="17"/>
+      <c r="IK4" s="17"/>
+      <c r="IL4" s="17"/>
+      <c r="IM4" s="17"/>
+      <c r="IN4" s="17"/>
+      <c r="IO4" s="17"/>
+      <c r="IP4" s="17"/>
+      <c r="IQ4" s="17"/>
+      <c r="IR4" s="17"/>
+      <c r="IS4" s="17"/>
+      <c r="IT4" s="17"/>
+      <c r="IU4" s="17"/>
+      <c r="IV4" s="17"/>
+      <c r="IW4" s="17"/>
+    </row>
+    <row r="5" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>123464</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>122771</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E6">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>122770</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E7">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>122769</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E8">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>122120</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E9">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>121700</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E10">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>121699</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E11">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>121011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E12">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>120978</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E13">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>120650</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E14">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37">
         <v>120472</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="39">
+        <v>88</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="38"/>
+      <c r="BM15" s="38"/>
+      <c r="BN15" s="38"/>
+      <c r="BO15" s="38"/>
+      <c r="BP15" s="38"/>
+      <c r="BQ15" s="38"/>
+      <c r="BR15" s="38"/>
+      <c r="BS15" s="38"/>
+      <c r="BT15" s="38"/>
+      <c r="BU15" s="38"/>
+      <c r="BV15" s="38"/>
+      <c r="BW15" s="38"/>
+      <c r="BX15" s="38"/>
+      <c r="BY15" s="38"/>
+      <c r="BZ15" s="38"/>
+      <c r="CA15" s="38"/>
+      <c r="CB15" s="38"/>
+      <c r="CC15" s="38"/>
+      <c r="CD15" s="38"/>
+      <c r="CE15" s="38"/>
+      <c r="CF15" s="38"/>
+      <c r="CG15" s="38"/>
+      <c r="CH15" s="38"/>
+      <c r="CI15" s="38"/>
+      <c r="CJ15" s="38"/>
+      <c r="CK15" s="38"/>
+      <c r="CL15" s="38"/>
+      <c r="CM15" s="38"/>
+      <c r="CN15" s="38"/>
+      <c r="CO15" s="38"/>
+      <c r="CP15" s="38"/>
+      <c r="CQ15" s="38"/>
+      <c r="CR15" s="38"/>
+      <c r="CS15" s="38"/>
+      <c r="CT15" s="38"/>
+      <c r="CU15" s="38"/>
+      <c r="CV15" s="38"/>
+      <c r="CW15" s="38"/>
+      <c r="CX15" s="38"/>
+      <c r="CY15" s="38"/>
+      <c r="CZ15" s="38"/>
+      <c r="DA15" s="38"/>
+      <c r="DB15" s="38"/>
+      <c r="DC15" s="38"/>
+      <c r="DD15" s="38"/>
+      <c r="DE15" s="38"/>
+      <c r="DF15" s="38"/>
+      <c r="DG15" s="38"/>
+      <c r="DH15" s="38"/>
+      <c r="DI15" s="38"/>
+      <c r="DJ15" s="38"/>
+      <c r="DK15" s="38"/>
+      <c r="DL15" s="38"/>
+      <c r="DM15" s="38"/>
+      <c r="DN15" s="38"/>
+      <c r="DO15" s="38"/>
+      <c r="DP15" s="38"/>
+      <c r="DQ15" s="38"/>
+      <c r="DR15" s="38"/>
+      <c r="DS15" s="38"/>
+      <c r="DT15" s="38"/>
+      <c r="DU15" s="38"/>
+      <c r="DV15" s="38"/>
+      <c r="DW15" s="38"/>
+      <c r="DX15" s="38"/>
+      <c r="DY15" s="38"/>
+      <c r="DZ15" s="38"/>
+      <c r="EA15" s="38"/>
+      <c r="EB15" s="38"/>
+      <c r="EC15" s="38"/>
+      <c r="ED15" s="38"/>
+      <c r="EE15" s="38"/>
+      <c r="EF15" s="38"/>
+      <c r="EG15" s="38"/>
+      <c r="EH15" s="38"/>
+      <c r="EI15" s="38"/>
+      <c r="EJ15" s="38"/>
+      <c r="EK15" s="38"/>
+      <c r="EL15" s="38"/>
+      <c r="EM15" s="38"/>
+      <c r="EN15" s="38"/>
+      <c r="EO15" s="38"/>
+      <c r="EP15" s="38"/>
+      <c r="EQ15" s="38"/>
+      <c r="ER15" s="38"/>
+      <c r="ES15" s="38"/>
+      <c r="ET15" s="38"/>
+      <c r="EU15" s="38"/>
+      <c r="EV15" s="38"/>
+      <c r="EW15" s="38"/>
+      <c r="EX15" s="38"/>
+      <c r="EY15" s="38"/>
+      <c r="EZ15" s="38"/>
+      <c r="FA15" s="38"/>
+      <c r="FB15" s="38"/>
+      <c r="FC15" s="38"/>
+      <c r="FD15" s="38"/>
+      <c r="FE15" s="38"/>
+      <c r="FF15" s="38"/>
+      <c r="FG15" s="38"/>
+      <c r="FH15" s="38"/>
+      <c r="FI15" s="38"/>
+      <c r="FJ15" s="38"/>
+      <c r="FK15" s="38"/>
+      <c r="FL15" s="38"/>
+      <c r="FM15" s="38"/>
+      <c r="FN15" s="38"/>
+      <c r="FO15" s="38"/>
+      <c r="FP15" s="38"/>
+      <c r="FQ15" s="38"/>
+      <c r="FR15" s="38"/>
+      <c r="FS15" s="38"/>
+      <c r="FT15" s="38"/>
+      <c r="FU15" s="38"/>
+      <c r="FV15" s="38"/>
+      <c r="FW15" s="38"/>
+      <c r="FX15" s="38"/>
+      <c r="FY15" s="38"/>
+      <c r="FZ15" s="38"/>
+      <c r="GA15" s="38"/>
+      <c r="GB15" s="38"/>
+      <c r="GC15" s="38"/>
+      <c r="GD15" s="38"/>
+      <c r="GE15" s="38"/>
+      <c r="GF15" s="38"/>
+      <c r="GG15" s="38"/>
+      <c r="GH15" s="38"/>
+      <c r="GI15" s="38"/>
+      <c r="GJ15" s="38"/>
+      <c r="GK15" s="38"/>
+      <c r="GL15" s="38"/>
+      <c r="GM15" s="38"/>
+      <c r="GN15" s="38"/>
+      <c r="GO15" s="38"/>
+      <c r="GP15" s="38"/>
+      <c r="GQ15" s="38"/>
+      <c r="GR15" s="38"/>
+      <c r="GS15" s="38"/>
+      <c r="GT15" s="38"/>
+      <c r="GU15" s="38"/>
+      <c r="GV15" s="38"/>
+      <c r="GW15" s="38"/>
+      <c r="GX15" s="38"/>
+      <c r="GY15" s="38"/>
+      <c r="GZ15" s="38"/>
+      <c r="HA15" s="38"/>
+      <c r="HB15" s="38"/>
+      <c r="HC15" s="38"/>
+      <c r="HD15" s="38"/>
+      <c r="HE15" s="38"/>
+      <c r="HF15" s="38"/>
+      <c r="HG15" s="38"/>
+      <c r="HH15" s="38"/>
+      <c r="HI15" s="38"/>
+      <c r="HJ15" s="38"/>
+      <c r="HK15" s="38"/>
+      <c r="HL15" s="38"/>
+      <c r="HM15" s="38"/>
+      <c r="HN15" s="38"/>
+      <c r="HO15" s="38"/>
+      <c r="HP15" s="38"/>
+      <c r="HQ15" s="38"/>
+      <c r="HR15" s="38"/>
+      <c r="HS15" s="38"/>
+      <c r="HT15" s="38"/>
+      <c r="HU15" s="38"/>
+      <c r="HV15" s="38"/>
+      <c r="HW15" s="38"/>
+      <c r="HX15" s="38"/>
+      <c r="HY15" s="38"/>
+      <c r="HZ15" s="38"/>
+      <c r="IA15" s="38"/>
+      <c r="IB15" s="38"/>
+      <c r="IC15" s="38"/>
+      <c r="ID15" s="38"/>
+      <c r="IE15" s="38"/>
+      <c r="IF15" s="38"/>
+      <c r="IG15" s="38"/>
+      <c r="IH15" s="38"/>
+      <c r="II15" s="38"/>
+      <c r="IJ15" s="38"/>
+      <c r="IK15" s="38"/>
+      <c r="IL15" s="38"/>
+      <c r="IM15" s="38"/>
+      <c r="IN15" s="38"/>
+      <c r="IO15" s="38"/>
+      <c r="IP15" s="38"/>
+      <c r="IQ15" s="38"/>
+      <c r="IR15" s="38"/>
+      <c r="IS15" s="38"/>
+      <c r="IT15" s="38"/>
+      <c r="IU15" s="38"/>
+      <c r="IV15" s="38"/>
+      <c r="IW15" s="38"/>
+    </row>
+    <row r="16" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37">
+        <v>120379</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="39">
         <v>87</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>120379</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="38"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="38"/>
+      <c r="AX16" s="38"/>
+      <c r="AY16" s="38"/>
+      <c r="AZ16" s="38"/>
+      <c r="BA16" s="38"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
+      <c r="BM16" s="38"/>
+      <c r="BN16" s="38"/>
+      <c r="BO16" s="38"/>
+      <c r="BP16" s="38"/>
+      <c r="BQ16" s="38"/>
+      <c r="BR16" s="38"/>
+      <c r="BS16" s="38"/>
+      <c r="BT16" s="38"/>
+      <c r="BU16" s="38"/>
+      <c r="BV16" s="38"/>
+      <c r="BW16" s="38"/>
+      <c r="BX16" s="38"/>
+      <c r="BY16" s="38"/>
+      <c r="BZ16" s="38"/>
+      <c r="CA16" s="38"/>
+      <c r="CB16" s="38"/>
+      <c r="CC16" s="38"/>
+      <c r="CD16" s="38"/>
+      <c r="CE16" s="38"/>
+      <c r="CF16" s="38"/>
+      <c r="CG16" s="38"/>
+      <c r="CH16" s="38"/>
+      <c r="CI16" s="38"/>
+      <c r="CJ16" s="38"/>
+      <c r="CK16" s="38"/>
+      <c r="CL16" s="38"/>
+      <c r="CM16" s="38"/>
+      <c r="CN16" s="38"/>
+      <c r="CO16" s="38"/>
+      <c r="CP16" s="38"/>
+      <c r="CQ16" s="38"/>
+      <c r="CR16" s="38"/>
+      <c r="CS16" s="38"/>
+      <c r="CT16" s="38"/>
+      <c r="CU16" s="38"/>
+      <c r="CV16" s="38"/>
+      <c r="CW16" s="38"/>
+      <c r="CX16" s="38"/>
+      <c r="CY16" s="38"/>
+      <c r="CZ16" s="38"/>
+      <c r="DA16" s="38"/>
+      <c r="DB16" s="38"/>
+      <c r="DC16" s="38"/>
+      <c r="DD16" s="38"/>
+      <c r="DE16" s="38"/>
+      <c r="DF16" s="38"/>
+      <c r="DG16" s="38"/>
+      <c r="DH16" s="38"/>
+      <c r="DI16" s="38"/>
+      <c r="DJ16" s="38"/>
+      <c r="DK16" s="38"/>
+      <c r="DL16" s="38"/>
+      <c r="DM16" s="38"/>
+      <c r="DN16" s="38"/>
+      <c r="DO16" s="38"/>
+      <c r="DP16" s="38"/>
+      <c r="DQ16" s="38"/>
+      <c r="DR16" s="38"/>
+      <c r="DS16" s="38"/>
+      <c r="DT16" s="38"/>
+      <c r="DU16" s="38"/>
+      <c r="DV16" s="38"/>
+      <c r="DW16" s="38"/>
+      <c r="DX16" s="38"/>
+      <c r="DY16" s="38"/>
+      <c r="DZ16" s="38"/>
+      <c r="EA16" s="38"/>
+      <c r="EB16" s="38"/>
+      <c r="EC16" s="38"/>
+      <c r="ED16" s="38"/>
+      <c r="EE16" s="38"/>
+      <c r="EF16" s="38"/>
+      <c r="EG16" s="38"/>
+      <c r="EH16" s="38"/>
+      <c r="EI16" s="38"/>
+      <c r="EJ16" s="38"/>
+      <c r="EK16" s="38"/>
+      <c r="EL16" s="38"/>
+      <c r="EM16" s="38"/>
+      <c r="EN16" s="38"/>
+      <c r="EO16" s="38"/>
+      <c r="EP16" s="38"/>
+      <c r="EQ16" s="38"/>
+      <c r="ER16" s="38"/>
+      <c r="ES16" s="38"/>
+      <c r="ET16" s="38"/>
+      <c r="EU16" s="38"/>
+      <c r="EV16" s="38"/>
+      <c r="EW16" s="38"/>
+      <c r="EX16" s="38"/>
+      <c r="EY16" s="38"/>
+      <c r="EZ16" s="38"/>
+      <c r="FA16" s="38"/>
+      <c r="FB16" s="38"/>
+      <c r="FC16" s="38"/>
+      <c r="FD16" s="38"/>
+      <c r="FE16" s="38"/>
+      <c r="FF16" s="38"/>
+      <c r="FG16" s="38"/>
+      <c r="FH16" s="38"/>
+      <c r="FI16" s="38"/>
+      <c r="FJ16" s="38"/>
+      <c r="FK16" s="38"/>
+      <c r="FL16" s="38"/>
+      <c r="FM16" s="38"/>
+      <c r="FN16" s="38"/>
+      <c r="FO16" s="38"/>
+      <c r="FP16" s="38"/>
+      <c r="FQ16" s="38"/>
+      <c r="FR16" s="38"/>
+      <c r="FS16" s="38"/>
+      <c r="FT16" s="38"/>
+      <c r="FU16" s="38"/>
+      <c r="FV16" s="38"/>
+      <c r="FW16" s="38"/>
+      <c r="FX16" s="38"/>
+      <c r="FY16" s="38"/>
+      <c r="FZ16" s="38"/>
+      <c r="GA16" s="38"/>
+      <c r="GB16" s="38"/>
+      <c r="GC16" s="38"/>
+      <c r="GD16" s="38"/>
+      <c r="GE16" s="38"/>
+      <c r="GF16" s="38"/>
+      <c r="GG16" s="38"/>
+      <c r="GH16" s="38"/>
+      <c r="GI16" s="38"/>
+      <c r="GJ16" s="38"/>
+      <c r="GK16" s="38"/>
+      <c r="GL16" s="38"/>
+      <c r="GM16" s="38"/>
+      <c r="GN16" s="38"/>
+      <c r="GO16" s="38"/>
+      <c r="GP16" s="38"/>
+      <c r="GQ16" s="38"/>
+      <c r="GR16" s="38"/>
+      <c r="GS16" s="38"/>
+      <c r="GT16" s="38"/>
+      <c r="GU16" s="38"/>
+      <c r="GV16" s="38"/>
+      <c r="GW16" s="38"/>
+      <c r="GX16" s="38"/>
+      <c r="GY16" s="38"/>
+      <c r="GZ16" s="38"/>
+      <c r="HA16" s="38"/>
+      <c r="HB16" s="38"/>
+      <c r="HC16" s="38"/>
+      <c r="HD16" s="38"/>
+      <c r="HE16" s="38"/>
+      <c r="HF16" s="38"/>
+      <c r="HG16" s="38"/>
+      <c r="HH16" s="38"/>
+      <c r="HI16" s="38"/>
+      <c r="HJ16" s="38"/>
+      <c r="HK16" s="38"/>
+      <c r="HL16" s="38"/>
+      <c r="HM16" s="38"/>
+      <c r="HN16" s="38"/>
+      <c r="HO16" s="38"/>
+      <c r="HP16" s="38"/>
+      <c r="HQ16" s="38"/>
+      <c r="HR16" s="38"/>
+      <c r="HS16" s="38"/>
+      <c r="HT16" s="38"/>
+      <c r="HU16" s="38"/>
+      <c r="HV16" s="38"/>
+      <c r="HW16" s="38"/>
+      <c r="HX16" s="38"/>
+      <c r="HY16" s="38"/>
+      <c r="HZ16" s="38"/>
+      <c r="IA16" s="38"/>
+      <c r="IB16" s="38"/>
+      <c r="IC16" s="38"/>
+      <c r="ID16" s="38"/>
+      <c r="IE16" s="38"/>
+      <c r="IF16" s="38"/>
+      <c r="IG16" s="38"/>
+      <c r="IH16" s="38"/>
+      <c r="II16" s="38"/>
+      <c r="IJ16" s="38"/>
+      <c r="IK16" s="38"/>
+      <c r="IL16" s="38"/>
+      <c r="IM16" s="38"/>
+      <c r="IN16" s="38"/>
+      <c r="IO16" s="38"/>
+      <c r="IP16" s="38"/>
+      <c r="IQ16" s="38"/>
+      <c r="IR16" s="38"/>
+      <c r="IS16" s="38"/>
+      <c r="IT16" s="38"/>
+      <c r="IU16" s="38"/>
+      <c r="IV16" s="38"/>
+      <c r="IW16" s="38"/>
+    </row>
+    <row r="17" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>120194</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E17">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>120014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E18">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>120012</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="E19">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>119851</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E20">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>119650</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E21">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>119334</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E22">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>118892</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E23">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>118237</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E24">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>118233</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E25">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>118232</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E26">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>118117</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E27">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>117193</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E28">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>117186</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="E29">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>116953</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E30">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="31" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="37">
         <v>116881</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31">
+      <c r="B31" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="39">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
+      <c r="AT31" s="38"/>
+      <c r="AU31" s="38"/>
+      <c r="AV31" s="38"/>
+      <c r="AW31" s="38"/>
+      <c r="AX31" s="38"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="38"/>
+      <c r="BA31" s="38"/>
+      <c r="BB31" s="38"/>
+      <c r="BC31" s="38"/>
+      <c r="BD31" s="38"/>
+      <c r="BE31" s="38"/>
+      <c r="BF31" s="38"/>
+      <c r="BG31" s="38"/>
+      <c r="BH31" s="38"/>
+      <c r="BI31" s="38"/>
+      <c r="BJ31" s="38"/>
+      <c r="BK31" s="38"/>
+      <c r="BL31" s="38"/>
+      <c r="BM31" s="38"/>
+      <c r="BN31" s="38"/>
+      <c r="BO31" s="38"/>
+      <c r="BP31" s="38"/>
+      <c r="BQ31" s="38"/>
+      <c r="BR31" s="38"/>
+      <c r="BS31" s="38"/>
+      <c r="BT31" s="38"/>
+      <c r="BU31" s="38"/>
+      <c r="BV31" s="38"/>
+      <c r="BW31" s="38"/>
+      <c r="BX31" s="38"/>
+      <c r="BY31" s="38"/>
+      <c r="BZ31" s="38"/>
+      <c r="CA31" s="38"/>
+      <c r="CB31" s="38"/>
+      <c r="CC31" s="38"/>
+      <c r="CD31" s="38"/>
+      <c r="CE31" s="38"/>
+      <c r="CF31" s="38"/>
+      <c r="CG31" s="38"/>
+      <c r="CH31" s="38"/>
+      <c r="CI31" s="38"/>
+      <c r="CJ31" s="38"/>
+      <c r="CK31" s="38"/>
+      <c r="CL31" s="38"/>
+      <c r="CM31" s="38"/>
+      <c r="CN31" s="38"/>
+      <c r="CO31" s="38"/>
+      <c r="CP31" s="38"/>
+      <c r="CQ31" s="38"/>
+      <c r="CR31" s="38"/>
+      <c r="CS31" s="38"/>
+      <c r="CT31" s="38"/>
+      <c r="CU31" s="38"/>
+      <c r="CV31" s="38"/>
+      <c r="CW31" s="38"/>
+      <c r="CX31" s="38"/>
+      <c r="CY31" s="38"/>
+      <c r="CZ31" s="38"/>
+      <c r="DA31" s="38"/>
+      <c r="DB31" s="38"/>
+      <c r="DC31" s="38"/>
+      <c r="DD31" s="38"/>
+      <c r="DE31" s="38"/>
+      <c r="DF31" s="38"/>
+      <c r="DG31" s="38"/>
+      <c r="DH31" s="38"/>
+      <c r="DI31" s="38"/>
+      <c r="DJ31" s="38"/>
+      <c r="DK31" s="38"/>
+      <c r="DL31" s="38"/>
+      <c r="DM31" s="38"/>
+      <c r="DN31" s="38"/>
+      <c r="DO31" s="38"/>
+      <c r="DP31" s="38"/>
+      <c r="DQ31" s="38"/>
+      <c r="DR31" s="38"/>
+      <c r="DS31" s="38"/>
+      <c r="DT31" s="38"/>
+      <c r="DU31" s="38"/>
+      <c r="DV31" s="38"/>
+      <c r="DW31" s="38"/>
+      <c r="DX31" s="38"/>
+      <c r="DY31" s="38"/>
+      <c r="DZ31" s="38"/>
+      <c r="EA31" s="38"/>
+      <c r="EB31" s="38"/>
+      <c r="EC31" s="38"/>
+      <c r="ED31" s="38"/>
+      <c r="EE31" s="38"/>
+      <c r="EF31" s="38"/>
+      <c r="EG31" s="38"/>
+      <c r="EH31" s="38"/>
+      <c r="EI31" s="38"/>
+      <c r="EJ31" s="38"/>
+      <c r="EK31" s="38"/>
+      <c r="EL31" s="38"/>
+      <c r="EM31" s="38"/>
+      <c r="EN31" s="38"/>
+      <c r="EO31" s="38"/>
+      <c r="EP31" s="38"/>
+      <c r="EQ31" s="38"/>
+      <c r="ER31" s="38"/>
+      <c r="ES31" s="38"/>
+      <c r="ET31" s="38"/>
+      <c r="EU31" s="38"/>
+      <c r="EV31" s="38"/>
+      <c r="EW31" s="38"/>
+      <c r="EX31" s="38"/>
+      <c r="EY31" s="38"/>
+      <c r="EZ31" s="38"/>
+      <c r="FA31" s="38"/>
+      <c r="FB31" s="38"/>
+      <c r="FC31" s="38"/>
+      <c r="FD31" s="38"/>
+      <c r="FE31" s="38"/>
+      <c r="FF31" s="38"/>
+      <c r="FG31" s="38"/>
+      <c r="FH31" s="38"/>
+      <c r="FI31" s="38"/>
+      <c r="FJ31" s="38"/>
+      <c r="FK31" s="38"/>
+      <c r="FL31" s="38"/>
+      <c r="FM31" s="38"/>
+      <c r="FN31" s="38"/>
+      <c r="FO31" s="38"/>
+      <c r="FP31" s="38"/>
+      <c r="FQ31" s="38"/>
+      <c r="FR31" s="38"/>
+      <c r="FS31" s="38"/>
+      <c r="FT31" s="38"/>
+      <c r="FU31" s="38"/>
+      <c r="FV31" s="38"/>
+      <c r="FW31" s="38"/>
+      <c r="FX31" s="38"/>
+      <c r="FY31" s="38"/>
+      <c r="FZ31" s="38"/>
+      <c r="GA31" s="38"/>
+      <c r="GB31" s="38"/>
+      <c r="GC31" s="38"/>
+      <c r="GD31" s="38"/>
+      <c r="GE31" s="38"/>
+      <c r="GF31" s="38"/>
+      <c r="GG31" s="38"/>
+      <c r="GH31" s="38"/>
+      <c r="GI31" s="38"/>
+      <c r="GJ31" s="38"/>
+      <c r="GK31" s="38"/>
+      <c r="GL31" s="38"/>
+      <c r="GM31" s="38"/>
+      <c r="GN31" s="38"/>
+      <c r="GO31" s="38"/>
+      <c r="GP31" s="38"/>
+      <c r="GQ31" s="38"/>
+      <c r="GR31" s="38"/>
+      <c r="GS31" s="38"/>
+      <c r="GT31" s="38"/>
+      <c r="GU31" s="38"/>
+      <c r="GV31" s="38"/>
+      <c r="GW31" s="38"/>
+      <c r="GX31" s="38"/>
+      <c r="GY31" s="38"/>
+      <c r="GZ31" s="38"/>
+      <c r="HA31" s="38"/>
+      <c r="HB31" s="38"/>
+      <c r="HC31" s="38"/>
+      <c r="HD31" s="38"/>
+      <c r="HE31" s="38"/>
+      <c r="HF31" s="38"/>
+      <c r="HG31" s="38"/>
+      <c r="HH31" s="38"/>
+      <c r="HI31" s="38"/>
+      <c r="HJ31" s="38"/>
+      <c r="HK31" s="38"/>
+      <c r="HL31" s="38"/>
+      <c r="HM31" s="38"/>
+      <c r="HN31" s="38"/>
+      <c r="HO31" s="38"/>
+      <c r="HP31" s="38"/>
+      <c r="HQ31" s="38"/>
+      <c r="HR31" s="38"/>
+      <c r="HS31" s="38"/>
+      <c r="HT31" s="38"/>
+      <c r="HU31" s="38"/>
+      <c r="HV31" s="38"/>
+      <c r="HW31" s="38"/>
+      <c r="HX31" s="38"/>
+      <c r="HY31" s="38"/>
+      <c r="HZ31" s="38"/>
+      <c r="IA31" s="38"/>
+      <c r="IB31" s="38"/>
+      <c r="IC31" s="38"/>
+      <c r="ID31" s="38"/>
+      <c r="IE31" s="38"/>
+      <c r="IF31" s="38"/>
+      <c r="IG31" s="38"/>
+      <c r="IH31" s="38"/>
+      <c r="II31" s="38"/>
+      <c r="IJ31" s="38"/>
+      <c r="IK31" s="38"/>
+      <c r="IL31" s="38"/>
+      <c r="IM31" s="38"/>
+      <c r="IN31" s="38"/>
+      <c r="IO31" s="38"/>
+      <c r="IP31" s="38"/>
+      <c r="IQ31" s="38"/>
+      <c r="IR31" s="38"/>
+      <c r="IS31" s="38"/>
+      <c r="IT31" s="38"/>
+      <c r="IU31" s="38"/>
+      <c r="IV31" s="38"/>
+      <c r="IW31" s="38"/>
+    </row>
+    <row r="32" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>116797</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E32">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>116601</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E33">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>116448</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E34">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:257" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
         <v>116441</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35">
+      <c r="B35" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="30">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="27"/>
+      <c r="AQ35" s="27"/>
+      <c r="AR35" s="27"/>
+      <c r="AS35" s="27"/>
+      <c r="AT35" s="27"/>
+      <c r="AU35" s="27"/>
+      <c r="AV35" s="27"/>
+      <c r="AW35" s="27"/>
+      <c r="AX35" s="27"/>
+      <c r="AY35" s="27"/>
+      <c r="AZ35" s="27"/>
+      <c r="BA35" s="27"/>
+      <c r="BB35" s="27"/>
+      <c r="BC35" s="27"/>
+      <c r="BD35" s="27"/>
+      <c r="BE35" s="27"/>
+      <c r="BF35" s="27"/>
+      <c r="BG35" s="27"/>
+      <c r="BH35" s="27"/>
+      <c r="BI35" s="27"/>
+      <c r="BJ35" s="27"/>
+      <c r="BK35" s="27"/>
+      <c r="BL35" s="27"/>
+      <c r="BM35" s="27"/>
+      <c r="BN35" s="27"/>
+      <c r="BO35" s="27"/>
+      <c r="BP35" s="27"/>
+      <c r="BQ35" s="27"/>
+      <c r="BR35" s="27"/>
+      <c r="BS35" s="27"/>
+      <c r="BT35" s="27"/>
+      <c r="BU35" s="27"/>
+      <c r="BV35" s="27"/>
+      <c r="BW35" s="27"/>
+      <c r="BX35" s="27"/>
+      <c r="BY35" s="27"/>
+      <c r="BZ35" s="27"/>
+      <c r="CA35" s="27"/>
+      <c r="CB35" s="27"/>
+      <c r="CC35" s="27"/>
+      <c r="CD35" s="27"/>
+      <c r="CE35" s="27"/>
+      <c r="CF35" s="27"/>
+      <c r="CG35" s="27"/>
+      <c r="CH35" s="27"/>
+      <c r="CI35" s="27"/>
+      <c r="CJ35" s="27"/>
+      <c r="CK35" s="27"/>
+      <c r="CL35" s="27"/>
+      <c r="CM35" s="27"/>
+      <c r="CN35" s="27"/>
+      <c r="CO35" s="27"/>
+      <c r="CP35" s="27"/>
+      <c r="CQ35" s="27"/>
+      <c r="CR35" s="27"/>
+      <c r="CS35" s="27"/>
+      <c r="CT35" s="27"/>
+      <c r="CU35" s="27"/>
+      <c r="CV35" s="27"/>
+      <c r="CW35" s="27"/>
+      <c r="CX35" s="27"/>
+      <c r="CY35" s="27"/>
+      <c r="CZ35" s="27"/>
+      <c r="DA35" s="27"/>
+      <c r="DB35" s="27"/>
+      <c r="DC35" s="27"/>
+      <c r="DD35" s="27"/>
+      <c r="DE35" s="27"/>
+      <c r="DF35" s="27"/>
+      <c r="DG35" s="27"/>
+      <c r="DH35" s="27"/>
+      <c r="DI35" s="27"/>
+      <c r="DJ35" s="27"/>
+      <c r="DK35" s="27"/>
+      <c r="DL35" s="27"/>
+      <c r="DM35" s="27"/>
+      <c r="DN35" s="27"/>
+      <c r="DO35" s="27"/>
+      <c r="DP35" s="27"/>
+      <c r="DQ35" s="27"/>
+      <c r="DR35" s="27"/>
+      <c r="DS35" s="27"/>
+      <c r="DT35" s="27"/>
+      <c r="DU35" s="27"/>
+      <c r="DV35" s="27"/>
+      <c r="DW35" s="27"/>
+      <c r="DX35" s="27"/>
+      <c r="DY35" s="27"/>
+      <c r="DZ35" s="27"/>
+      <c r="EA35" s="27"/>
+      <c r="EB35" s="27"/>
+      <c r="EC35" s="27"/>
+      <c r="ED35" s="27"/>
+      <c r="EE35" s="27"/>
+      <c r="EF35" s="27"/>
+      <c r="EG35" s="27"/>
+      <c r="EH35" s="27"/>
+      <c r="EI35" s="27"/>
+      <c r="EJ35" s="27"/>
+      <c r="EK35" s="27"/>
+      <c r="EL35" s="27"/>
+      <c r="EM35" s="27"/>
+      <c r="EN35" s="27"/>
+      <c r="EO35" s="27"/>
+      <c r="EP35" s="27"/>
+      <c r="EQ35" s="27"/>
+      <c r="ER35" s="27"/>
+      <c r="ES35" s="27"/>
+      <c r="ET35" s="27"/>
+      <c r="EU35" s="27"/>
+      <c r="EV35" s="27"/>
+      <c r="EW35" s="27"/>
+      <c r="EX35" s="27"/>
+      <c r="EY35" s="27"/>
+      <c r="EZ35" s="27"/>
+      <c r="FA35" s="27"/>
+      <c r="FB35" s="27"/>
+      <c r="FC35" s="27"/>
+      <c r="FD35" s="27"/>
+      <c r="FE35" s="27"/>
+      <c r="FF35" s="27"/>
+      <c r="FG35" s="27"/>
+      <c r="FH35" s="27"/>
+      <c r="FI35" s="27"/>
+      <c r="FJ35" s="27"/>
+      <c r="FK35" s="27"/>
+      <c r="FL35" s="27"/>
+      <c r="FM35" s="27"/>
+      <c r="FN35" s="27"/>
+      <c r="FO35" s="27"/>
+      <c r="FP35" s="27"/>
+      <c r="FQ35" s="27"/>
+      <c r="FR35" s="27"/>
+      <c r="FS35" s="27"/>
+      <c r="FT35" s="27"/>
+      <c r="FU35" s="27"/>
+      <c r="FV35" s="27"/>
+      <c r="FW35" s="27"/>
+      <c r="FX35" s="27"/>
+      <c r="FY35" s="27"/>
+      <c r="FZ35" s="27"/>
+      <c r="GA35" s="27"/>
+      <c r="GB35" s="27"/>
+      <c r="GC35" s="27"/>
+      <c r="GD35" s="27"/>
+      <c r="GE35" s="27"/>
+      <c r="GF35" s="27"/>
+      <c r="GG35" s="27"/>
+      <c r="GH35" s="27"/>
+      <c r="GI35" s="27"/>
+      <c r="GJ35" s="27"/>
+      <c r="GK35" s="27"/>
+      <c r="GL35" s="27"/>
+      <c r="GM35" s="27"/>
+      <c r="GN35" s="27"/>
+      <c r="GO35" s="27"/>
+      <c r="GP35" s="27"/>
+      <c r="GQ35" s="27"/>
+      <c r="GR35" s="27"/>
+      <c r="GS35" s="27"/>
+      <c r="GT35" s="27"/>
+      <c r="GU35" s="27"/>
+      <c r="GV35" s="27"/>
+      <c r="GW35" s="27"/>
+      <c r="GX35" s="27"/>
+      <c r="GY35" s="27"/>
+      <c r="GZ35" s="27"/>
+      <c r="HA35" s="27"/>
+      <c r="HB35" s="27"/>
+      <c r="HC35" s="27"/>
+      <c r="HD35" s="27"/>
+      <c r="HE35" s="27"/>
+      <c r="HF35" s="27"/>
+      <c r="HG35" s="27"/>
+      <c r="HH35" s="27"/>
+      <c r="HI35" s="27"/>
+      <c r="HJ35" s="27"/>
+      <c r="HK35" s="27"/>
+      <c r="HL35" s="27"/>
+      <c r="HM35" s="27"/>
+      <c r="HN35" s="27"/>
+      <c r="HO35" s="27"/>
+      <c r="HP35" s="27"/>
+      <c r="HQ35" s="27"/>
+      <c r="HR35" s="27"/>
+      <c r="HS35" s="27"/>
+      <c r="HT35" s="27"/>
+      <c r="HU35" s="27"/>
+      <c r="HV35" s="27"/>
+      <c r="HW35" s="27"/>
+      <c r="HX35" s="27"/>
+      <c r="HY35" s="27"/>
+      <c r="HZ35" s="27"/>
+      <c r="IA35" s="27"/>
+      <c r="IB35" s="27"/>
+      <c r="IC35" s="27"/>
+      <c r="ID35" s="27"/>
+      <c r="IE35" s="27"/>
+      <c r="IF35" s="27"/>
+      <c r="IG35" s="27"/>
+      <c r="IH35" s="27"/>
+      <c r="II35" s="27"/>
+      <c r="IJ35" s="27"/>
+      <c r="IK35" s="27"/>
+      <c r="IL35" s="27"/>
+      <c r="IM35" s="27"/>
+      <c r="IN35" s="27"/>
+      <c r="IO35" s="27"/>
+      <c r="IP35" s="27"/>
+      <c r="IQ35" s="27"/>
+      <c r="IR35" s="27"/>
+      <c r="IS35" s="27"/>
+      <c r="IT35" s="27"/>
+      <c r="IU35" s="27"/>
+      <c r="IV35" s="27"/>
+      <c r="IW35" s="27"/>
+    </row>
+    <row r="36" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>116197</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E36">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="37" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="37">
         <v>115899</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37">
+      <c r="B37" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="39">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="38"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="38"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
+      <c r="BD37" s="38"/>
+      <c r="BE37" s="38"/>
+      <c r="BF37" s="38"/>
+      <c r="BG37" s="38"/>
+      <c r="BH37" s="38"/>
+      <c r="BI37" s="38"/>
+      <c r="BJ37" s="38"/>
+      <c r="BK37" s="38"/>
+      <c r="BL37" s="38"/>
+      <c r="BM37" s="38"/>
+      <c r="BN37" s="38"/>
+      <c r="BO37" s="38"/>
+      <c r="BP37" s="38"/>
+      <c r="BQ37" s="38"/>
+      <c r="BR37" s="38"/>
+      <c r="BS37" s="38"/>
+      <c r="BT37" s="38"/>
+      <c r="BU37" s="38"/>
+      <c r="BV37" s="38"/>
+      <c r="BW37" s="38"/>
+      <c r="BX37" s="38"/>
+      <c r="BY37" s="38"/>
+      <c r="BZ37" s="38"/>
+      <c r="CA37" s="38"/>
+      <c r="CB37" s="38"/>
+      <c r="CC37" s="38"/>
+      <c r="CD37" s="38"/>
+      <c r="CE37" s="38"/>
+      <c r="CF37" s="38"/>
+      <c r="CG37" s="38"/>
+      <c r="CH37" s="38"/>
+      <c r="CI37" s="38"/>
+      <c r="CJ37" s="38"/>
+      <c r="CK37" s="38"/>
+      <c r="CL37" s="38"/>
+      <c r="CM37" s="38"/>
+      <c r="CN37" s="38"/>
+      <c r="CO37" s="38"/>
+      <c r="CP37" s="38"/>
+      <c r="CQ37" s="38"/>
+      <c r="CR37" s="38"/>
+      <c r="CS37" s="38"/>
+      <c r="CT37" s="38"/>
+      <c r="CU37" s="38"/>
+      <c r="CV37" s="38"/>
+      <c r="CW37" s="38"/>
+      <c r="CX37" s="38"/>
+      <c r="CY37" s="38"/>
+      <c r="CZ37" s="38"/>
+      <c r="DA37" s="38"/>
+      <c r="DB37" s="38"/>
+      <c r="DC37" s="38"/>
+      <c r="DD37" s="38"/>
+      <c r="DE37" s="38"/>
+      <c r="DF37" s="38"/>
+      <c r="DG37" s="38"/>
+      <c r="DH37" s="38"/>
+      <c r="DI37" s="38"/>
+      <c r="DJ37" s="38"/>
+      <c r="DK37" s="38"/>
+      <c r="DL37" s="38"/>
+      <c r="DM37" s="38"/>
+      <c r="DN37" s="38"/>
+      <c r="DO37" s="38"/>
+      <c r="DP37" s="38"/>
+      <c r="DQ37" s="38"/>
+      <c r="DR37" s="38"/>
+      <c r="DS37" s="38"/>
+      <c r="DT37" s="38"/>
+      <c r="DU37" s="38"/>
+      <c r="DV37" s="38"/>
+      <c r="DW37" s="38"/>
+      <c r="DX37" s="38"/>
+      <c r="DY37" s="38"/>
+      <c r="DZ37" s="38"/>
+      <c r="EA37" s="38"/>
+      <c r="EB37" s="38"/>
+      <c r="EC37" s="38"/>
+      <c r="ED37" s="38"/>
+      <c r="EE37" s="38"/>
+      <c r="EF37" s="38"/>
+      <c r="EG37" s="38"/>
+      <c r="EH37" s="38"/>
+      <c r="EI37" s="38"/>
+      <c r="EJ37" s="38"/>
+      <c r="EK37" s="38"/>
+      <c r="EL37" s="38"/>
+      <c r="EM37" s="38"/>
+      <c r="EN37" s="38"/>
+      <c r="EO37" s="38"/>
+      <c r="EP37" s="38"/>
+      <c r="EQ37" s="38"/>
+      <c r="ER37" s="38"/>
+      <c r="ES37" s="38"/>
+      <c r="ET37" s="38"/>
+      <c r="EU37" s="38"/>
+      <c r="EV37" s="38"/>
+      <c r="EW37" s="38"/>
+      <c r="EX37" s="38"/>
+      <c r="EY37" s="38"/>
+      <c r="EZ37" s="38"/>
+      <c r="FA37" s="38"/>
+      <c r="FB37" s="38"/>
+      <c r="FC37" s="38"/>
+      <c r="FD37" s="38"/>
+      <c r="FE37" s="38"/>
+      <c r="FF37" s="38"/>
+      <c r="FG37" s="38"/>
+      <c r="FH37" s="38"/>
+      <c r="FI37" s="38"/>
+      <c r="FJ37" s="38"/>
+      <c r="FK37" s="38"/>
+      <c r="FL37" s="38"/>
+      <c r="FM37" s="38"/>
+      <c r="FN37" s="38"/>
+      <c r="FO37" s="38"/>
+      <c r="FP37" s="38"/>
+      <c r="FQ37" s="38"/>
+      <c r="FR37" s="38"/>
+      <c r="FS37" s="38"/>
+      <c r="FT37" s="38"/>
+      <c r="FU37" s="38"/>
+      <c r="FV37" s="38"/>
+      <c r="FW37" s="38"/>
+      <c r="FX37" s="38"/>
+      <c r="FY37" s="38"/>
+      <c r="FZ37" s="38"/>
+      <c r="GA37" s="38"/>
+      <c r="GB37" s="38"/>
+      <c r="GC37" s="38"/>
+      <c r="GD37" s="38"/>
+      <c r="GE37" s="38"/>
+      <c r="GF37" s="38"/>
+      <c r="GG37" s="38"/>
+      <c r="GH37" s="38"/>
+      <c r="GI37" s="38"/>
+      <c r="GJ37" s="38"/>
+      <c r="GK37" s="38"/>
+      <c r="GL37" s="38"/>
+      <c r="GM37" s="38"/>
+      <c r="GN37" s="38"/>
+      <c r="GO37" s="38"/>
+      <c r="GP37" s="38"/>
+      <c r="GQ37" s="38"/>
+      <c r="GR37" s="38"/>
+      <c r="GS37" s="38"/>
+      <c r="GT37" s="38"/>
+      <c r="GU37" s="38"/>
+      <c r="GV37" s="38"/>
+      <c r="GW37" s="38"/>
+      <c r="GX37" s="38"/>
+      <c r="GY37" s="38"/>
+      <c r="GZ37" s="38"/>
+      <c r="HA37" s="38"/>
+      <c r="HB37" s="38"/>
+      <c r="HC37" s="38"/>
+      <c r="HD37" s="38"/>
+      <c r="HE37" s="38"/>
+      <c r="HF37" s="38"/>
+      <c r="HG37" s="38"/>
+      <c r="HH37" s="38"/>
+      <c r="HI37" s="38"/>
+      <c r="HJ37" s="38"/>
+      <c r="HK37" s="38"/>
+      <c r="HL37" s="38"/>
+      <c r="HM37" s="38"/>
+      <c r="HN37" s="38"/>
+      <c r="HO37" s="38"/>
+      <c r="HP37" s="38"/>
+      <c r="HQ37" s="38"/>
+      <c r="HR37" s="38"/>
+      <c r="HS37" s="38"/>
+      <c r="HT37" s="38"/>
+      <c r="HU37" s="38"/>
+      <c r="HV37" s="38"/>
+      <c r="HW37" s="38"/>
+      <c r="HX37" s="38"/>
+      <c r="HY37" s="38"/>
+      <c r="HZ37" s="38"/>
+      <c r="IA37" s="38"/>
+      <c r="IB37" s="38"/>
+      <c r="IC37" s="38"/>
+      <c r="ID37" s="38"/>
+      <c r="IE37" s="38"/>
+      <c r="IF37" s="38"/>
+      <c r="IG37" s="38"/>
+      <c r="IH37" s="38"/>
+      <c r="II37" s="38"/>
+      <c r="IJ37" s="38"/>
+      <c r="IK37" s="38"/>
+      <c r="IL37" s="38"/>
+      <c r="IM37" s="38"/>
+      <c r="IN37" s="38"/>
+      <c r="IO37" s="38"/>
+      <c r="IP37" s="38"/>
+      <c r="IQ37" s="38"/>
+      <c r="IR37" s="38"/>
+      <c r="IS37" s="38"/>
+      <c r="IT37" s="38"/>
+      <c r="IU37" s="38"/>
+      <c r="IV37" s="38"/>
+      <c r="IW37" s="38"/>
+    </row>
+    <row r="38" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>115777</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="E38">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>115611</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E39">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>115610</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E40">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>115602</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E41">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>115390</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E42">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>115195</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E43">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>114961</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E44">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>114748</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E45">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>114517</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E46">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>114386</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="E47">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>114152</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E48">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>113992</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E49">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>113584</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E50">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>113583</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E51">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+    <row r="52" spans="1:257" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
         <v>113181</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E52">
+      <c r="B52" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="25">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
+      <c r="AG52" s="22"/>
+      <c r="AH52" s="22"/>
+      <c r="AI52" s="22"/>
+      <c r="AJ52" s="22"/>
+      <c r="AK52" s="22"/>
+      <c r="AL52" s="22"/>
+      <c r="AM52" s="22"/>
+      <c r="AN52" s="22"/>
+      <c r="AO52" s="22"/>
+      <c r="AP52" s="22"/>
+      <c r="AQ52" s="22"/>
+      <c r="AR52" s="22"/>
+      <c r="AS52" s="22"/>
+      <c r="AT52" s="22"/>
+      <c r="AU52" s="22"/>
+      <c r="AV52" s="22"/>
+      <c r="AW52" s="22"/>
+      <c r="AX52" s="22"/>
+      <c r="AY52" s="22"/>
+      <c r="AZ52" s="22"/>
+      <c r="BA52" s="22"/>
+      <c r="BB52" s="22"/>
+      <c r="BC52" s="22"/>
+      <c r="BD52" s="22"/>
+      <c r="BE52" s="22"/>
+      <c r="BF52" s="22"/>
+      <c r="BG52" s="22"/>
+      <c r="BH52" s="22"/>
+      <c r="BI52" s="22"/>
+      <c r="BJ52" s="22"/>
+      <c r="BK52" s="22"/>
+      <c r="BL52" s="22"/>
+      <c r="BM52" s="22"/>
+      <c r="BN52" s="22"/>
+      <c r="BO52" s="22"/>
+      <c r="BP52" s="22"/>
+      <c r="BQ52" s="22"/>
+      <c r="BR52" s="22"/>
+      <c r="BS52" s="22"/>
+      <c r="BT52" s="22"/>
+      <c r="BU52" s="22"/>
+      <c r="BV52" s="22"/>
+      <c r="BW52" s="22"/>
+      <c r="BX52" s="22"/>
+      <c r="BY52" s="22"/>
+      <c r="BZ52" s="22"/>
+      <c r="CA52" s="22"/>
+      <c r="CB52" s="22"/>
+      <c r="CC52" s="22"/>
+      <c r="CD52" s="22"/>
+      <c r="CE52" s="22"/>
+      <c r="CF52" s="22"/>
+      <c r="CG52" s="22"/>
+      <c r="CH52" s="22"/>
+      <c r="CI52" s="22"/>
+      <c r="CJ52" s="22"/>
+      <c r="CK52" s="22"/>
+      <c r="CL52" s="22"/>
+      <c r="CM52" s="22"/>
+      <c r="CN52" s="22"/>
+      <c r="CO52" s="22"/>
+      <c r="CP52" s="22"/>
+      <c r="CQ52" s="22"/>
+      <c r="CR52" s="22"/>
+      <c r="CS52" s="22"/>
+      <c r="CT52" s="22"/>
+      <c r="CU52" s="22"/>
+      <c r="CV52" s="22"/>
+      <c r="CW52" s="22"/>
+      <c r="CX52" s="22"/>
+      <c r="CY52" s="22"/>
+      <c r="CZ52" s="22"/>
+      <c r="DA52" s="22"/>
+      <c r="DB52" s="22"/>
+      <c r="DC52" s="22"/>
+      <c r="DD52" s="22"/>
+      <c r="DE52" s="22"/>
+      <c r="DF52" s="22"/>
+      <c r="DG52" s="22"/>
+      <c r="DH52" s="22"/>
+      <c r="DI52" s="22"/>
+      <c r="DJ52" s="22"/>
+      <c r="DK52" s="22"/>
+      <c r="DL52" s="22"/>
+      <c r="DM52" s="22"/>
+      <c r="DN52" s="22"/>
+      <c r="DO52" s="22"/>
+      <c r="DP52" s="22"/>
+      <c r="DQ52" s="22"/>
+      <c r="DR52" s="22"/>
+      <c r="DS52" s="22"/>
+      <c r="DT52" s="22"/>
+      <c r="DU52" s="22"/>
+      <c r="DV52" s="22"/>
+      <c r="DW52" s="22"/>
+      <c r="DX52" s="22"/>
+      <c r="DY52" s="22"/>
+      <c r="DZ52" s="22"/>
+      <c r="EA52" s="22"/>
+      <c r="EB52" s="22"/>
+      <c r="EC52" s="22"/>
+      <c r="ED52" s="22"/>
+      <c r="EE52" s="22"/>
+      <c r="EF52" s="22"/>
+      <c r="EG52" s="22"/>
+      <c r="EH52" s="22"/>
+      <c r="EI52" s="22"/>
+      <c r="EJ52" s="22"/>
+      <c r="EK52" s="22"/>
+      <c r="EL52" s="22"/>
+      <c r="EM52" s="22"/>
+      <c r="EN52" s="22"/>
+      <c r="EO52" s="22"/>
+      <c r="EP52" s="22"/>
+      <c r="EQ52" s="22"/>
+      <c r="ER52" s="22"/>
+      <c r="ES52" s="22"/>
+      <c r="ET52" s="22"/>
+      <c r="EU52" s="22"/>
+      <c r="EV52" s="22"/>
+      <c r="EW52" s="22"/>
+      <c r="EX52" s="22"/>
+      <c r="EY52" s="22"/>
+      <c r="EZ52" s="22"/>
+      <c r="FA52" s="22"/>
+      <c r="FB52" s="22"/>
+      <c r="FC52" s="22"/>
+      <c r="FD52" s="22"/>
+      <c r="FE52" s="22"/>
+      <c r="FF52" s="22"/>
+      <c r="FG52" s="22"/>
+      <c r="FH52" s="22"/>
+      <c r="FI52" s="22"/>
+      <c r="FJ52" s="22"/>
+      <c r="FK52" s="22"/>
+      <c r="FL52" s="22"/>
+      <c r="FM52" s="22"/>
+      <c r="FN52" s="22"/>
+      <c r="FO52" s="22"/>
+      <c r="FP52" s="22"/>
+      <c r="FQ52" s="22"/>
+      <c r="FR52" s="22"/>
+      <c r="FS52" s="22"/>
+      <c r="FT52" s="22"/>
+      <c r="FU52" s="22"/>
+      <c r="FV52" s="22"/>
+      <c r="FW52" s="22"/>
+      <c r="FX52" s="22"/>
+      <c r="FY52" s="22"/>
+      <c r="FZ52" s="22"/>
+      <c r="GA52" s="22"/>
+      <c r="GB52" s="22"/>
+      <c r="GC52" s="22"/>
+      <c r="GD52" s="22"/>
+      <c r="GE52" s="22"/>
+      <c r="GF52" s="22"/>
+      <c r="GG52" s="22"/>
+      <c r="GH52" s="22"/>
+      <c r="GI52" s="22"/>
+      <c r="GJ52" s="22"/>
+      <c r="GK52" s="22"/>
+      <c r="GL52" s="22"/>
+      <c r="GM52" s="22"/>
+      <c r="GN52" s="22"/>
+      <c r="GO52" s="22"/>
+      <c r="GP52" s="22"/>
+      <c r="GQ52" s="22"/>
+      <c r="GR52" s="22"/>
+      <c r="GS52" s="22"/>
+      <c r="GT52" s="22"/>
+      <c r="GU52" s="22"/>
+      <c r="GV52" s="22"/>
+      <c r="GW52" s="22"/>
+      <c r="GX52" s="22"/>
+      <c r="GY52" s="22"/>
+      <c r="GZ52" s="22"/>
+      <c r="HA52" s="22"/>
+      <c r="HB52" s="22"/>
+      <c r="HC52" s="22"/>
+      <c r="HD52" s="22"/>
+      <c r="HE52" s="22"/>
+      <c r="HF52" s="22"/>
+      <c r="HG52" s="22"/>
+      <c r="HH52" s="22"/>
+      <c r="HI52" s="22"/>
+      <c r="HJ52" s="22"/>
+      <c r="HK52" s="22"/>
+      <c r="HL52" s="22"/>
+      <c r="HM52" s="22"/>
+      <c r="HN52" s="22"/>
+      <c r="HO52" s="22"/>
+      <c r="HP52" s="22"/>
+      <c r="HQ52" s="22"/>
+      <c r="HR52" s="22"/>
+      <c r="HS52" s="22"/>
+      <c r="HT52" s="22"/>
+      <c r="HU52" s="22"/>
+      <c r="HV52" s="22"/>
+      <c r="HW52" s="22"/>
+      <c r="HX52" s="22"/>
+      <c r="HY52" s="22"/>
+      <c r="HZ52" s="22"/>
+      <c r="IA52" s="22"/>
+      <c r="IB52" s="22"/>
+      <c r="IC52" s="22"/>
+      <c r="ID52" s="22"/>
+      <c r="IE52" s="22"/>
+      <c r="IF52" s="22"/>
+      <c r="IG52" s="22"/>
+      <c r="IH52" s="22"/>
+      <c r="II52" s="22"/>
+      <c r="IJ52" s="22"/>
+      <c r="IK52" s="22"/>
+      <c r="IL52" s="22"/>
+      <c r="IM52" s="22"/>
+      <c r="IN52" s="22"/>
+      <c r="IO52" s="22"/>
+      <c r="IP52" s="22"/>
+      <c r="IQ52" s="22"/>
+      <c r="IR52" s="22"/>
+      <c r="IS52" s="22"/>
+      <c r="IT52" s="22"/>
+      <c r="IU52" s="22"/>
+      <c r="IV52" s="22"/>
+      <c r="IW52" s="22"/>
+    </row>
+    <row r="53" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>112512</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E53">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>112478</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E54">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>112270</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E55">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>111848</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E56">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>111580</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E57">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>111220</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E58">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>110740</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="E59">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>109367</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E60">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+    <row r="61" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="37">
         <v>109244</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61">
+      <c r="B61" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="39">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="38"/>
+      <c r="AI61" s="38"/>
+      <c r="AJ61" s="38"/>
+      <c r="AK61" s="38"/>
+      <c r="AL61" s="38"/>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="38"/>
+      <c r="AO61" s="38"/>
+      <c r="AP61" s="38"/>
+      <c r="AQ61" s="38"/>
+      <c r="AR61" s="38"/>
+      <c r="AS61" s="38"/>
+      <c r="AT61" s="38"/>
+      <c r="AU61" s="38"/>
+      <c r="AV61" s="38"/>
+      <c r="AW61" s="38"/>
+      <c r="AX61" s="38"/>
+      <c r="AY61" s="38"/>
+      <c r="AZ61" s="38"/>
+      <c r="BA61" s="38"/>
+      <c r="BB61" s="38"/>
+      <c r="BC61" s="38"/>
+      <c r="BD61" s="38"/>
+      <c r="BE61" s="38"/>
+      <c r="BF61" s="38"/>
+      <c r="BG61" s="38"/>
+      <c r="BH61" s="38"/>
+      <c r="BI61" s="38"/>
+      <c r="BJ61" s="38"/>
+      <c r="BK61" s="38"/>
+      <c r="BL61" s="38"/>
+      <c r="BM61" s="38"/>
+      <c r="BN61" s="38"/>
+      <c r="BO61" s="38"/>
+      <c r="BP61" s="38"/>
+      <c r="BQ61" s="38"/>
+      <c r="BR61" s="38"/>
+      <c r="BS61" s="38"/>
+      <c r="BT61" s="38"/>
+      <c r="BU61" s="38"/>
+      <c r="BV61" s="38"/>
+      <c r="BW61" s="38"/>
+      <c r="BX61" s="38"/>
+      <c r="BY61" s="38"/>
+      <c r="BZ61" s="38"/>
+      <c r="CA61" s="38"/>
+      <c r="CB61" s="38"/>
+      <c r="CC61" s="38"/>
+      <c r="CD61" s="38"/>
+      <c r="CE61" s="38"/>
+      <c r="CF61" s="38"/>
+      <c r="CG61" s="38"/>
+      <c r="CH61" s="38"/>
+      <c r="CI61" s="38"/>
+      <c r="CJ61" s="38"/>
+      <c r="CK61" s="38"/>
+      <c r="CL61" s="38"/>
+      <c r="CM61" s="38"/>
+      <c r="CN61" s="38"/>
+      <c r="CO61" s="38"/>
+      <c r="CP61" s="38"/>
+      <c r="CQ61" s="38"/>
+      <c r="CR61" s="38"/>
+      <c r="CS61" s="38"/>
+      <c r="CT61" s="38"/>
+      <c r="CU61" s="38"/>
+      <c r="CV61" s="38"/>
+      <c r="CW61" s="38"/>
+      <c r="CX61" s="38"/>
+      <c r="CY61" s="38"/>
+      <c r="CZ61" s="38"/>
+      <c r="DA61" s="38"/>
+      <c r="DB61" s="38"/>
+      <c r="DC61" s="38"/>
+      <c r="DD61" s="38"/>
+      <c r="DE61" s="38"/>
+      <c r="DF61" s="38"/>
+      <c r="DG61" s="38"/>
+      <c r="DH61" s="38"/>
+      <c r="DI61" s="38"/>
+      <c r="DJ61" s="38"/>
+      <c r="DK61" s="38"/>
+      <c r="DL61" s="38"/>
+      <c r="DM61" s="38"/>
+      <c r="DN61" s="38"/>
+      <c r="DO61" s="38"/>
+      <c r="DP61" s="38"/>
+      <c r="DQ61" s="38"/>
+      <c r="DR61" s="38"/>
+      <c r="DS61" s="38"/>
+      <c r="DT61" s="38"/>
+      <c r="DU61" s="38"/>
+      <c r="DV61" s="38"/>
+      <c r="DW61" s="38"/>
+      <c r="DX61" s="38"/>
+      <c r="DY61" s="38"/>
+      <c r="DZ61" s="38"/>
+      <c r="EA61" s="38"/>
+      <c r="EB61" s="38"/>
+      <c r="EC61" s="38"/>
+      <c r="ED61" s="38"/>
+      <c r="EE61" s="38"/>
+      <c r="EF61" s="38"/>
+      <c r="EG61" s="38"/>
+      <c r="EH61" s="38"/>
+      <c r="EI61" s="38"/>
+      <c r="EJ61" s="38"/>
+      <c r="EK61" s="38"/>
+      <c r="EL61" s="38"/>
+      <c r="EM61" s="38"/>
+      <c r="EN61" s="38"/>
+      <c r="EO61" s="38"/>
+      <c r="EP61" s="38"/>
+      <c r="EQ61" s="38"/>
+      <c r="ER61" s="38"/>
+      <c r="ES61" s="38"/>
+      <c r="ET61" s="38"/>
+      <c r="EU61" s="38"/>
+      <c r="EV61" s="38"/>
+      <c r="EW61" s="38"/>
+      <c r="EX61" s="38"/>
+      <c r="EY61" s="38"/>
+      <c r="EZ61" s="38"/>
+      <c r="FA61" s="38"/>
+      <c r="FB61" s="38"/>
+      <c r="FC61" s="38"/>
+      <c r="FD61" s="38"/>
+      <c r="FE61" s="38"/>
+      <c r="FF61" s="38"/>
+      <c r="FG61" s="38"/>
+      <c r="FH61" s="38"/>
+      <c r="FI61" s="38"/>
+      <c r="FJ61" s="38"/>
+      <c r="FK61" s="38"/>
+      <c r="FL61" s="38"/>
+      <c r="FM61" s="38"/>
+      <c r="FN61" s="38"/>
+      <c r="FO61" s="38"/>
+      <c r="FP61" s="38"/>
+      <c r="FQ61" s="38"/>
+      <c r="FR61" s="38"/>
+      <c r="FS61" s="38"/>
+      <c r="FT61" s="38"/>
+      <c r="FU61" s="38"/>
+      <c r="FV61" s="38"/>
+      <c r="FW61" s="38"/>
+      <c r="FX61" s="38"/>
+      <c r="FY61" s="38"/>
+      <c r="FZ61" s="38"/>
+      <c r="GA61" s="38"/>
+      <c r="GB61" s="38"/>
+      <c r="GC61" s="38"/>
+      <c r="GD61" s="38"/>
+      <c r="GE61" s="38"/>
+      <c r="GF61" s="38"/>
+      <c r="GG61" s="38"/>
+      <c r="GH61" s="38"/>
+      <c r="GI61" s="38"/>
+      <c r="GJ61" s="38"/>
+      <c r="GK61" s="38"/>
+      <c r="GL61" s="38"/>
+      <c r="GM61" s="38"/>
+      <c r="GN61" s="38"/>
+      <c r="GO61" s="38"/>
+      <c r="GP61" s="38"/>
+      <c r="GQ61" s="38"/>
+      <c r="GR61" s="38"/>
+      <c r="GS61" s="38"/>
+      <c r="GT61" s="38"/>
+      <c r="GU61" s="38"/>
+      <c r="GV61" s="38"/>
+      <c r="GW61" s="38"/>
+      <c r="GX61" s="38"/>
+      <c r="GY61" s="38"/>
+      <c r="GZ61" s="38"/>
+      <c r="HA61" s="38"/>
+      <c r="HB61" s="38"/>
+      <c r="HC61" s="38"/>
+      <c r="HD61" s="38"/>
+      <c r="HE61" s="38"/>
+      <c r="HF61" s="38"/>
+      <c r="HG61" s="38"/>
+      <c r="HH61" s="38"/>
+      <c r="HI61" s="38"/>
+      <c r="HJ61" s="38"/>
+      <c r="HK61" s="38"/>
+      <c r="HL61" s="38"/>
+      <c r="HM61" s="38"/>
+      <c r="HN61" s="38"/>
+      <c r="HO61" s="38"/>
+      <c r="HP61" s="38"/>
+      <c r="HQ61" s="38"/>
+      <c r="HR61" s="38"/>
+      <c r="HS61" s="38"/>
+      <c r="HT61" s="38"/>
+      <c r="HU61" s="38"/>
+      <c r="HV61" s="38"/>
+      <c r="HW61" s="38"/>
+      <c r="HX61" s="38"/>
+      <c r="HY61" s="38"/>
+      <c r="HZ61" s="38"/>
+      <c r="IA61" s="38"/>
+      <c r="IB61" s="38"/>
+      <c r="IC61" s="38"/>
+      <c r="ID61" s="38"/>
+      <c r="IE61" s="38"/>
+      <c r="IF61" s="38"/>
+      <c r="IG61" s="38"/>
+      <c r="IH61" s="38"/>
+      <c r="II61" s="38"/>
+      <c r="IJ61" s="38"/>
+      <c r="IK61" s="38"/>
+      <c r="IL61" s="38"/>
+      <c r="IM61" s="38"/>
+      <c r="IN61" s="38"/>
+      <c r="IO61" s="38"/>
+      <c r="IP61" s="38"/>
+      <c r="IQ61" s="38"/>
+      <c r="IR61" s="38"/>
+      <c r="IS61" s="38"/>
+      <c r="IT61" s="38"/>
+      <c r="IU61" s="38"/>
+      <c r="IV61" s="38"/>
+      <c r="IW61" s="38"/>
+    </row>
+    <row r="62" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>108950</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E62">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>108856</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E63">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>108855</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E64">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>108754</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E65">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>108617</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E66">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+    <row r="67" spans="1:257" s="15" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
         <v>108343</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67">
+      <c r="B67" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="15">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="12"/>
+      <c r="AU67" s="12"/>
+      <c r="AV67" s="12"/>
+      <c r="AW67" s="12"/>
+      <c r="AX67" s="12"/>
+      <c r="AY67" s="12"/>
+      <c r="AZ67" s="12"/>
+      <c r="BA67" s="12"/>
+      <c r="BB67" s="12"/>
+      <c r="BC67" s="12"/>
+      <c r="BD67" s="12"/>
+      <c r="BE67" s="12"/>
+      <c r="BF67" s="12"/>
+      <c r="BG67" s="12"/>
+      <c r="BH67" s="12"/>
+      <c r="BI67" s="12"/>
+      <c r="BJ67" s="12"/>
+      <c r="BK67" s="12"/>
+      <c r="BL67" s="12"/>
+      <c r="BM67" s="12"/>
+      <c r="BN67" s="12"/>
+      <c r="BO67" s="12"/>
+      <c r="BP67" s="12"/>
+      <c r="BQ67" s="12"/>
+      <c r="BR67" s="12"/>
+      <c r="BS67" s="12"/>
+      <c r="BT67" s="12"/>
+      <c r="BU67" s="12"/>
+      <c r="BV67" s="12"/>
+      <c r="BW67" s="12"/>
+      <c r="BX67" s="12"/>
+      <c r="BY67" s="12"/>
+      <c r="BZ67" s="12"/>
+      <c r="CA67" s="12"/>
+      <c r="CB67" s="12"/>
+      <c r="CC67" s="12"/>
+      <c r="CD67" s="12"/>
+      <c r="CE67" s="12"/>
+      <c r="CF67" s="12"/>
+      <c r="CG67" s="12"/>
+      <c r="CH67" s="12"/>
+      <c r="CI67" s="12"/>
+      <c r="CJ67" s="12"/>
+      <c r="CK67" s="12"/>
+      <c r="CL67" s="12"/>
+      <c r="CM67" s="12"/>
+      <c r="CN67" s="12"/>
+      <c r="CO67" s="12"/>
+      <c r="CP67" s="12"/>
+      <c r="CQ67" s="12"/>
+      <c r="CR67" s="12"/>
+      <c r="CS67" s="12"/>
+      <c r="CT67" s="12"/>
+      <c r="CU67" s="12"/>
+      <c r="CV67" s="12"/>
+      <c r="CW67" s="12"/>
+      <c r="CX67" s="12"/>
+      <c r="CY67" s="12"/>
+      <c r="CZ67" s="12"/>
+      <c r="DA67" s="12"/>
+      <c r="DB67" s="12"/>
+      <c r="DC67" s="12"/>
+      <c r="DD67" s="12"/>
+      <c r="DE67" s="12"/>
+      <c r="DF67" s="12"/>
+      <c r="DG67" s="12"/>
+      <c r="DH67" s="12"/>
+      <c r="DI67" s="12"/>
+      <c r="DJ67" s="12"/>
+      <c r="DK67" s="12"/>
+      <c r="DL67" s="12"/>
+      <c r="DM67" s="12"/>
+      <c r="DN67" s="12"/>
+      <c r="DO67" s="12"/>
+      <c r="DP67" s="12"/>
+      <c r="DQ67" s="12"/>
+      <c r="DR67" s="12"/>
+      <c r="DS67" s="12"/>
+      <c r="DT67" s="12"/>
+      <c r="DU67" s="12"/>
+      <c r="DV67" s="12"/>
+      <c r="DW67" s="12"/>
+      <c r="DX67" s="12"/>
+      <c r="DY67" s="12"/>
+      <c r="DZ67" s="12"/>
+      <c r="EA67" s="12"/>
+      <c r="EB67" s="12"/>
+      <c r="EC67" s="12"/>
+      <c r="ED67" s="12"/>
+      <c r="EE67" s="12"/>
+      <c r="EF67" s="12"/>
+      <c r="EG67" s="12"/>
+      <c r="EH67" s="12"/>
+      <c r="EI67" s="12"/>
+      <c r="EJ67" s="12"/>
+      <c r="EK67" s="12"/>
+      <c r="EL67" s="12"/>
+      <c r="EM67" s="12"/>
+      <c r="EN67" s="12"/>
+      <c r="EO67" s="12"/>
+      <c r="EP67" s="12"/>
+      <c r="EQ67" s="12"/>
+      <c r="ER67" s="12"/>
+      <c r="ES67" s="12"/>
+      <c r="ET67" s="12"/>
+      <c r="EU67" s="12"/>
+      <c r="EV67" s="12"/>
+      <c r="EW67" s="12"/>
+      <c r="EX67" s="12"/>
+      <c r="EY67" s="12"/>
+      <c r="EZ67" s="12"/>
+      <c r="FA67" s="12"/>
+      <c r="FB67" s="12"/>
+      <c r="FC67" s="12"/>
+      <c r="FD67" s="12"/>
+      <c r="FE67" s="12"/>
+      <c r="FF67" s="12"/>
+      <c r="FG67" s="12"/>
+      <c r="FH67" s="12"/>
+      <c r="FI67" s="12"/>
+      <c r="FJ67" s="12"/>
+      <c r="FK67" s="12"/>
+      <c r="FL67" s="12"/>
+      <c r="FM67" s="12"/>
+      <c r="FN67" s="12"/>
+      <c r="FO67" s="12"/>
+      <c r="FP67" s="12"/>
+      <c r="FQ67" s="12"/>
+      <c r="FR67" s="12"/>
+      <c r="FS67" s="12"/>
+      <c r="FT67" s="12"/>
+      <c r="FU67" s="12"/>
+      <c r="FV67" s="12"/>
+      <c r="FW67" s="12"/>
+      <c r="FX67" s="12"/>
+      <c r="FY67" s="12"/>
+      <c r="FZ67" s="12"/>
+      <c r="GA67" s="12"/>
+      <c r="GB67" s="12"/>
+      <c r="GC67" s="12"/>
+      <c r="GD67" s="12"/>
+      <c r="GE67" s="12"/>
+      <c r="GF67" s="12"/>
+      <c r="GG67" s="12"/>
+      <c r="GH67" s="12"/>
+      <c r="GI67" s="12"/>
+      <c r="GJ67" s="12"/>
+      <c r="GK67" s="12"/>
+      <c r="GL67" s="12"/>
+      <c r="GM67" s="12"/>
+      <c r="GN67" s="12"/>
+      <c r="GO67" s="12"/>
+      <c r="GP67" s="12"/>
+      <c r="GQ67" s="12"/>
+      <c r="GR67" s="12"/>
+      <c r="GS67" s="12"/>
+      <c r="GT67" s="12"/>
+      <c r="GU67" s="12"/>
+      <c r="GV67" s="12"/>
+      <c r="GW67" s="12"/>
+      <c r="GX67" s="12"/>
+      <c r="GY67" s="12"/>
+      <c r="GZ67" s="12"/>
+      <c r="HA67" s="12"/>
+      <c r="HB67" s="12"/>
+      <c r="HC67" s="12"/>
+      <c r="HD67" s="12"/>
+      <c r="HE67" s="12"/>
+      <c r="HF67" s="12"/>
+      <c r="HG67" s="12"/>
+      <c r="HH67" s="12"/>
+      <c r="HI67" s="12"/>
+      <c r="HJ67" s="12"/>
+      <c r="HK67" s="12"/>
+      <c r="HL67" s="12"/>
+      <c r="HM67" s="12"/>
+      <c r="HN67" s="12"/>
+      <c r="HO67" s="12"/>
+      <c r="HP67" s="12"/>
+      <c r="HQ67" s="12"/>
+      <c r="HR67" s="12"/>
+      <c r="HS67" s="12"/>
+      <c r="HT67" s="12"/>
+      <c r="HU67" s="12"/>
+      <c r="HV67" s="12"/>
+      <c r="HW67" s="12"/>
+      <c r="HX67" s="12"/>
+      <c r="HY67" s="12"/>
+      <c r="HZ67" s="12"/>
+      <c r="IA67" s="12"/>
+      <c r="IB67" s="12"/>
+      <c r="IC67" s="12"/>
+      <c r="ID67" s="12"/>
+      <c r="IE67" s="12"/>
+      <c r="IF67" s="12"/>
+      <c r="IG67" s="12"/>
+      <c r="IH67" s="12"/>
+      <c r="II67" s="12"/>
+      <c r="IJ67" s="12"/>
+      <c r="IK67" s="12"/>
+      <c r="IL67" s="12"/>
+      <c r="IM67" s="12"/>
+      <c r="IN67" s="12"/>
+      <c r="IO67" s="12"/>
+      <c r="IP67" s="12"/>
+      <c r="IQ67" s="12"/>
+      <c r="IR67" s="12"/>
+      <c r="IS67" s="12"/>
+      <c r="IT67" s="12"/>
+      <c r="IU67" s="12"/>
+      <c r="IV67" s="12"/>
+      <c r="IW67" s="12"/>
+    </row>
+    <row r="68" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>108342</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E68">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>107869</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E69">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:257" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>107491</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E70">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+    <row r="71" spans="1:257" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="31">
         <v>106997</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E71">
+      <c r="B71" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="35">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="32"/>
+      <c r="U71" s="32"/>
+      <c r="V71" s="32"/>
+      <c r="W71" s="32"/>
+      <c r="X71" s="32"/>
+      <c r="Y71" s="32"/>
+      <c r="Z71" s="32"/>
+      <c r="AA71" s="32"/>
+      <c r="AB71" s="32"/>
+      <c r="AC71" s="32"/>
+      <c r="AD71" s="32"/>
+      <c r="AE71" s="32"/>
+      <c r="AF71" s="32"/>
+      <c r="AG71" s="32"/>
+      <c r="AH71" s="32"/>
+      <c r="AI71" s="32"/>
+      <c r="AJ71" s="32"/>
+      <c r="AK71" s="32"/>
+      <c r="AL71" s="32"/>
+      <c r="AM71" s="32"/>
+      <c r="AN71" s="32"/>
+      <c r="AO71" s="32"/>
+      <c r="AP71" s="32"/>
+      <c r="AQ71" s="32"/>
+      <c r="AR71" s="32"/>
+      <c r="AS71" s="32"/>
+      <c r="AT71" s="32"/>
+      <c r="AU71" s="32"/>
+      <c r="AV71" s="32"/>
+      <c r="AW71" s="32"/>
+      <c r="AX71" s="32"/>
+      <c r="AY71" s="32"/>
+      <c r="AZ71" s="32"/>
+      <c r="BA71" s="32"/>
+      <c r="BB71" s="32"/>
+      <c r="BC71" s="32"/>
+      <c r="BD71" s="32"/>
+      <c r="BE71" s="32"/>
+      <c r="BF71" s="32"/>
+      <c r="BG71" s="32"/>
+      <c r="BH71" s="32"/>
+      <c r="BI71" s="32"/>
+      <c r="BJ71" s="32"/>
+      <c r="BK71" s="32"/>
+      <c r="BL71" s="32"/>
+      <c r="BM71" s="32"/>
+      <c r="BN71" s="32"/>
+      <c r="BO71" s="32"/>
+      <c r="BP71" s="32"/>
+      <c r="BQ71" s="32"/>
+      <c r="BR71" s="32"/>
+      <c r="BS71" s="32"/>
+      <c r="BT71" s="32"/>
+      <c r="BU71" s="32"/>
+      <c r="BV71" s="32"/>
+      <c r="BW71" s="32"/>
+      <c r="BX71" s="32"/>
+      <c r="BY71" s="32"/>
+      <c r="BZ71" s="32"/>
+      <c r="CA71" s="32"/>
+      <c r="CB71" s="32"/>
+      <c r="CC71" s="32"/>
+      <c r="CD71" s="32"/>
+      <c r="CE71" s="32"/>
+      <c r="CF71" s="32"/>
+      <c r="CG71" s="32"/>
+      <c r="CH71" s="32"/>
+      <c r="CI71" s="32"/>
+      <c r="CJ71" s="32"/>
+      <c r="CK71" s="32"/>
+      <c r="CL71" s="32"/>
+      <c r="CM71" s="32"/>
+      <c r="CN71" s="32"/>
+      <c r="CO71" s="32"/>
+      <c r="CP71" s="32"/>
+      <c r="CQ71" s="32"/>
+      <c r="CR71" s="32"/>
+      <c r="CS71" s="32"/>
+      <c r="CT71" s="32"/>
+      <c r="CU71" s="32"/>
+      <c r="CV71" s="32"/>
+      <c r="CW71" s="32"/>
+      <c r="CX71" s="32"/>
+      <c r="CY71" s="32"/>
+      <c r="CZ71" s="32"/>
+      <c r="DA71" s="32"/>
+      <c r="DB71" s="32"/>
+      <c r="DC71" s="32"/>
+      <c r="DD71" s="32"/>
+      <c r="DE71" s="32"/>
+      <c r="DF71" s="32"/>
+      <c r="DG71" s="32"/>
+      <c r="DH71" s="32"/>
+      <c r="DI71" s="32"/>
+      <c r="DJ71" s="32"/>
+      <c r="DK71" s="32"/>
+      <c r="DL71" s="32"/>
+      <c r="DM71" s="32"/>
+      <c r="DN71" s="32"/>
+      <c r="DO71" s="32"/>
+      <c r="DP71" s="32"/>
+      <c r="DQ71" s="32"/>
+      <c r="DR71" s="32"/>
+      <c r="DS71" s="32"/>
+      <c r="DT71" s="32"/>
+      <c r="DU71" s="32"/>
+      <c r="DV71" s="32"/>
+      <c r="DW71" s="32"/>
+      <c r="DX71" s="32"/>
+      <c r="DY71" s="32"/>
+      <c r="DZ71" s="32"/>
+      <c r="EA71" s="32"/>
+      <c r="EB71" s="32"/>
+      <c r="EC71" s="32"/>
+      <c r="ED71" s="32"/>
+      <c r="EE71" s="32"/>
+      <c r="EF71" s="32"/>
+      <c r="EG71" s="32"/>
+      <c r="EH71" s="32"/>
+      <c r="EI71" s="32"/>
+      <c r="EJ71" s="32"/>
+      <c r="EK71" s="32"/>
+      <c r="EL71" s="32"/>
+      <c r="EM71" s="32"/>
+      <c r="EN71" s="32"/>
+      <c r="EO71" s="32"/>
+      <c r="EP71" s="32"/>
+      <c r="EQ71" s="32"/>
+      <c r="ER71" s="32"/>
+      <c r="ES71" s="32"/>
+      <c r="ET71" s="32"/>
+      <c r="EU71" s="32"/>
+      <c r="EV71" s="32"/>
+      <c r="EW71" s="32"/>
+      <c r="EX71" s="32"/>
+      <c r="EY71" s="32"/>
+      <c r="EZ71" s="32"/>
+      <c r="FA71" s="32"/>
+      <c r="FB71" s="32"/>
+      <c r="FC71" s="32"/>
+      <c r="FD71" s="32"/>
+      <c r="FE71" s="32"/>
+      <c r="FF71" s="32"/>
+      <c r="FG71" s="32"/>
+      <c r="FH71" s="32"/>
+      <c r="FI71" s="32"/>
+      <c r="FJ71" s="32"/>
+      <c r="FK71" s="32"/>
+      <c r="FL71" s="32"/>
+      <c r="FM71" s="32"/>
+      <c r="FN71" s="32"/>
+      <c r="FO71" s="32"/>
+      <c r="FP71" s="32"/>
+      <c r="FQ71" s="32"/>
+      <c r="FR71" s="32"/>
+      <c r="FS71" s="32"/>
+      <c r="FT71" s="32"/>
+      <c r="FU71" s="32"/>
+      <c r="FV71" s="32"/>
+      <c r="FW71" s="32"/>
+      <c r="FX71" s="32"/>
+      <c r="FY71" s="32"/>
+      <c r="FZ71" s="32"/>
+      <c r="GA71" s="32"/>
+      <c r="GB71" s="32"/>
+      <c r="GC71" s="32"/>
+      <c r="GD71" s="32"/>
+      <c r="GE71" s="32"/>
+      <c r="GF71" s="32"/>
+      <c r="GG71" s="32"/>
+      <c r="GH71" s="32"/>
+      <c r="GI71" s="32"/>
+      <c r="GJ71" s="32"/>
+      <c r="GK71" s="32"/>
+      <c r="GL71" s="32"/>
+      <c r="GM71" s="32"/>
+      <c r="GN71" s="32"/>
+      <c r="GO71" s="32"/>
+      <c r="GP71" s="32"/>
+      <c r="GQ71" s="32"/>
+      <c r="GR71" s="32"/>
+      <c r="GS71" s="32"/>
+      <c r="GT71" s="32"/>
+      <c r="GU71" s="32"/>
+      <c r="GV71" s="32"/>
+      <c r="GW71" s="32"/>
+      <c r="GX71" s="32"/>
+      <c r="GY71" s="32"/>
+      <c r="GZ71" s="32"/>
+      <c r="HA71" s="32"/>
+      <c r="HB71" s="32"/>
+      <c r="HC71" s="32"/>
+      <c r="HD71" s="32"/>
+      <c r="HE71" s="32"/>
+      <c r="HF71" s="32"/>
+      <c r="HG71" s="32"/>
+      <c r="HH71" s="32"/>
+      <c r="HI71" s="32"/>
+      <c r="HJ71" s="32"/>
+      <c r="HK71" s="32"/>
+      <c r="HL71" s="32"/>
+      <c r="HM71" s="32"/>
+      <c r="HN71" s="32"/>
+      <c r="HO71" s="32"/>
+      <c r="HP71" s="32"/>
+      <c r="HQ71" s="32"/>
+      <c r="HR71" s="32"/>
+      <c r="HS71" s="32"/>
+      <c r="HT71" s="32"/>
+      <c r="HU71" s="32"/>
+      <c r="HV71" s="32"/>
+      <c r="HW71" s="32"/>
+      <c r="HX71" s="32"/>
+      <c r="HY71" s="32"/>
+      <c r="HZ71" s="32"/>
+      <c r="IA71" s="32"/>
+      <c r="IB71" s="32"/>
+      <c r="IC71" s="32"/>
+      <c r="ID71" s="32"/>
+      <c r="IE71" s="32"/>
+      <c r="IF71" s="32"/>
+      <c r="IG71" s="32"/>
+      <c r="IH71" s="32"/>
+      <c r="II71" s="32"/>
+      <c r="IJ71" s="32"/>
+      <c r="IK71" s="32"/>
+      <c r="IL71" s="32"/>
+      <c r="IM71" s="32"/>
+      <c r="IN71" s="32"/>
+      <c r="IO71" s="32"/>
+      <c r="IP71" s="32"/>
+      <c r="IQ71" s="32"/>
+      <c r="IR71" s="32"/>
+      <c r="IS71" s="32"/>
+      <c r="IT71" s="32"/>
+      <c r="IU71" s="32"/>
+      <c r="IV71" s="32"/>
+      <c r="IW71" s="32"/>
+    </row>
+    <row r="72" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>106993</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E72">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>106389</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E73">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+    <row r="74" spans="1:257" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16">
         <v>106388</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" s="20">
+        <v>29</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="17"/>
+      <c r="AI74" s="17"/>
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="17"/>
+      <c r="AL74" s="17"/>
+      <c r="AM74" s="17"/>
+      <c r="AN74" s="17"/>
+      <c r="AO74" s="17"/>
+      <c r="AP74" s="17"/>
+      <c r="AQ74" s="17"/>
+      <c r="AR74" s="17"/>
+      <c r="AS74" s="17"/>
+      <c r="AT74" s="17"/>
+      <c r="AU74" s="17"/>
+      <c r="AV74" s="17"/>
+      <c r="AW74" s="17"/>
+      <c r="AX74" s="17"/>
+      <c r="AY74" s="17"/>
+      <c r="AZ74" s="17"/>
+      <c r="BA74" s="17"/>
+      <c r="BB74" s="17"/>
+      <c r="BC74" s="17"/>
+      <c r="BD74" s="17"/>
+      <c r="BE74" s="17"/>
+      <c r="BF74" s="17"/>
+      <c r="BG74" s="17"/>
+      <c r="BH74" s="17"/>
+      <c r="BI74" s="17"/>
+      <c r="BJ74" s="17"/>
+      <c r="BK74" s="17"/>
+      <c r="BL74" s="17"/>
+      <c r="BM74" s="17"/>
+      <c r="BN74" s="17"/>
+      <c r="BO74" s="17"/>
+      <c r="BP74" s="17"/>
+      <c r="BQ74" s="17"/>
+      <c r="BR74" s="17"/>
+      <c r="BS74" s="17"/>
+      <c r="BT74" s="17"/>
+      <c r="BU74" s="17"/>
+      <c r="BV74" s="17"/>
+      <c r="BW74" s="17"/>
+      <c r="BX74" s="17"/>
+      <c r="BY74" s="17"/>
+      <c r="BZ74" s="17"/>
+      <c r="CA74" s="17"/>
+      <c r="CB74" s="17"/>
+      <c r="CC74" s="17"/>
+      <c r="CD74" s="17"/>
+      <c r="CE74" s="17"/>
+      <c r="CF74" s="17"/>
+      <c r="CG74" s="17"/>
+      <c r="CH74" s="17"/>
+      <c r="CI74" s="17"/>
+      <c r="CJ74" s="17"/>
+      <c r="CK74" s="17"/>
+      <c r="CL74" s="17"/>
+      <c r="CM74" s="17"/>
+      <c r="CN74" s="17"/>
+      <c r="CO74" s="17"/>
+      <c r="CP74" s="17"/>
+      <c r="CQ74" s="17"/>
+      <c r="CR74" s="17"/>
+      <c r="CS74" s="17"/>
+      <c r="CT74" s="17"/>
+      <c r="CU74" s="17"/>
+      <c r="CV74" s="17"/>
+      <c r="CW74" s="17"/>
+      <c r="CX74" s="17"/>
+      <c r="CY74" s="17"/>
+      <c r="CZ74" s="17"/>
+      <c r="DA74" s="17"/>
+      <c r="DB74" s="17"/>
+      <c r="DC74" s="17"/>
+      <c r="DD74" s="17"/>
+      <c r="DE74" s="17"/>
+      <c r="DF74" s="17"/>
+      <c r="DG74" s="17"/>
+      <c r="DH74" s="17"/>
+      <c r="DI74" s="17"/>
+      <c r="DJ74" s="17"/>
+      <c r="DK74" s="17"/>
+      <c r="DL74" s="17"/>
+      <c r="DM74" s="17"/>
+      <c r="DN74" s="17"/>
+      <c r="DO74" s="17"/>
+      <c r="DP74" s="17"/>
+      <c r="DQ74" s="17"/>
+      <c r="DR74" s="17"/>
+      <c r="DS74" s="17"/>
+      <c r="DT74" s="17"/>
+      <c r="DU74" s="17"/>
+      <c r="DV74" s="17"/>
+      <c r="DW74" s="17"/>
+      <c r="DX74" s="17"/>
+      <c r="DY74" s="17"/>
+      <c r="DZ74" s="17"/>
+      <c r="EA74" s="17"/>
+      <c r="EB74" s="17"/>
+      <c r="EC74" s="17"/>
+      <c r="ED74" s="17"/>
+      <c r="EE74" s="17"/>
+      <c r="EF74" s="17"/>
+      <c r="EG74" s="17"/>
+      <c r="EH74" s="17"/>
+      <c r="EI74" s="17"/>
+      <c r="EJ74" s="17"/>
+      <c r="EK74" s="17"/>
+      <c r="EL74" s="17"/>
+      <c r="EM74" s="17"/>
+      <c r="EN74" s="17"/>
+      <c r="EO74" s="17"/>
+      <c r="EP74" s="17"/>
+      <c r="EQ74" s="17"/>
+      <c r="ER74" s="17"/>
+      <c r="ES74" s="17"/>
+      <c r="ET74" s="17"/>
+      <c r="EU74" s="17"/>
+      <c r="EV74" s="17"/>
+      <c r="EW74" s="17"/>
+      <c r="EX74" s="17"/>
+      <c r="EY74" s="17"/>
+      <c r="EZ74" s="17"/>
+      <c r="FA74" s="17"/>
+      <c r="FB74" s="17"/>
+      <c r="FC74" s="17"/>
+      <c r="FD74" s="17"/>
+      <c r="FE74" s="17"/>
+      <c r="FF74" s="17"/>
+      <c r="FG74" s="17"/>
+      <c r="FH74" s="17"/>
+      <c r="FI74" s="17"/>
+      <c r="FJ74" s="17"/>
+      <c r="FK74" s="17"/>
+      <c r="FL74" s="17"/>
+      <c r="FM74" s="17"/>
+      <c r="FN74" s="17"/>
+      <c r="FO74" s="17"/>
+      <c r="FP74" s="17"/>
+      <c r="FQ74" s="17"/>
+      <c r="FR74" s="17"/>
+      <c r="FS74" s="17"/>
+      <c r="FT74" s="17"/>
+      <c r="FU74" s="17"/>
+      <c r="FV74" s="17"/>
+      <c r="FW74" s="17"/>
+      <c r="FX74" s="17"/>
+      <c r="FY74" s="17"/>
+      <c r="FZ74" s="17"/>
+      <c r="GA74" s="17"/>
+      <c r="GB74" s="17"/>
+      <c r="GC74" s="17"/>
+      <c r="GD74" s="17"/>
+      <c r="GE74" s="17"/>
+      <c r="GF74" s="17"/>
+      <c r="GG74" s="17"/>
+      <c r="GH74" s="17"/>
+      <c r="GI74" s="17"/>
+      <c r="GJ74" s="17"/>
+      <c r="GK74" s="17"/>
+      <c r="GL74" s="17"/>
+      <c r="GM74" s="17"/>
+      <c r="GN74" s="17"/>
+      <c r="GO74" s="17"/>
+      <c r="GP74" s="17"/>
+      <c r="GQ74" s="17"/>
+      <c r="GR74" s="17"/>
+      <c r="GS74" s="17"/>
+      <c r="GT74" s="17"/>
+      <c r="GU74" s="17"/>
+      <c r="GV74" s="17"/>
+      <c r="GW74" s="17"/>
+      <c r="GX74" s="17"/>
+      <c r="GY74" s="17"/>
+      <c r="GZ74" s="17"/>
+      <c r="HA74" s="17"/>
+      <c r="HB74" s="17"/>
+      <c r="HC74" s="17"/>
+      <c r="HD74" s="17"/>
+      <c r="HE74" s="17"/>
+      <c r="HF74" s="17"/>
+      <c r="HG74" s="17"/>
+      <c r="HH74" s="17"/>
+      <c r="HI74" s="17"/>
+      <c r="HJ74" s="17"/>
+      <c r="HK74" s="17"/>
+      <c r="HL74" s="17"/>
+      <c r="HM74" s="17"/>
+      <c r="HN74" s="17"/>
+      <c r="HO74" s="17"/>
+      <c r="HP74" s="17"/>
+      <c r="HQ74" s="17"/>
+      <c r="HR74" s="17"/>
+      <c r="HS74" s="17"/>
+      <c r="HT74" s="17"/>
+      <c r="HU74" s="17"/>
+      <c r="HV74" s="17"/>
+      <c r="HW74" s="17"/>
+      <c r="HX74" s="17"/>
+      <c r="HY74" s="17"/>
+      <c r="HZ74" s="17"/>
+      <c r="IA74" s="17"/>
+      <c r="IB74" s="17"/>
+      <c r="IC74" s="17"/>
+      <c r="ID74" s="17"/>
+      <c r="IE74" s="17"/>
+      <c r="IF74" s="17"/>
+      <c r="IG74" s="17"/>
+      <c r="IH74" s="17"/>
+      <c r="II74" s="17"/>
+      <c r="IJ74" s="17"/>
+      <c r="IK74" s="17"/>
+      <c r="IL74" s="17"/>
+      <c r="IM74" s="17"/>
+      <c r="IN74" s="17"/>
+      <c r="IO74" s="17"/>
+      <c r="IP74" s="17"/>
+      <c r="IQ74" s="17"/>
+      <c r="IR74" s="17"/>
+      <c r="IS74" s="17"/>
+      <c r="IT74" s="17"/>
+      <c r="IU74" s="17"/>
+      <c r="IV74" s="17"/>
+      <c r="IW74" s="17"/>
+    </row>
+    <row r="75" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="37">
+        <v>106272</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="39">
         <v>28</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>106272</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E75">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
+      <c r="AB75" s="38"/>
+      <c r="AC75" s="38"/>
+      <c r="AD75" s="38"/>
+      <c r="AE75" s="38"/>
+      <c r="AF75" s="38"/>
+      <c r="AG75" s="38"/>
+      <c r="AH75" s="38"/>
+      <c r="AI75" s="38"/>
+      <c r="AJ75" s="38"/>
+      <c r="AK75" s="38"/>
+      <c r="AL75" s="38"/>
+      <c r="AM75" s="38"/>
+      <c r="AN75" s="38"/>
+      <c r="AO75" s="38"/>
+      <c r="AP75" s="38"/>
+      <c r="AQ75" s="38"/>
+      <c r="AR75" s="38"/>
+      <c r="AS75" s="38"/>
+      <c r="AT75" s="38"/>
+      <c r="AU75" s="38"/>
+      <c r="AV75" s="38"/>
+      <c r="AW75" s="38"/>
+      <c r="AX75" s="38"/>
+      <c r="AY75" s="38"/>
+      <c r="AZ75" s="38"/>
+      <c r="BA75" s="38"/>
+      <c r="BB75" s="38"/>
+      <c r="BC75" s="38"/>
+      <c r="BD75" s="38"/>
+      <c r="BE75" s="38"/>
+      <c r="BF75" s="38"/>
+      <c r="BG75" s="38"/>
+      <c r="BH75" s="38"/>
+      <c r="BI75" s="38"/>
+      <c r="BJ75" s="38"/>
+      <c r="BK75" s="38"/>
+      <c r="BL75" s="38"/>
+      <c r="BM75" s="38"/>
+      <c r="BN75" s="38"/>
+      <c r="BO75" s="38"/>
+      <c r="BP75" s="38"/>
+      <c r="BQ75" s="38"/>
+      <c r="BR75" s="38"/>
+      <c r="BS75" s="38"/>
+      <c r="BT75" s="38"/>
+      <c r="BU75" s="38"/>
+      <c r="BV75" s="38"/>
+      <c r="BW75" s="38"/>
+      <c r="BX75" s="38"/>
+      <c r="BY75" s="38"/>
+      <c r="BZ75" s="38"/>
+      <c r="CA75" s="38"/>
+      <c r="CB75" s="38"/>
+      <c r="CC75" s="38"/>
+      <c r="CD75" s="38"/>
+      <c r="CE75" s="38"/>
+      <c r="CF75" s="38"/>
+      <c r="CG75" s="38"/>
+      <c r="CH75" s="38"/>
+      <c r="CI75" s="38"/>
+      <c r="CJ75" s="38"/>
+      <c r="CK75" s="38"/>
+      <c r="CL75" s="38"/>
+      <c r="CM75" s="38"/>
+      <c r="CN75" s="38"/>
+      <c r="CO75" s="38"/>
+      <c r="CP75" s="38"/>
+      <c r="CQ75" s="38"/>
+      <c r="CR75" s="38"/>
+      <c r="CS75" s="38"/>
+      <c r="CT75" s="38"/>
+      <c r="CU75" s="38"/>
+      <c r="CV75" s="38"/>
+      <c r="CW75" s="38"/>
+      <c r="CX75" s="38"/>
+      <c r="CY75" s="38"/>
+      <c r="CZ75" s="38"/>
+      <c r="DA75" s="38"/>
+      <c r="DB75" s="38"/>
+      <c r="DC75" s="38"/>
+      <c r="DD75" s="38"/>
+      <c r="DE75" s="38"/>
+      <c r="DF75" s="38"/>
+      <c r="DG75" s="38"/>
+      <c r="DH75" s="38"/>
+      <c r="DI75" s="38"/>
+      <c r="DJ75" s="38"/>
+      <c r="DK75" s="38"/>
+      <c r="DL75" s="38"/>
+      <c r="DM75" s="38"/>
+      <c r="DN75" s="38"/>
+      <c r="DO75" s="38"/>
+      <c r="DP75" s="38"/>
+      <c r="DQ75" s="38"/>
+      <c r="DR75" s="38"/>
+      <c r="DS75" s="38"/>
+      <c r="DT75" s="38"/>
+      <c r="DU75" s="38"/>
+      <c r="DV75" s="38"/>
+      <c r="DW75" s="38"/>
+      <c r="DX75" s="38"/>
+      <c r="DY75" s="38"/>
+      <c r="DZ75" s="38"/>
+      <c r="EA75" s="38"/>
+      <c r="EB75" s="38"/>
+      <c r="EC75" s="38"/>
+      <c r="ED75" s="38"/>
+      <c r="EE75" s="38"/>
+      <c r="EF75" s="38"/>
+      <c r="EG75" s="38"/>
+      <c r="EH75" s="38"/>
+      <c r="EI75" s="38"/>
+      <c r="EJ75" s="38"/>
+      <c r="EK75" s="38"/>
+      <c r="EL75" s="38"/>
+      <c r="EM75" s="38"/>
+      <c r="EN75" s="38"/>
+      <c r="EO75" s="38"/>
+      <c r="EP75" s="38"/>
+      <c r="EQ75" s="38"/>
+      <c r="ER75" s="38"/>
+      <c r="ES75" s="38"/>
+      <c r="ET75" s="38"/>
+      <c r="EU75" s="38"/>
+      <c r="EV75" s="38"/>
+      <c r="EW75" s="38"/>
+      <c r="EX75" s="38"/>
+      <c r="EY75" s="38"/>
+      <c r="EZ75" s="38"/>
+      <c r="FA75" s="38"/>
+      <c r="FB75" s="38"/>
+      <c r="FC75" s="38"/>
+      <c r="FD75" s="38"/>
+      <c r="FE75" s="38"/>
+      <c r="FF75" s="38"/>
+      <c r="FG75" s="38"/>
+      <c r="FH75" s="38"/>
+      <c r="FI75" s="38"/>
+      <c r="FJ75" s="38"/>
+      <c r="FK75" s="38"/>
+      <c r="FL75" s="38"/>
+      <c r="FM75" s="38"/>
+      <c r="FN75" s="38"/>
+      <c r="FO75" s="38"/>
+      <c r="FP75" s="38"/>
+      <c r="FQ75" s="38"/>
+      <c r="FR75" s="38"/>
+      <c r="FS75" s="38"/>
+      <c r="FT75" s="38"/>
+      <c r="FU75" s="38"/>
+      <c r="FV75" s="38"/>
+      <c r="FW75" s="38"/>
+      <c r="FX75" s="38"/>
+      <c r="FY75" s="38"/>
+      <c r="FZ75" s="38"/>
+      <c r="GA75" s="38"/>
+      <c r="GB75" s="38"/>
+      <c r="GC75" s="38"/>
+      <c r="GD75" s="38"/>
+      <c r="GE75" s="38"/>
+      <c r="GF75" s="38"/>
+      <c r="GG75" s="38"/>
+      <c r="GH75" s="38"/>
+      <c r="GI75" s="38"/>
+      <c r="GJ75" s="38"/>
+      <c r="GK75" s="38"/>
+      <c r="GL75" s="38"/>
+      <c r="GM75" s="38"/>
+      <c r="GN75" s="38"/>
+      <c r="GO75" s="38"/>
+      <c r="GP75" s="38"/>
+      <c r="GQ75" s="38"/>
+      <c r="GR75" s="38"/>
+      <c r="GS75" s="38"/>
+      <c r="GT75" s="38"/>
+      <c r="GU75" s="38"/>
+      <c r="GV75" s="38"/>
+      <c r="GW75" s="38"/>
+      <c r="GX75" s="38"/>
+      <c r="GY75" s="38"/>
+      <c r="GZ75" s="38"/>
+      <c r="HA75" s="38"/>
+      <c r="HB75" s="38"/>
+      <c r="HC75" s="38"/>
+      <c r="HD75" s="38"/>
+      <c r="HE75" s="38"/>
+      <c r="HF75" s="38"/>
+      <c r="HG75" s="38"/>
+      <c r="HH75" s="38"/>
+      <c r="HI75" s="38"/>
+      <c r="HJ75" s="38"/>
+      <c r="HK75" s="38"/>
+      <c r="HL75" s="38"/>
+      <c r="HM75" s="38"/>
+      <c r="HN75" s="38"/>
+      <c r="HO75" s="38"/>
+      <c r="HP75" s="38"/>
+      <c r="HQ75" s="38"/>
+      <c r="HR75" s="38"/>
+      <c r="HS75" s="38"/>
+      <c r="HT75" s="38"/>
+      <c r="HU75" s="38"/>
+      <c r="HV75" s="38"/>
+      <c r="HW75" s="38"/>
+      <c r="HX75" s="38"/>
+      <c r="HY75" s="38"/>
+      <c r="HZ75" s="38"/>
+      <c r="IA75" s="38"/>
+      <c r="IB75" s="38"/>
+      <c r="IC75" s="38"/>
+      <c r="ID75" s="38"/>
+      <c r="IE75" s="38"/>
+      <c r="IF75" s="38"/>
+      <c r="IG75" s="38"/>
+      <c r="IH75" s="38"/>
+      <c r="II75" s="38"/>
+      <c r="IJ75" s="38"/>
+      <c r="IK75" s="38"/>
+      <c r="IL75" s="38"/>
+      <c r="IM75" s="38"/>
+      <c r="IN75" s="38"/>
+      <c r="IO75" s="38"/>
+      <c r="IP75" s="38"/>
+      <c r="IQ75" s="38"/>
+      <c r="IR75" s="38"/>
+      <c r="IS75" s="38"/>
+      <c r="IT75" s="38"/>
+      <c r="IU75" s="38"/>
+      <c r="IV75" s="38"/>
+      <c r="IW75" s="38"/>
+    </row>
+    <row r="76" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>106042</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E76">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+    <row r="77" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="37">
         <v>105840</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E77">
+      <c r="B77" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="39">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38"/>
+      <c r="Y77" s="38"/>
+      <c r="Z77" s="38"/>
+      <c r="AA77" s="38"/>
+      <c r="AB77" s="38"/>
+      <c r="AC77" s="38"/>
+      <c r="AD77" s="38"/>
+      <c r="AE77" s="38"/>
+      <c r="AF77" s="38"/>
+      <c r="AG77" s="38"/>
+      <c r="AH77" s="38"/>
+      <c r="AI77" s="38"/>
+      <c r="AJ77" s="38"/>
+      <c r="AK77" s="38"/>
+      <c r="AL77" s="38"/>
+      <c r="AM77" s="38"/>
+      <c r="AN77" s="38"/>
+      <c r="AO77" s="38"/>
+      <c r="AP77" s="38"/>
+      <c r="AQ77" s="38"/>
+      <c r="AR77" s="38"/>
+      <c r="AS77" s="38"/>
+      <c r="AT77" s="38"/>
+      <c r="AU77" s="38"/>
+      <c r="AV77" s="38"/>
+      <c r="AW77" s="38"/>
+      <c r="AX77" s="38"/>
+      <c r="AY77" s="38"/>
+      <c r="AZ77" s="38"/>
+      <c r="BA77" s="38"/>
+      <c r="BB77" s="38"/>
+      <c r="BC77" s="38"/>
+      <c r="BD77" s="38"/>
+      <c r="BE77" s="38"/>
+      <c r="BF77" s="38"/>
+      <c r="BG77" s="38"/>
+      <c r="BH77" s="38"/>
+      <c r="BI77" s="38"/>
+      <c r="BJ77" s="38"/>
+      <c r="BK77" s="38"/>
+      <c r="BL77" s="38"/>
+      <c r="BM77" s="38"/>
+      <c r="BN77" s="38"/>
+      <c r="BO77" s="38"/>
+      <c r="BP77" s="38"/>
+      <c r="BQ77" s="38"/>
+      <c r="BR77" s="38"/>
+      <c r="BS77" s="38"/>
+      <c r="BT77" s="38"/>
+      <c r="BU77" s="38"/>
+      <c r="BV77" s="38"/>
+      <c r="BW77" s="38"/>
+      <c r="BX77" s="38"/>
+      <c r="BY77" s="38"/>
+      <c r="BZ77" s="38"/>
+      <c r="CA77" s="38"/>
+      <c r="CB77" s="38"/>
+      <c r="CC77" s="38"/>
+      <c r="CD77" s="38"/>
+      <c r="CE77" s="38"/>
+      <c r="CF77" s="38"/>
+      <c r="CG77" s="38"/>
+      <c r="CH77" s="38"/>
+      <c r="CI77" s="38"/>
+      <c r="CJ77" s="38"/>
+      <c r="CK77" s="38"/>
+      <c r="CL77" s="38"/>
+      <c r="CM77" s="38"/>
+      <c r="CN77" s="38"/>
+      <c r="CO77" s="38"/>
+      <c r="CP77" s="38"/>
+      <c r="CQ77" s="38"/>
+      <c r="CR77" s="38"/>
+      <c r="CS77" s="38"/>
+      <c r="CT77" s="38"/>
+      <c r="CU77" s="38"/>
+      <c r="CV77" s="38"/>
+      <c r="CW77" s="38"/>
+      <c r="CX77" s="38"/>
+      <c r="CY77" s="38"/>
+      <c r="CZ77" s="38"/>
+      <c r="DA77" s="38"/>
+      <c r="DB77" s="38"/>
+      <c r="DC77" s="38"/>
+      <c r="DD77" s="38"/>
+      <c r="DE77" s="38"/>
+      <c r="DF77" s="38"/>
+      <c r="DG77" s="38"/>
+      <c r="DH77" s="38"/>
+      <c r="DI77" s="38"/>
+      <c r="DJ77" s="38"/>
+      <c r="DK77" s="38"/>
+      <c r="DL77" s="38"/>
+      <c r="DM77" s="38"/>
+      <c r="DN77" s="38"/>
+      <c r="DO77" s="38"/>
+      <c r="DP77" s="38"/>
+      <c r="DQ77" s="38"/>
+      <c r="DR77" s="38"/>
+      <c r="DS77" s="38"/>
+      <c r="DT77" s="38"/>
+      <c r="DU77" s="38"/>
+      <c r="DV77" s="38"/>
+      <c r="DW77" s="38"/>
+      <c r="DX77" s="38"/>
+      <c r="DY77" s="38"/>
+      <c r="DZ77" s="38"/>
+      <c r="EA77" s="38"/>
+      <c r="EB77" s="38"/>
+      <c r="EC77" s="38"/>
+      <c r="ED77" s="38"/>
+      <c r="EE77" s="38"/>
+      <c r="EF77" s="38"/>
+      <c r="EG77" s="38"/>
+      <c r="EH77" s="38"/>
+      <c r="EI77" s="38"/>
+      <c r="EJ77" s="38"/>
+      <c r="EK77" s="38"/>
+      <c r="EL77" s="38"/>
+      <c r="EM77" s="38"/>
+      <c r="EN77" s="38"/>
+      <c r="EO77" s="38"/>
+      <c r="EP77" s="38"/>
+      <c r="EQ77" s="38"/>
+      <c r="ER77" s="38"/>
+      <c r="ES77" s="38"/>
+      <c r="ET77" s="38"/>
+      <c r="EU77" s="38"/>
+      <c r="EV77" s="38"/>
+      <c r="EW77" s="38"/>
+      <c r="EX77" s="38"/>
+      <c r="EY77" s="38"/>
+      <c r="EZ77" s="38"/>
+      <c r="FA77" s="38"/>
+      <c r="FB77" s="38"/>
+      <c r="FC77" s="38"/>
+      <c r="FD77" s="38"/>
+      <c r="FE77" s="38"/>
+      <c r="FF77" s="38"/>
+      <c r="FG77" s="38"/>
+      <c r="FH77" s="38"/>
+      <c r="FI77" s="38"/>
+      <c r="FJ77" s="38"/>
+      <c r="FK77" s="38"/>
+      <c r="FL77" s="38"/>
+      <c r="FM77" s="38"/>
+      <c r="FN77" s="38"/>
+      <c r="FO77" s="38"/>
+      <c r="FP77" s="38"/>
+      <c r="FQ77" s="38"/>
+      <c r="FR77" s="38"/>
+      <c r="FS77" s="38"/>
+      <c r="FT77" s="38"/>
+      <c r="FU77" s="38"/>
+      <c r="FV77" s="38"/>
+      <c r="FW77" s="38"/>
+      <c r="FX77" s="38"/>
+      <c r="FY77" s="38"/>
+      <c r="FZ77" s="38"/>
+      <c r="GA77" s="38"/>
+      <c r="GB77" s="38"/>
+      <c r="GC77" s="38"/>
+      <c r="GD77" s="38"/>
+      <c r="GE77" s="38"/>
+      <c r="GF77" s="38"/>
+      <c r="GG77" s="38"/>
+      <c r="GH77" s="38"/>
+      <c r="GI77" s="38"/>
+      <c r="GJ77" s="38"/>
+      <c r="GK77" s="38"/>
+      <c r="GL77" s="38"/>
+      <c r="GM77" s="38"/>
+      <c r="GN77" s="38"/>
+      <c r="GO77" s="38"/>
+      <c r="GP77" s="38"/>
+      <c r="GQ77" s="38"/>
+      <c r="GR77" s="38"/>
+      <c r="GS77" s="38"/>
+      <c r="GT77" s="38"/>
+      <c r="GU77" s="38"/>
+      <c r="GV77" s="38"/>
+      <c r="GW77" s="38"/>
+      <c r="GX77" s="38"/>
+      <c r="GY77" s="38"/>
+      <c r="GZ77" s="38"/>
+      <c r="HA77" s="38"/>
+      <c r="HB77" s="38"/>
+      <c r="HC77" s="38"/>
+      <c r="HD77" s="38"/>
+      <c r="HE77" s="38"/>
+      <c r="HF77" s="38"/>
+      <c r="HG77" s="38"/>
+      <c r="HH77" s="38"/>
+      <c r="HI77" s="38"/>
+      <c r="HJ77" s="38"/>
+      <c r="HK77" s="38"/>
+      <c r="HL77" s="38"/>
+      <c r="HM77" s="38"/>
+      <c r="HN77" s="38"/>
+      <c r="HO77" s="38"/>
+      <c r="HP77" s="38"/>
+      <c r="HQ77" s="38"/>
+      <c r="HR77" s="38"/>
+      <c r="HS77" s="38"/>
+      <c r="HT77" s="38"/>
+      <c r="HU77" s="38"/>
+      <c r="HV77" s="38"/>
+      <c r="HW77" s="38"/>
+      <c r="HX77" s="38"/>
+      <c r="HY77" s="38"/>
+      <c r="HZ77" s="38"/>
+      <c r="IA77" s="38"/>
+      <c r="IB77" s="38"/>
+      <c r="IC77" s="38"/>
+      <c r="ID77" s="38"/>
+      <c r="IE77" s="38"/>
+      <c r="IF77" s="38"/>
+      <c r="IG77" s="38"/>
+      <c r="IH77" s="38"/>
+      <c r="II77" s="38"/>
+      <c r="IJ77" s="38"/>
+      <c r="IK77" s="38"/>
+      <c r="IL77" s="38"/>
+      <c r="IM77" s="38"/>
+      <c r="IN77" s="38"/>
+      <c r="IO77" s="38"/>
+      <c r="IP77" s="38"/>
+      <c r="IQ77" s="38"/>
+      <c r="IR77" s="38"/>
+      <c r="IS77" s="38"/>
+      <c r="IT77" s="38"/>
+      <c r="IU77" s="38"/>
+      <c r="IV77" s="38"/>
+      <c r="IW77" s="38"/>
+    </row>
+    <row r="78" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>105655</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E78">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>104996</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E79">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>103293</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E80">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>102906</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E81">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>102687</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E82">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+    <row r="83" spans="1:257" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
         <v>102674</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E83">
+      <c r="B83" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="12"/>
+      <c r="AE83" s="12"/>
+      <c r="AF83" s="12"/>
+      <c r="AG83" s="12"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="12"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
+      <c r="AM83" s="12"/>
+      <c r="AN83" s="12"/>
+      <c r="AO83" s="12"/>
+      <c r="AP83" s="12"/>
+      <c r="AQ83" s="12"/>
+      <c r="AR83" s="12"/>
+      <c r="AS83" s="12"/>
+      <c r="AT83" s="12"/>
+      <c r="AU83" s="12"/>
+      <c r="AV83" s="12"/>
+      <c r="AW83" s="12"/>
+      <c r="AX83" s="12"/>
+      <c r="AY83" s="12"/>
+      <c r="AZ83" s="12"/>
+      <c r="BA83" s="12"/>
+      <c r="BB83" s="12"/>
+      <c r="BC83" s="12"/>
+      <c r="BD83" s="12"/>
+      <c r="BE83" s="12"/>
+      <c r="BF83" s="12"/>
+      <c r="BG83" s="12"/>
+      <c r="BH83" s="12"/>
+      <c r="BI83" s="12"/>
+      <c r="BJ83" s="12"/>
+      <c r="BK83" s="12"/>
+      <c r="BL83" s="12"/>
+      <c r="BM83" s="12"/>
+      <c r="BN83" s="12"/>
+      <c r="BO83" s="12"/>
+      <c r="BP83" s="12"/>
+      <c r="BQ83" s="12"/>
+      <c r="BR83" s="12"/>
+      <c r="BS83" s="12"/>
+      <c r="BT83" s="12"/>
+      <c r="BU83" s="12"/>
+      <c r="BV83" s="12"/>
+      <c r="BW83" s="12"/>
+      <c r="BX83" s="12"/>
+      <c r="BY83" s="12"/>
+      <c r="BZ83" s="12"/>
+      <c r="CA83" s="12"/>
+      <c r="CB83" s="12"/>
+      <c r="CC83" s="12"/>
+      <c r="CD83" s="12"/>
+      <c r="CE83" s="12"/>
+      <c r="CF83" s="12"/>
+      <c r="CG83" s="12"/>
+      <c r="CH83" s="12"/>
+      <c r="CI83" s="12"/>
+      <c r="CJ83" s="12"/>
+      <c r="CK83" s="12"/>
+      <c r="CL83" s="12"/>
+      <c r="CM83" s="12"/>
+      <c r="CN83" s="12"/>
+      <c r="CO83" s="12"/>
+      <c r="CP83" s="12"/>
+      <c r="CQ83" s="12"/>
+      <c r="CR83" s="12"/>
+      <c r="CS83" s="12"/>
+      <c r="CT83" s="12"/>
+      <c r="CU83" s="12"/>
+      <c r="CV83" s="12"/>
+      <c r="CW83" s="12"/>
+      <c r="CX83" s="12"/>
+      <c r="CY83" s="12"/>
+      <c r="CZ83" s="12"/>
+      <c r="DA83" s="12"/>
+      <c r="DB83" s="12"/>
+      <c r="DC83" s="12"/>
+      <c r="DD83" s="12"/>
+      <c r="DE83" s="12"/>
+      <c r="DF83" s="12"/>
+      <c r="DG83" s="12"/>
+      <c r="DH83" s="12"/>
+      <c r="DI83" s="12"/>
+      <c r="DJ83" s="12"/>
+      <c r="DK83" s="12"/>
+      <c r="DL83" s="12"/>
+      <c r="DM83" s="12"/>
+      <c r="DN83" s="12"/>
+      <c r="DO83" s="12"/>
+      <c r="DP83" s="12"/>
+      <c r="DQ83" s="12"/>
+      <c r="DR83" s="12"/>
+      <c r="DS83" s="12"/>
+      <c r="DT83" s="12"/>
+      <c r="DU83" s="12"/>
+      <c r="DV83" s="12"/>
+      <c r="DW83" s="12"/>
+      <c r="DX83" s="12"/>
+      <c r="DY83" s="12"/>
+      <c r="DZ83" s="12"/>
+      <c r="EA83" s="12"/>
+      <c r="EB83" s="12"/>
+      <c r="EC83" s="12"/>
+      <c r="ED83" s="12"/>
+      <c r="EE83" s="12"/>
+      <c r="EF83" s="12"/>
+      <c r="EG83" s="12"/>
+      <c r="EH83" s="12"/>
+      <c r="EI83" s="12"/>
+      <c r="EJ83" s="12"/>
+      <c r="EK83" s="12"/>
+      <c r="EL83" s="12"/>
+      <c r="EM83" s="12"/>
+      <c r="EN83" s="12"/>
+      <c r="EO83" s="12"/>
+      <c r="EP83" s="12"/>
+      <c r="EQ83" s="12"/>
+      <c r="ER83" s="12"/>
+      <c r="ES83" s="12"/>
+      <c r="ET83" s="12"/>
+      <c r="EU83" s="12"/>
+      <c r="EV83" s="12"/>
+      <c r="EW83" s="12"/>
+      <c r="EX83" s="12"/>
+      <c r="EY83" s="12"/>
+      <c r="EZ83" s="12"/>
+      <c r="FA83" s="12"/>
+      <c r="FB83" s="12"/>
+      <c r="FC83" s="12"/>
+      <c r="FD83" s="12"/>
+      <c r="FE83" s="12"/>
+      <c r="FF83" s="12"/>
+      <c r="FG83" s="12"/>
+      <c r="FH83" s="12"/>
+      <c r="FI83" s="12"/>
+      <c r="FJ83" s="12"/>
+      <c r="FK83" s="12"/>
+      <c r="FL83" s="12"/>
+      <c r="FM83" s="12"/>
+      <c r="FN83" s="12"/>
+      <c r="FO83" s="12"/>
+      <c r="FP83" s="12"/>
+      <c r="FQ83" s="12"/>
+      <c r="FR83" s="12"/>
+      <c r="FS83" s="12"/>
+      <c r="FT83" s="12"/>
+      <c r="FU83" s="12"/>
+      <c r="FV83" s="12"/>
+      <c r="FW83" s="12"/>
+      <c r="FX83" s="12"/>
+      <c r="FY83" s="12"/>
+      <c r="FZ83" s="12"/>
+      <c r="GA83" s="12"/>
+      <c r="GB83" s="12"/>
+      <c r="GC83" s="12"/>
+      <c r="GD83" s="12"/>
+      <c r="GE83" s="12"/>
+      <c r="GF83" s="12"/>
+      <c r="GG83" s="12"/>
+      <c r="GH83" s="12"/>
+      <c r="GI83" s="12"/>
+      <c r="GJ83" s="12"/>
+      <c r="GK83" s="12"/>
+      <c r="GL83" s="12"/>
+      <c r="GM83" s="12"/>
+      <c r="GN83" s="12"/>
+      <c r="GO83" s="12"/>
+      <c r="GP83" s="12"/>
+      <c r="GQ83" s="12"/>
+      <c r="GR83" s="12"/>
+      <c r="GS83" s="12"/>
+      <c r="GT83" s="12"/>
+      <c r="GU83" s="12"/>
+      <c r="GV83" s="12"/>
+      <c r="GW83" s="12"/>
+      <c r="GX83" s="12"/>
+      <c r="GY83" s="12"/>
+      <c r="GZ83" s="12"/>
+      <c r="HA83" s="12"/>
+      <c r="HB83" s="12"/>
+      <c r="HC83" s="12"/>
+      <c r="HD83" s="12"/>
+      <c r="HE83" s="12"/>
+      <c r="HF83" s="12"/>
+      <c r="HG83" s="12"/>
+      <c r="HH83" s="12"/>
+      <c r="HI83" s="12"/>
+      <c r="HJ83" s="12"/>
+      <c r="HK83" s="12"/>
+      <c r="HL83" s="12"/>
+      <c r="HM83" s="12"/>
+      <c r="HN83" s="12"/>
+      <c r="HO83" s="12"/>
+      <c r="HP83" s="12"/>
+      <c r="HQ83" s="12"/>
+      <c r="HR83" s="12"/>
+      <c r="HS83" s="12"/>
+      <c r="HT83" s="12"/>
+      <c r="HU83" s="12"/>
+      <c r="HV83" s="12"/>
+      <c r="HW83" s="12"/>
+      <c r="HX83" s="12"/>
+      <c r="HY83" s="12"/>
+      <c r="HZ83" s="12"/>
+      <c r="IA83" s="12"/>
+      <c r="IB83" s="12"/>
+      <c r="IC83" s="12"/>
+      <c r="ID83" s="12"/>
+      <c r="IE83" s="12"/>
+      <c r="IF83" s="12"/>
+      <c r="IG83" s="12"/>
+      <c r="IH83" s="12"/>
+      <c r="II83" s="12"/>
+      <c r="IJ83" s="12"/>
+      <c r="IK83" s="12"/>
+      <c r="IL83" s="12"/>
+      <c r="IM83" s="12"/>
+      <c r="IN83" s="12"/>
+      <c r="IO83" s="12"/>
+      <c r="IP83" s="12"/>
+      <c r="IQ83" s="12"/>
+      <c r="IR83" s="12"/>
+      <c r="IS83" s="12"/>
+      <c r="IT83" s="12"/>
+      <c r="IU83" s="12"/>
+      <c r="IV83" s="12"/>
+      <c r="IW83" s="12"/>
+    </row>
+    <row r="84" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>102289</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E84">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>102089</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E85">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>101596</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E86">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+    <row r="87" spans="1:257" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="37">
         <v>101163</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" s="6" t="s">
+      <c r="B87" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="39">
+        <v>16</v>
+      </c>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="38"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="38"/>
+      <c r="Y87" s="38"/>
+      <c r="Z87" s="38"/>
+      <c r="AA87" s="38"/>
+      <c r="AB87" s="38"/>
+      <c r="AC87" s="38"/>
+      <c r="AD87" s="38"/>
+      <c r="AE87" s="38"/>
+      <c r="AF87" s="38"/>
+      <c r="AG87" s="38"/>
+      <c r="AH87" s="38"/>
+      <c r="AI87" s="38"/>
+      <c r="AJ87" s="38"/>
+      <c r="AK87" s="38"/>
+      <c r="AL87" s="38"/>
+      <c r="AM87" s="38"/>
+      <c r="AN87" s="38"/>
+      <c r="AO87" s="38"/>
+      <c r="AP87" s="38"/>
+      <c r="AQ87" s="38"/>
+      <c r="AR87" s="38"/>
+      <c r="AS87" s="38"/>
+      <c r="AT87" s="38"/>
+      <c r="AU87" s="38"/>
+      <c r="AV87" s="38"/>
+      <c r="AW87" s="38"/>
+      <c r="AX87" s="38"/>
+      <c r="AY87" s="38"/>
+      <c r="AZ87" s="38"/>
+      <c r="BA87" s="38"/>
+      <c r="BB87" s="38"/>
+      <c r="BC87" s="38"/>
+      <c r="BD87" s="38"/>
+      <c r="BE87" s="38"/>
+      <c r="BF87" s="38"/>
+      <c r="BG87" s="38"/>
+      <c r="BH87" s="38"/>
+      <c r="BI87" s="38"/>
+      <c r="BJ87" s="38"/>
+      <c r="BK87" s="38"/>
+      <c r="BL87" s="38"/>
+      <c r="BM87" s="38"/>
+      <c r="BN87" s="38"/>
+      <c r="BO87" s="38"/>
+      <c r="BP87" s="38"/>
+      <c r="BQ87" s="38"/>
+      <c r="BR87" s="38"/>
+      <c r="BS87" s="38"/>
+      <c r="BT87" s="38"/>
+      <c r="BU87" s="38"/>
+      <c r="BV87" s="38"/>
+      <c r="BW87" s="38"/>
+      <c r="BX87" s="38"/>
+      <c r="BY87" s="38"/>
+      <c r="BZ87" s="38"/>
+      <c r="CA87" s="38"/>
+      <c r="CB87" s="38"/>
+      <c r="CC87" s="38"/>
+      <c r="CD87" s="38"/>
+      <c r="CE87" s="38"/>
+      <c r="CF87" s="38"/>
+      <c r="CG87" s="38"/>
+      <c r="CH87" s="38"/>
+      <c r="CI87" s="38"/>
+      <c r="CJ87" s="38"/>
+      <c r="CK87" s="38"/>
+      <c r="CL87" s="38"/>
+      <c r="CM87" s="38"/>
+      <c r="CN87" s="38"/>
+      <c r="CO87" s="38"/>
+      <c r="CP87" s="38"/>
+      <c r="CQ87" s="38"/>
+      <c r="CR87" s="38"/>
+      <c r="CS87" s="38"/>
+      <c r="CT87" s="38"/>
+      <c r="CU87" s="38"/>
+      <c r="CV87" s="38"/>
+      <c r="CW87" s="38"/>
+      <c r="CX87" s="38"/>
+      <c r="CY87" s="38"/>
+      <c r="CZ87" s="38"/>
+      <c r="DA87" s="38"/>
+      <c r="DB87" s="38"/>
+      <c r="DC87" s="38"/>
+      <c r="DD87" s="38"/>
+      <c r="DE87" s="38"/>
+      <c r="DF87" s="38"/>
+      <c r="DG87" s="38"/>
+      <c r="DH87" s="38"/>
+      <c r="DI87" s="38"/>
+      <c r="DJ87" s="38"/>
+      <c r="DK87" s="38"/>
+      <c r="DL87" s="38"/>
+      <c r="DM87" s="38"/>
+      <c r="DN87" s="38"/>
+      <c r="DO87" s="38"/>
+      <c r="DP87" s="38"/>
+      <c r="DQ87" s="38"/>
+      <c r="DR87" s="38"/>
+      <c r="DS87" s="38"/>
+      <c r="DT87" s="38"/>
+      <c r="DU87" s="38"/>
+      <c r="DV87" s="38"/>
+      <c r="DW87" s="38"/>
+      <c r="DX87" s="38"/>
+      <c r="DY87" s="38"/>
+      <c r="DZ87" s="38"/>
+      <c r="EA87" s="38"/>
+      <c r="EB87" s="38"/>
+      <c r="EC87" s="38"/>
+      <c r="ED87" s="38"/>
+      <c r="EE87" s="38"/>
+      <c r="EF87" s="38"/>
+      <c r="EG87" s="38"/>
+      <c r="EH87" s="38"/>
+      <c r="EI87" s="38"/>
+      <c r="EJ87" s="38"/>
+      <c r="EK87" s="38"/>
+      <c r="EL87" s="38"/>
+      <c r="EM87" s="38"/>
+      <c r="EN87" s="38"/>
+      <c r="EO87" s="38"/>
+      <c r="EP87" s="38"/>
+      <c r="EQ87" s="38"/>
+      <c r="ER87" s="38"/>
+      <c r="ES87" s="38"/>
+      <c r="ET87" s="38"/>
+      <c r="EU87" s="38"/>
+      <c r="EV87" s="38"/>
+      <c r="EW87" s="38"/>
+      <c r="EX87" s="38"/>
+      <c r="EY87" s="38"/>
+      <c r="EZ87" s="38"/>
+      <c r="FA87" s="38"/>
+      <c r="FB87" s="38"/>
+      <c r="FC87" s="38"/>
+      <c r="FD87" s="38"/>
+      <c r="FE87" s="38"/>
+      <c r="FF87" s="38"/>
+      <c r="FG87" s="38"/>
+      <c r="FH87" s="38"/>
+      <c r="FI87" s="38"/>
+      <c r="FJ87" s="38"/>
+      <c r="FK87" s="38"/>
+      <c r="FL87" s="38"/>
+      <c r="FM87" s="38"/>
+      <c r="FN87" s="38"/>
+      <c r="FO87" s="38"/>
+      <c r="FP87" s="38"/>
+      <c r="FQ87" s="38"/>
+      <c r="FR87" s="38"/>
+      <c r="FS87" s="38"/>
+      <c r="FT87" s="38"/>
+      <c r="FU87" s="38"/>
+      <c r="FV87" s="38"/>
+      <c r="FW87" s="38"/>
+      <c r="FX87" s="38"/>
+      <c r="FY87" s="38"/>
+      <c r="FZ87" s="38"/>
+      <c r="GA87" s="38"/>
+      <c r="GB87" s="38"/>
+      <c r="GC87" s="38"/>
+      <c r="GD87" s="38"/>
+      <c r="GE87" s="38"/>
+      <c r="GF87" s="38"/>
+      <c r="GG87" s="38"/>
+      <c r="GH87" s="38"/>
+      <c r="GI87" s="38"/>
+      <c r="GJ87" s="38"/>
+      <c r="GK87" s="38"/>
+      <c r="GL87" s="38"/>
+      <c r="GM87" s="38"/>
+      <c r="GN87" s="38"/>
+      <c r="GO87" s="38"/>
+      <c r="GP87" s="38"/>
+      <c r="GQ87" s="38"/>
+      <c r="GR87" s="38"/>
+      <c r="GS87" s="38"/>
+      <c r="GT87" s="38"/>
+      <c r="GU87" s="38"/>
+      <c r="GV87" s="38"/>
+      <c r="GW87" s="38"/>
+      <c r="GX87" s="38"/>
+      <c r="GY87" s="38"/>
+      <c r="GZ87" s="38"/>
+      <c r="HA87" s="38"/>
+      <c r="HB87" s="38"/>
+      <c r="HC87" s="38"/>
+      <c r="HD87" s="38"/>
+      <c r="HE87" s="38"/>
+      <c r="HF87" s="38"/>
+      <c r="HG87" s="38"/>
+      <c r="HH87" s="38"/>
+      <c r="HI87" s="38"/>
+      <c r="HJ87" s="38"/>
+      <c r="HK87" s="38"/>
+      <c r="HL87" s="38"/>
+      <c r="HM87" s="38"/>
+      <c r="HN87" s="38"/>
+      <c r="HO87" s="38"/>
+      <c r="HP87" s="38"/>
+      <c r="HQ87" s="38"/>
+      <c r="HR87" s="38"/>
+      <c r="HS87" s="38"/>
+      <c r="HT87" s="38"/>
+      <c r="HU87" s="38"/>
+      <c r="HV87" s="38"/>
+      <c r="HW87" s="38"/>
+      <c r="HX87" s="38"/>
+      <c r="HY87" s="38"/>
+      <c r="HZ87" s="38"/>
+      <c r="IA87" s="38"/>
+      <c r="IB87" s="38"/>
+      <c r="IC87" s="38"/>
+      <c r="ID87" s="38"/>
+      <c r="IE87" s="38"/>
+      <c r="IF87" s="38"/>
+      <c r="IG87" s="38"/>
+      <c r="IH87" s="38"/>
+      <c r="II87" s="38"/>
+      <c r="IJ87" s="38"/>
+      <c r="IK87" s="38"/>
+      <c r="IL87" s="38"/>
+      <c r="IM87" s="38"/>
+      <c r="IN87" s="38"/>
+      <c r="IO87" s="38"/>
+      <c r="IP87" s="38"/>
+      <c r="IQ87" s="38"/>
+      <c r="IR87" s="38"/>
+      <c r="IS87" s="38"/>
+      <c r="IT87" s="38"/>
+      <c r="IU87" s="38"/>
+      <c r="IV87" s="38"/>
+      <c r="IW87" s="38"/>
+    </row>
+    <row r="88" spans="1:257" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="31">
+        <v>101162</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E88" s="35">
         <v>15</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
-        <v>101162</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E88">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="32"/>
+      <c r="X88" s="32"/>
+      <c r="Y88" s="32"/>
+      <c r="Z88" s="32"/>
+      <c r="AA88" s="32"/>
+      <c r="AB88" s="32"/>
+      <c r="AC88" s="32"/>
+      <c r="AD88" s="32"/>
+      <c r="AE88" s="32"/>
+      <c r="AF88" s="32"/>
+      <c r="AG88" s="32"/>
+      <c r="AH88" s="32"/>
+      <c r="AI88" s="32"/>
+      <c r="AJ88" s="32"/>
+      <c r="AK88" s="32"/>
+      <c r="AL88" s="32"/>
+      <c r="AM88" s="32"/>
+      <c r="AN88" s="32"/>
+      <c r="AO88" s="32"/>
+      <c r="AP88" s="32"/>
+      <c r="AQ88" s="32"/>
+      <c r="AR88" s="32"/>
+      <c r="AS88" s="32"/>
+      <c r="AT88" s="32"/>
+      <c r="AU88" s="32"/>
+      <c r="AV88" s="32"/>
+      <c r="AW88" s="32"/>
+      <c r="AX88" s="32"/>
+      <c r="AY88" s="32"/>
+      <c r="AZ88" s="32"/>
+      <c r="BA88" s="32"/>
+      <c r="BB88" s="32"/>
+      <c r="BC88" s="32"/>
+      <c r="BD88" s="32"/>
+      <c r="BE88" s="32"/>
+      <c r="BF88" s="32"/>
+      <c r="BG88" s="32"/>
+      <c r="BH88" s="32"/>
+      <c r="BI88" s="32"/>
+      <c r="BJ88" s="32"/>
+      <c r="BK88" s="32"/>
+      <c r="BL88" s="32"/>
+      <c r="BM88" s="32"/>
+      <c r="BN88" s="32"/>
+      <c r="BO88" s="32"/>
+      <c r="BP88" s="32"/>
+      <c r="BQ88" s="32"/>
+      <c r="BR88" s="32"/>
+      <c r="BS88" s="32"/>
+      <c r="BT88" s="32"/>
+      <c r="BU88" s="32"/>
+      <c r="BV88" s="32"/>
+      <c r="BW88" s="32"/>
+      <c r="BX88" s="32"/>
+      <c r="BY88" s="32"/>
+      <c r="BZ88" s="32"/>
+      <c r="CA88" s="32"/>
+      <c r="CB88" s="32"/>
+      <c r="CC88" s="32"/>
+      <c r="CD88" s="32"/>
+      <c r="CE88" s="32"/>
+      <c r="CF88" s="32"/>
+      <c r="CG88" s="32"/>
+      <c r="CH88" s="32"/>
+      <c r="CI88" s="32"/>
+      <c r="CJ88" s="32"/>
+      <c r="CK88" s="32"/>
+      <c r="CL88" s="32"/>
+      <c r="CM88" s="32"/>
+      <c r="CN88" s="32"/>
+      <c r="CO88" s="32"/>
+      <c r="CP88" s="32"/>
+      <c r="CQ88" s="32"/>
+      <c r="CR88" s="32"/>
+      <c r="CS88" s="32"/>
+      <c r="CT88" s="32"/>
+      <c r="CU88" s="32"/>
+      <c r="CV88" s="32"/>
+      <c r="CW88" s="32"/>
+      <c r="CX88" s="32"/>
+      <c r="CY88" s="32"/>
+      <c r="CZ88" s="32"/>
+      <c r="DA88" s="32"/>
+      <c r="DB88" s="32"/>
+      <c r="DC88" s="32"/>
+      <c r="DD88" s="32"/>
+      <c r="DE88" s="32"/>
+      <c r="DF88" s="32"/>
+      <c r="DG88" s="32"/>
+      <c r="DH88" s="32"/>
+      <c r="DI88" s="32"/>
+      <c r="DJ88" s="32"/>
+      <c r="DK88" s="32"/>
+      <c r="DL88" s="32"/>
+      <c r="DM88" s="32"/>
+      <c r="DN88" s="32"/>
+      <c r="DO88" s="32"/>
+      <c r="DP88" s="32"/>
+      <c r="DQ88" s="32"/>
+      <c r="DR88" s="32"/>
+      <c r="DS88" s="32"/>
+      <c r="DT88" s="32"/>
+      <c r="DU88" s="32"/>
+      <c r="DV88" s="32"/>
+      <c r="DW88" s="32"/>
+      <c r="DX88" s="32"/>
+      <c r="DY88" s="32"/>
+      <c r="DZ88" s="32"/>
+      <c r="EA88" s="32"/>
+      <c r="EB88" s="32"/>
+      <c r="EC88" s="32"/>
+      <c r="ED88" s="32"/>
+      <c r="EE88" s="32"/>
+      <c r="EF88" s="32"/>
+      <c r="EG88" s="32"/>
+      <c r="EH88" s="32"/>
+      <c r="EI88" s="32"/>
+      <c r="EJ88" s="32"/>
+      <c r="EK88" s="32"/>
+      <c r="EL88" s="32"/>
+      <c r="EM88" s="32"/>
+      <c r="EN88" s="32"/>
+      <c r="EO88" s="32"/>
+      <c r="EP88" s="32"/>
+      <c r="EQ88" s="32"/>
+      <c r="ER88" s="32"/>
+      <c r="ES88" s="32"/>
+      <c r="ET88" s="32"/>
+      <c r="EU88" s="32"/>
+      <c r="EV88" s="32"/>
+      <c r="EW88" s="32"/>
+      <c r="EX88" s="32"/>
+      <c r="EY88" s="32"/>
+      <c r="EZ88" s="32"/>
+      <c r="FA88" s="32"/>
+      <c r="FB88" s="32"/>
+      <c r="FC88" s="32"/>
+      <c r="FD88" s="32"/>
+      <c r="FE88" s="32"/>
+      <c r="FF88" s="32"/>
+      <c r="FG88" s="32"/>
+      <c r="FH88" s="32"/>
+      <c r="FI88" s="32"/>
+      <c r="FJ88" s="32"/>
+      <c r="FK88" s="32"/>
+      <c r="FL88" s="32"/>
+      <c r="FM88" s="32"/>
+      <c r="FN88" s="32"/>
+      <c r="FO88" s="32"/>
+      <c r="FP88" s="32"/>
+      <c r="FQ88" s="32"/>
+      <c r="FR88" s="32"/>
+      <c r="FS88" s="32"/>
+      <c r="FT88" s="32"/>
+      <c r="FU88" s="32"/>
+      <c r="FV88" s="32"/>
+      <c r="FW88" s="32"/>
+      <c r="FX88" s="32"/>
+      <c r="FY88" s="32"/>
+      <c r="FZ88" s="32"/>
+      <c r="GA88" s="32"/>
+      <c r="GB88" s="32"/>
+      <c r="GC88" s="32"/>
+      <c r="GD88" s="32"/>
+      <c r="GE88" s="32"/>
+      <c r="GF88" s="32"/>
+      <c r="GG88" s="32"/>
+      <c r="GH88" s="32"/>
+      <c r="GI88" s="32"/>
+      <c r="GJ88" s="32"/>
+      <c r="GK88" s="32"/>
+      <c r="GL88" s="32"/>
+      <c r="GM88" s="32"/>
+      <c r="GN88" s="32"/>
+      <c r="GO88" s="32"/>
+      <c r="GP88" s="32"/>
+      <c r="GQ88" s="32"/>
+      <c r="GR88" s="32"/>
+      <c r="GS88" s="32"/>
+      <c r="GT88" s="32"/>
+      <c r="GU88" s="32"/>
+      <c r="GV88" s="32"/>
+      <c r="GW88" s="32"/>
+      <c r="GX88" s="32"/>
+      <c r="GY88" s="32"/>
+      <c r="GZ88" s="32"/>
+      <c r="HA88" s="32"/>
+      <c r="HB88" s="32"/>
+      <c r="HC88" s="32"/>
+      <c r="HD88" s="32"/>
+      <c r="HE88" s="32"/>
+      <c r="HF88" s="32"/>
+      <c r="HG88" s="32"/>
+      <c r="HH88" s="32"/>
+      <c r="HI88" s="32"/>
+      <c r="HJ88" s="32"/>
+      <c r="HK88" s="32"/>
+      <c r="HL88" s="32"/>
+      <c r="HM88" s="32"/>
+      <c r="HN88" s="32"/>
+      <c r="HO88" s="32"/>
+      <c r="HP88" s="32"/>
+      <c r="HQ88" s="32"/>
+      <c r="HR88" s="32"/>
+      <c r="HS88" s="32"/>
+      <c r="HT88" s="32"/>
+      <c r="HU88" s="32"/>
+      <c r="HV88" s="32"/>
+      <c r="HW88" s="32"/>
+      <c r="HX88" s="32"/>
+      <c r="HY88" s="32"/>
+      <c r="HZ88" s="32"/>
+      <c r="IA88" s="32"/>
+      <c r="IB88" s="32"/>
+      <c r="IC88" s="32"/>
+      <c r="ID88" s="32"/>
+      <c r="IE88" s="32"/>
+      <c r="IF88" s="32"/>
+      <c r="IG88" s="32"/>
+      <c r="IH88" s="32"/>
+      <c r="II88" s="32"/>
+      <c r="IJ88" s="32"/>
+      <c r="IK88" s="32"/>
+      <c r="IL88" s="32"/>
+      <c r="IM88" s="32"/>
+      <c r="IN88" s="32"/>
+      <c r="IO88" s="32"/>
+      <c r="IP88" s="32"/>
+      <c r="IQ88" s="32"/>
+      <c r="IR88" s="32"/>
+      <c r="IS88" s="32"/>
+      <c r="IT88" s="32"/>
+      <c r="IU88" s="32"/>
+      <c r="IV88" s="32"/>
+      <c r="IW88" s="32"/>
+    </row>
+    <row r="89" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>100689</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E89">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>100680</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E90">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>100562</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E91">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:257" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>100010</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E92">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>99982</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E93">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>99716</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E94">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>99581</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E95">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+    <row r="96" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="37">
         <v>99480</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="6" t="s">
+      <c r="B96" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E96" s="39">
+        <v>7</v>
+      </c>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="38"/>
+      <c r="V96" s="38"/>
+      <c r="W96" s="38"/>
+      <c r="X96" s="38"/>
+      <c r="Y96" s="38"/>
+      <c r="Z96" s="38"/>
+      <c r="AA96" s="38"/>
+      <c r="AB96" s="38"/>
+      <c r="AC96" s="38"/>
+      <c r="AD96" s="38"/>
+      <c r="AE96" s="38"/>
+      <c r="AF96" s="38"/>
+      <c r="AG96" s="38"/>
+      <c r="AH96" s="38"/>
+      <c r="AI96" s="38"/>
+      <c r="AJ96" s="38"/>
+      <c r="AK96" s="38"/>
+      <c r="AL96" s="38"/>
+      <c r="AM96" s="38"/>
+      <c r="AN96" s="38"/>
+      <c r="AO96" s="38"/>
+      <c r="AP96" s="38"/>
+      <c r="AQ96" s="38"/>
+      <c r="AR96" s="38"/>
+      <c r="AS96" s="38"/>
+      <c r="AT96" s="38"/>
+      <c r="AU96" s="38"/>
+      <c r="AV96" s="38"/>
+      <c r="AW96" s="38"/>
+      <c r="AX96" s="38"/>
+      <c r="AY96" s="38"/>
+      <c r="AZ96" s="38"/>
+      <c r="BA96" s="38"/>
+      <c r="BB96" s="38"/>
+      <c r="BC96" s="38"/>
+      <c r="BD96" s="38"/>
+      <c r="BE96" s="38"/>
+      <c r="BF96" s="38"/>
+      <c r="BG96" s="38"/>
+      <c r="BH96" s="38"/>
+      <c r="BI96" s="38"/>
+      <c r="BJ96" s="38"/>
+      <c r="BK96" s="38"/>
+      <c r="BL96" s="38"/>
+      <c r="BM96" s="38"/>
+      <c r="BN96" s="38"/>
+      <c r="BO96" s="38"/>
+      <c r="BP96" s="38"/>
+      <c r="BQ96" s="38"/>
+      <c r="BR96" s="38"/>
+      <c r="BS96" s="38"/>
+      <c r="BT96" s="38"/>
+      <c r="BU96" s="38"/>
+      <c r="BV96" s="38"/>
+      <c r="BW96" s="38"/>
+      <c r="BX96" s="38"/>
+      <c r="BY96" s="38"/>
+      <c r="BZ96" s="38"/>
+      <c r="CA96" s="38"/>
+      <c r="CB96" s="38"/>
+      <c r="CC96" s="38"/>
+      <c r="CD96" s="38"/>
+      <c r="CE96" s="38"/>
+      <c r="CF96" s="38"/>
+      <c r="CG96" s="38"/>
+      <c r="CH96" s="38"/>
+      <c r="CI96" s="38"/>
+      <c r="CJ96" s="38"/>
+      <c r="CK96" s="38"/>
+      <c r="CL96" s="38"/>
+      <c r="CM96" s="38"/>
+      <c r="CN96" s="38"/>
+      <c r="CO96" s="38"/>
+      <c r="CP96" s="38"/>
+      <c r="CQ96" s="38"/>
+      <c r="CR96" s="38"/>
+      <c r="CS96" s="38"/>
+      <c r="CT96" s="38"/>
+      <c r="CU96" s="38"/>
+      <c r="CV96" s="38"/>
+      <c r="CW96" s="38"/>
+      <c r="CX96" s="38"/>
+      <c r="CY96" s="38"/>
+      <c r="CZ96" s="38"/>
+      <c r="DA96" s="38"/>
+      <c r="DB96" s="38"/>
+      <c r="DC96" s="38"/>
+      <c r="DD96" s="38"/>
+      <c r="DE96" s="38"/>
+      <c r="DF96" s="38"/>
+      <c r="DG96" s="38"/>
+      <c r="DH96" s="38"/>
+      <c r="DI96" s="38"/>
+      <c r="DJ96" s="38"/>
+      <c r="DK96" s="38"/>
+      <c r="DL96" s="38"/>
+      <c r="DM96" s="38"/>
+      <c r="DN96" s="38"/>
+      <c r="DO96" s="38"/>
+      <c r="DP96" s="38"/>
+      <c r="DQ96" s="38"/>
+      <c r="DR96" s="38"/>
+      <c r="DS96" s="38"/>
+      <c r="DT96" s="38"/>
+      <c r="DU96" s="38"/>
+      <c r="DV96" s="38"/>
+      <c r="DW96" s="38"/>
+      <c r="DX96" s="38"/>
+      <c r="DY96" s="38"/>
+      <c r="DZ96" s="38"/>
+      <c r="EA96" s="38"/>
+      <c r="EB96" s="38"/>
+      <c r="EC96" s="38"/>
+      <c r="ED96" s="38"/>
+      <c r="EE96" s="38"/>
+      <c r="EF96" s="38"/>
+      <c r="EG96" s="38"/>
+      <c r="EH96" s="38"/>
+      <c r="EI96" s="38"/>
+      <c r="EJ96" s="38"/>
+      <c r="EK96" s="38"/>
+      <c r="EL96" s="38"/>
+      <c r="EM96" s="38"/>
+      <c r="EN96" s="38"/>
+      <c r="EO96" s="38"/>
+      <c r="EP96" s="38"/>
+      <c r="EQ96" s="38"/>
+      <c r="ER96" s="38"/>
+      <c r="ES96" s="38"/>
+      <c r="ET96" s="38"/>
+      <c r="EU96" s="38"/>
+      <c r="EV96" s="38"/>
+      <c r="EW96" s="38"/>
+      <c r="EX96" s="38"/>
+      <c r="EY96" s="38"/>
+      <c r="EZ96" s="38"/>
+      <c r="FA96" s="38"/>
+      <c r="FB96" s="38"/>
+      <c r="FC96" s="38"/>
+      <c r="FD96" s="38"/>
+      <c r="FE96" s="38"/>
+      <c r="FF96" s="38"/>
+      <c r="FG96" s="38"/>
+      <c r="FH96" s="38"/>
+      <c r="FI96" s="38"/>
+      <c r="FJ96" s="38"/>
+      <c r="FK96" s="38"/>
+      <c r="FL96" s="38"/>
+      <c r="FM96" s="38"/>
+      <c r="FN96" s="38"/>
+      <c r="FO96" s="38"/>
+      <c r="FP96" s="38"/>
+      <c r="FQ96" s="38"/>
+      <c r="FR96" s="38"/>
+      <c r="FS96" s="38"/>
+      <c r="FT96" s="38"/>
+      <c r="FU96" s="38"/>
+      <c r="FV96" s="38"/>
+      <c r="FW96" s="38"/>
+      <c r="FX96" s="38"/>
+      <c r="FY96" s="38"/>
+      <c r="FZ96" s="38"/>
+      <c r="GA96" s="38"/>
+      <c r="GB96" s="38"/>
+      <c r="GC96" s="38"/>
+      <c r="GD96" s="38"/>
+      <c r="GE96" s="38"/>
+      <c r="GF96" s="38"/>
+      <c r="GG96" s="38"/>
+      <c r="GH96" s="38"/>
+      <c r="GI96" s="38"/>
+      <c r="GJ96" s="38"/>
+      <c r="GK96" s="38"/>
+      <c r="GL96" s="38"/>
+      <c r="GM96" s="38"/>
+      <c r="GN96" s="38"/>
+      <c r="GO96" s="38"/>
+      <c r="GP96" s="38"/>
+      <c r="GQ96" s="38"/>
+      <c r="GR96" s="38"/>
+      <c r="GS96" s="38"/>
+      <c r="GT96" s="38"/>
+      <c r="GU96" s="38"/>
+      <c r="GV96" s="38"/>
+      <c r="GW96" s="38"/>
+      <c r="GX96" s="38"/>
+      <c r="GY96" s="38"/>
+      <c r="GZ96" s="38"/>
+      <c r="HA96" s="38"/>
+      <c r="HB96" s="38"/>
+      <c r="HC96" s="38"/>
+      <c r="HD96" s="38"/>
+      <c r="HE96" s="38"/>
+      <c r="HF96" s="38"/>
+      <c r="HG96" s="38"/>
+      <c r="HH96" s="38"/>
+      <c r="HI96" s="38"/>
+      <c r="HJ96" s="38"/>
+      <c r="HK96" s="38"/>
+      <c r="HL96" s="38"/>
+      <c r="HM96" s="38"/>
+      <c r="HN96" s="38"/>
+      <c r="HO96" s="38"/>
+      <c r="HP96" s="38"/>
+      <c r="HQ96" s="38"/>
+      <c r="HR96" s="38"/>
+      <c r="HS96" s="38"/>
+      <c r="HT96" s="38"/>
+      <c r="HU96" s="38"/>
+      <c r="HV96" s="38"/>
+      <c r="HW96" s="38"/>
+      <c r="HX96" s="38"/>
+      <c r="HY96" s="38"/>
+      <c r="HZ96" s="38"/>
+      <c r="IA96" s="38"/>
+      <c r="IB96" s="38"/>
+      <c r="IC96" s="38"/>
+      <c r="ID96" s="38"/>
+      <c r="IE96" s="38"/>
+      <c r="IF96" s="38"/>
+      <c r="IG96" s="38"/>
+      <c r="IH96" s="38"/>
+      <c r="II96" s="38"/>
+      <c r="IJ96" s="38"/>
+      <c r="IK96" s="38"/>
+      <c r="IL96" s="38"/>
+      <c r="IM96" s="38"/>
+      <c r="IN96" s="38"/>
+      <c r="IO96" s="38"/>
+      <c r="IP96" s="38"/>
+      <c r="IQ96" s="38"/>
+      <c r="IR96" s="38"/>
+      <c r="IS96" s="38"/>
+      <c r="IT96" s="38"/>
+      <c r="IU96" s="38"/>
+      <c r="IV96" s="38"/>
+      <c r="IW96" s="38"/>
+    </row>
+    <row r="97" spans="1:257" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="21">
+        <v>98869</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="25">
         <v>6</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E96">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
-        <v>98869</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="22"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="22"/>
+      <c r="X97" s="22"/>
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="22"/>
+      <c r="AA97" s="22"/>
+      <c r="AB97" s="22"/>
+      <c r="AC97" s="22"/>
+      <c r="AD97" s="22"/>
+      <c r="AE97" s="22"/>
+      <c r="AF97" s="22"/>
+      <c r="AG97" s="22"/>
+      <c r="AH97" s="22"/>
+      <c r="AI97" s="22"/>
+      <c r="AJ97" s="22"/>
+      <c r="AK97" s="22"/>
+      <c r="AL97" s="22"/>
+      <c r="AM97" s="22"/>
+      <c r="AN97" s="22"/>
+      <c r="AO97" s="22"/>
+      <c r="AP97" s="22"/>
+      <c r="AQ97" s="22"/>
+      <c r="AR97" s="22"/>
+      <c r="AS97" s="22"/>
+      <c r="AT97" s="22"/>
+      <c r="AU97" s="22"/>
+      <c r="AV97" s="22"/>
+      <c r="AW97" s="22"/>
+      <c r="AX97" s="22"/>
+      <c r="AY97" s="22"/>
+      <c r="AZ97" s="22"/>
+      <c r="BA97" s="22"/>
+      <c r="BB97" s="22"/>
+      <c r="BC97" s="22"/>
+      <c r="BD97" s="22"/>
+      <c r="BE97" s="22"/>
+      <c r="BF97" s="22"/>
+      <c r="BG97" s="22"/>
+      <c r="BH97" s="22"/>
+      <c r="BI97" s="22"/>
+      <c r="BJ97" s="22"/>
+      <c r="BK97" s="22"/>
+      <c r="BL97" s="22"/>
+      <c r="BM97" s="22"/>
+      <c r="BN97" s="22"/>
+      <c r="BO97" s="22"/>
+      <c r="BP97" s="22"/>
+      <c r="BQ97" s="22"/>
+      <c r="BR97" s="22"/>
+      <c r="BS97" s="22"/>
+      <c r="BT97" s="22"/>
+      <c r="BU97" s="22"/>
+      <c r="BV97" s="22"/>
+      <c r="BW97" s="22"/>
+      <c r="BX97" s="22"/>
+      <c r="BY97" s="22"/>
+      <c r="BZ97" s="22"/>
+      <c r="CA97" s="22"/>
+      <c r="CB97" s="22"/>
+      <c r="CC97" s="22"/>
+      <c r="CD97" s="22"/>
+      <c r="CE97" s="22"/>
+      <c r="CF97" s="22"/>
+      <c r="CG97" s="22"/>
+      <c r="CH97" s="22"/>
+      <c r="CI97" s="22"/>
+      <c r="CJ97" s="22"/>
+      <c r="CK97" s="22"/>
+      <c r="CL97" s="22"/>
+      <c r="CM97" s="22"/>
+      <c r="CN97" s="22"/>
+      <c r="CO97" s="22"/>
+      <c r="CP97" s="22"/>
+      <c r="CQ97" s="22"/>
+      <c r="CR97" s="22"/>
+      <c r="CS97" s="22"/>
+      <c r="CT97" s="22"/>
+      <c r="CU97" s="22"/>
+      <c r="CV97" s="22"/>
+      <c r="CW97" s="22"/>
+      <c r="CX97" s="22"/>
+      <c r="CY97" s="22"/>
+      <c r="CZ97" s="22"/>
+      <c r="DA97" s="22"/>
+      <c r="DB97" s="22"/>
+      <c r="DC97" s="22"/>
+      <c r="DD97" s="22"/>
+      <c r="DE97" s="22"/>
+      <c r="DF97" s="22"/>
+      <c r="DG97" s="22"/>
+      <c r="DH97" s="22"/>
+      <c r="DI97" s="22"/>
+      <c r="DJ97" s="22"/>
+      <c r="DK97" s="22"/>
+      <c r="DL97" s="22"/>
+      <c r="DM97" s="22"/>
+      <c r="DN97" s="22"/>
+      <c r="DO97" s="22"/>
+      <c r="DP97" s="22"/>
+      <c r="DQ97" s="22"/>
+      <c r="DR97" s="22"/>
+      <c r="DS97" s="22"/>
+      <c r="DT97" s="22"/>
+      <c r="DU97" s="22"/>
+      <c r="DV97" s="22"/>
+      <c r="DW97" s="22"/>
+      <c r="DX97" s="22"/>
+      <c r="DY97" s="22"/>
+      <c r="DZ97" s="22"/>
+      <c r="EA97" s="22"/>
+      <c r="EB97" s="22"/>
+      <c r="EC97" s="22"/>
+      <c r="ED97" s="22"/>
+      <c r="EE97" s="22"/>
+      <c r="EF97" s="22"/>
+      <c r="EG97" s="22"/>
+      <c r="EH97" s="22"/>
+      <c r="EI97" s="22"/>
+      <c r="EJ97" s="22"/>
+      <c r="EK97" s="22"/>
+      <c r="EL97" s="22"/>
+      <c r="EM97" s="22"/>
+      <c r="EN97" s="22"/>
+      <c r="EO97" s="22"/>
+      <c r="EP97" s="22"/>
+      <c r="EQ97" s="22"/>
+      <c r="ER97" s="22"/>
+      <c r="ES97" s="22"/>
+      <c r="ET97" s="22"/>
+      <c r="EU97" s="22"/>
+      <c r="EV97" s="22"/>
+      <c r="EW97" s="22"/>
+      <c r="EX97" s="22"/>
+      <c r="EY97" s="22"/>
+      <c r="EZ97" s="22"/>
+      <c r="FA97" s="22"/>
+      <c r="FB97" s="22"/>
+      <c r="FC97" s="22"/>
+      <c r="FD97" s="22"/>
+      <c r="FE97" s="22"/>
+      <c r="FF97" s="22"/>
+      <c r="FG97" s="22"/>
+      <c r="FH97" s="22"/>
+      <c r="FI97" s="22"/>
+      <c r="FJ97" s="22"/>
+      <c r="FK97" s="22"/>
+      <c r="FL97" s="22"/>
+      <c r="FM97" s="22"/>
+      <c r="FN97" s="22"/>
+      <c r="FO97" s="22"/>
+      <c r="FP97" s="22"/>
+      <c r="FQ97" s="22"/>
+      <c r="FR97" s="22"/>
+      <c r="FS97" s="22"/>
+      <c r="FT97" s="22"/>
+      <c r="FU97" s="22"/>
+      <c r="FV97" s="22"/>
+      <c r="FW97" s="22"/>
+      <c r="FX97" s="22"/>
+      <c r="FY97" s="22"/>
+      <c r="FZ97" s="22"/>
+      <c r="GA97" s="22"/>
+      <c r="GB97" s="22"/>
+      <c r="GC97" s="22"/>
+      <c r="GD97" s="22"/>
+      <c r="GE97" s="22"/>
+      <c r="GF97" s="22"/>
+      <c r="GG97" s="22"/>
+      <c r="GH97" s="22"/>
+      <c r="GI97" s="22"/>
+      <c r="GJ97" s="22"/>
+      <c r="GK97" s="22"/>
+      <c r="GL97" s="22"/>
+      <c r="GM97" s="22"/>
+      <c r="GN97" s="22"/>
+      <c r="GO97" s="22"/>
+      <c r="GP97" s="22"/>
+      <c r="GQ97" s="22"/>
+      <c r="GR97" s="22"/>
+      <c r="GS97" s="22"/>
+      <c r="GT97" s="22"/>
+      <c r="GU97" s="22"/>
+      <c r="GV97" s="22"/>
+      <c r="GW97" s="22"/>
+      <c r="GX97" s="22"/>
+      <c r="GY97" s="22"/>
+      <c r="GZ97" s="22"/>
+      <c r="HA97" s="22"/>
+      <c r="HB97" s="22"/>
+      <c r="HC97" s="22"/>
+      <c r="HD97" s="22"/>
+      <c r="HE97" s="22"/>
+      <c r="HF97" s="22"/>
+      <c r="HG97" s="22"/>
+      <c r="HH97" s="22"/>
+      <c r="HI97" s="22"/>
+      <c r="HJ97" s="22"/>
+      <c r="HK97" s="22"/>
+      <c r="HL97" s="22"/>
+      <c r="HM97" s="22"/>
+      <c r="HN97" s="22"/>
+      <c r="HO97" s="22"/>
+      <c r="HP97" s="22"/>
+      <c r="HQ97" s="22"/>
+      <c r="HR97" s="22"/>
+      <c r="HS97" s="22"/>
+      <c r="HT97" s="22"/>
+      <c r="HU97" s="22"/>
+      <c r="HV97" s="22"/>
+      <c r="HW97" s="22"/>
+      <c r="HX97" s="22"/>
+      <c r="HY97" s="22"/>
+      <c r="HZ97" s="22"/>
+      <c r="IA97" s="22"/>
+      <c r="IB97" s="22"/>
+      <c r="IC97" s="22"/>
+      <c r="ID97" s="22"/>
+      <c r="IE97" s="22"/>
+      <c r="IF97" s="22"/>
+      <c r="IG97" s="22"/>
+      <c r="IH97" s="22"/>
+      <c r="II97" s="22"/>
+      <c r="IJ97" s="22"/>
+      <c r="IK97" s="22"/>
+      <c r="IL97" s="22"/>
+      <c r="IM97" s="22"/>
+      <c r="IN97" s="22"/>
+      <c r="IO97" s="22"/>
+      <c r="IP97" s="22"/>
+      <c r="IQ97" s="22"/>
+      <c r="IR97" s="22"/>
+      <c r="IS97" s="22"/>
+      <c r="IT97" s="22"/>
+      <c r="IU97" s="22"/>
+      <c r="IV97" s="22"/>
+      <c r="IW97" s="22"/>
+    </row>
+    <row r="98" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>98578</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E98">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+    <row r="99" spans="1:257" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="21">
         <v>98197</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E99">
+      <c r="B99" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E99" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="22"/>
+      <c r="AD99" s="22"/>
+      <c r="AE99" s="22"/>
+      <c r="AF99" s="22"/>
+      <c r="AG99" s="22"/>
+      <c r="AH99" s="22"/>
+      <c r="AI99" s="22"/>
+      <c r="AJ99" s="22"/>
+      <c r="AK99" s="22"/>
+      <c r="AL99" s="22"/>
+      <c r="AM99" s="22"/>
+      <c r="AN99" s="22"/>
+      <c r="AO99" s="22"/>
+      <c r="AP99" s="22"/>
+      <c r="AQ99" s="22"/>
+      <c r="AR99" s="22"/>
+      <c r="AS99" s="22"/>
+      <c r="AT99" s="22"/>
+      <c r="AU99" s="22"/>
+      <c r="AV99" s="22"/>
+      <c r="AW99" s="22"/>
+      <c r="AX99" s="22"/>
+      <c r="AY99" s="22"/>
+      <c r="AZ99" s="22"/>
+      <c r="BA99" s="22"/>
+      <c r="BB99" s="22"/>
+      <c r="BC99" s="22"/>
+      <c r="BD99" s="22"/>
+      <c r="BE99" s="22"/>
+      <c r="BF99" s="22"/>
+      <c r="BG99" s="22"/>
+      <c r="BH99" s="22"/>
+      <c r="BI99" s="22"/>
+      <c r="BJ99" s="22"/>
+      <c r="BK99" s="22"/>
+      <c r="BL99" s="22"/>
+      <c r="BM99" s="22"/>
+      <c r="BN99" s="22"/>
+      <c r="BO99" s="22"/>
+      <c r="BP99" s="22"/>
+      <c r="BQ99" s="22"/>
+      <c r="BR99" s="22"/>
+      <c r="BS99" s="22"/>
+      <c r="BT99" s="22"/>
+      <c r="BU99" s="22"/>
+      <c r="BV99" s="22"/>
+      <c r="BW99" s="22"/>
+      <c r="BX99" s="22"/>
+      <c r="BY99" s="22"/>
+      <c r="BZ99" s="22"/>
+      <c r="CA99" s="22"/>
+      <c r="CB99" s="22"/>
+      <c r="CC99" s="22"/>
+      <c r="CD99" s="22"/>
+      <c r="CE99" s="22"/>
+      <c r="CF99" s="22"/>
+      <c r="CG99" s="22"/>
+      <c r="CH99" s="22"/>
+      <c r="CI99" s="22"/>
+      <c r="CJ99" s="22"/>
+      <c r="CK99" s="22"/>
+      <c r="CL99" s="22"/>
+      <c r="CM99" s="22"/>
+      <c r="CN99" s="22"/>
+      <c r="CO99" s="22"/>
+      <c r="CP99" s="22"/>
+      <c r="CQ99" s="22"/>
+      <c r="CR99" s="22"/>
+      <c r="CS99" s="22"/>
+      <c r="CT99" s="22"/>
+      <c r="CU99" s="22"/>
+      <c r="CV99" s="22"/>
+      <c r="CW99" s="22"/>
+      <c r="CX99" s="22"/>
+      <c r="CY99" s="22"/>
+      <c r="CZ99" s="22"/>
+      <c r="DA99" s="22"/>
+      <c r="DB99" s="22"/>
+      <c r="DC99" s="22"/>
+      <c r="DD99" s="22"/>
+      <c r="DE99" s="22"/>
+      <c r="DF99" s="22"/>
+      <c r="DG99" s="22"/>
+      <c r="DH99" s="22"/>
+      <c r="DI99" s="22"/>
+      <c r="DJ99" s="22"/>
+      <c r="DK99" s="22"/>
+      <c r="DL99" s="22"/>
+      <c r="DM99" s="22"/>
+      <c r="DN99" s="22"/>
+      <c r="DO99" s="22"/>
+      <c r="DP99" s="22"/>
+      <c r="DQ99" s="22"/>
+      <c r="DR99" s="22"/>
+      <c r="DS99" s="22"/>
+      <c r="DT99" s="22"/>
+      <c r="DU99" s="22"/>
+      <c r="DV99" s="22"/>
+      <c r="DW99" s="22"/>
+      <c r="DX99" s="22"/>
+      <c r="DY99" s="22"/>
+      <c r="DZ99" s="22"/>
+      <c r="EA99" s="22"/>
+      <c r="EB99" s="22"/>
+      <c r="EC99" s="22"/>
+      <c r="ED99" s="22"/>
+      <c r="EE99" s="22"/>
+      <c r="EF99" s="22"/>
+      <c r="EG99" s="22"/>
+      <c r="EH99" s="22"/>
+      <c r="EI99" s="22"/>
+      <c r="EJ99" s="22"/>
+      <c r="EK99" s="22"/>
+      <c r="EL99" s="22"/>
+      <c r="EM99" s="22"/>
+      <c r="EN99" s="22"/>
+      <c r="EO99" s="22"/>
+      <c r="EP99" s="22"/>
+      <c r="EQ99" s="22"/>
+      <c r="ER99" s="22"/>
+      <c r="ES99" s="22"/>
+      <c r="ET99" s="22"/>
+      <c r="EU99" s="22"/>
+      <c r="EV99" s="22"/>
+      <c r="EW99" s="22"/>
+      <c r="EX99" s="22"/>
+      <c r="EY99" s="22"/>
+      <c r="EZ99" s="22"/>
+      <c r="FA99" s="22"/>
+      <c r="FB99" s="22"/>
+      <c r="FC99" s="22"/>
+      <c r="FD99" s="22"/>
+      <c r="FE99" s="22"/>
+      <c r="FF99" s="22"/>
+      <c r="FG99" s="22"/>
+      <c r="FH99" s="22"/>
+      <c r="FI99" s="22"/>
+      <c r="FJ99" s="22"/>
+      <c r="FK99" s="22"/>
+      <c r="FL99" s="22"/>
+      <c r="FM99" s="22"/>
+      <c r="FN99" s="22"/>
+      <c r="FO99" s="22"/>
+      <c r="FP99" s="22"/>
+      <c r="FQ99" s="22"/>
+      <c r="FR99" s="22"/>
+      <c r="FS99" s="22"/>
+      <c r="FT99" s="22"/>
+      <c r="FU99" s="22"/>
+      <c r="FV99" s="22"/>
+      <c r="FW99" s="22"/>
+      <c r="FX99" s="22"/>
+      <c r="FY99" s="22"/>
+      <c r="FZ99" s="22"/>
+      <c r="GA99" s="22"/>
+      <c r="GB99" s="22"/>
+      <c r="GC99" s="22"/>
+      <c r="GD99" s="22"/>
+      <c r="GE99" s="22"/>
+      <c r="GF99" s="22"/>
+      <c r="GG99" s="22"/>
+      <c r="GH99" s="22"/>
+      <c r="GI99" s="22"/>
+      <c r="GJ99" s="22"/>
+      <c r="GK99" s="22"/>
+      <c r="GL99" s="22"/>
+      <c r="GM99" s="22"/>
+      <c r="GN99" s="22"/>
+      <c r="GO99" s="22"/>
+      <c r="GP99" s="22"/>
+      <c r="GQ99" s="22"/>
+      <c r="GR99" s="22"/>
+      <c r="GS99" s="22"/>
+      <c r="GT99" s="22"/>
+      <c r="GU99" s="22"/>
+      <c r="GV99" s="22"/>
+      <c r="GW99" s="22"/>
+      <c r="GX99" s="22"/>
+      <c r="GY99" s="22"/>
+      <c r="GZ99" s="22"/>
+      <c r="HA99" s="22"/>
+      <c r="HB99" s="22"/>
+      <c r="HC99" s="22"/>
+      <c r="HD99" s="22"/>
+      <c r="HE99" s="22"/>
+      <c r="HF99" s="22"/>
+      <c r="HG99" s="22"/>
+      <c r="HH99" s="22"/>
+      <c r="HI99" s="22"/>
+      <c r="HJ99" s="22"/>
+      <c r="HK99" s="22"/>
+      <c r="HL99" s="22"/>
+      <c r="HM99" s="22"/>
+      <c r="HN99" s="22"/>
+      <c r="HO99" s="22"/>
+      <c r="HP99" s="22"/>
+      <c r="HQ99" s="22"/>
+      <c r="HR99" s="22"/>
+      <c r="HS99" s="22"/>
+      <c r="HT99" s="22"/>
+      <c r="HU99" s="22"/>
+      <c r="HV99" s="22"/>
+      <c r="HW99" s="22"/>
+      <c r="HX99" s="22"/>
+      <c r="HY99" s="22"/>
+      <c r="HZ99" s="22"/>
+      <c r="IA99" s="22"/>
+      <c r="IB99" s="22"/>
+      <c r="IC99" s="22"/>
+      <c r="ID99" s="22"/>
+      <c r="IE99" s="22"/>
+      <c r="IF99" s="22"/>
+      <c r="IG99" s="22"/>
+      <c r="IH99" s="22"/>
+      <c r="II99" s="22"/>
+      <c r="IJ99" s="22"/>
+      <c r="IK99" s="22"/>
+      <c r="IL99" s="22"/>
+      <c r="IM99" s="22"/>
+      <c r="IN99" s="22"/>
+      <c r="IO99" s="22"/>
+      <c r="IP99" s="22"/>
+      <c r="IQ99" s="22"/>
+      <c r="IR99" s="22"/>
+      <c r="IS99" s="22"/>
+      <c r="IT99" s="22"/>
+      <c r="IU99" s="22"/>
+      <c r="IV99" s="22"/>
+      <c r="IW99" s="22"/>
+    </row>
+    <row r="100" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>98078</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>98059</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>96024</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E102">
         <v>1</v>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -70,17 +70,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Are you left-handed?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Do you live alone?</t>
     </r>
   </si>
@@ -180,17 +169,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Do you eat breakfast every day?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Are you currently carrying a grudge against anyone in your personal life?</t>
     </r>
   </si>
@@ -334,17 +312,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Lots of people are around! Are you more likely to be right in the middle of things, or looking for your own quieter space?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Are you generally a cautious person, or are you comfortable taking risks?</t>
     </r>
   </si>
@@ -378,17 +345,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Is your alarm clock intentionally set to be a few minutes fast?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>As a teenager, do/did you have parents who were generally more supportive or demanding?</t>
     </r>
   </si>
@@ -587,17 +543,6 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>Do you find it easier to start and maintain a new good habit, or to permanently kick a bad habit?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
       <t>Are you a morning person or a night person?</t>
     </r>
   </si>
@@ -1375,6 +1320,21 @@
   </si>
   <si>
     <t>Do you own any power tools? (power saws, drills, etc.)</t>
+  </si>
+  <si>
+    <t>Do you find it easier to start and maintain a new good habit, or to permanently kick a bad habit?</t>
+  </si>
+  <si>
+    <t>Is your alarm clock intentionally set to be a few minutes fast?</t>
+  </si>
+  <si>
+    <t>Are you left-handed?</t>
+  </si>
+  <si>
+    <t>Do you eat breakfast every day?</t>
+  </si>
+  <si>
+    <t>Lots of people are around! Are you more likely to be right in the middle of things, or looking for your own quieter space?</t>
   </si>
 </sst>
 </file>
@@ -2882,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2898,19 +2858,19 @@
   <sheetData>
     <row r="1" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2918,13 +2878,13 @@
         <v>124742</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -2935,13 +2895,13 @@
         <v>124122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -2952,13 +2912,13 @@
         <v>123621</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E4" s="20">
         <v>99</v>
@@ -3221,13 +3181,13 @@
         <v>123464</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="E5">
         <v>98</v>
@@ -3238,13 +3198,13 @@
         <v>122771</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E6">
         <v>97</v>
@@ -3255,13 +3215,13 @@
         <v>122770</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>96</v>
@@ -3272,13 +3232,13 @@
         <v>122769</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E8">
         <v>95</v>
@@ -3289,13 +3249,13 @@
         <v>122120</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E9">
         <v>94</v>
@@ -3306,13 +3266,13 @@
         <v>121700</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E10">
         <v>93</v>
@@ -3323,13 +3283,13 @@
         <v>121699</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E11">
         <v>92</v>
@@ -3340,13 +3300,13 @@
         <v>121011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <v>91</v>
@@ -3357,13 +3317,13 @@
         <v>120978</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E13">
         <v>90</v>
@@ -3374,13 +3334,13 @@
         <v>120650</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E14">
         <v>89</v>
@@ -3391,13 +3351,13 @@
         <v>120472</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E15" s="39">
         <v>88</v>
@@ -3660,13 +3620,13 @@
         <v>120379</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E16" s="39">
         <v>87</v>
@@ -3929,13 +3889,13 @@
         <v>120194</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E17">
         <v>86</v>
@@ -3946,13 +3906,13 @@
         <v>120014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E18">
         <v>85</v>
@@ -3963,13 +3923,13 @@
         <v>120012</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E19">
         <v>84</v>
@@ -3980,13 +3940,13 @@
         <v>119851</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E20">
         <v>83</v>
@@ -3997,13 +3957,13 @@
         <v>119650</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E21">
         <v>82</v>
@@ -4014,13 +3974,13 @@
         <v>119334</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E22">
         <v>81</v>
@@ -4031,13 +3991,13 @@
         <v>118892</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E23">
         <v>80</v>
@@ -4048,13 +4008,13 @@
         <v>118237</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E24">
         <v>79</v>
@@ -4065,13 +4025,13 @@
         <v>118233</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E25">
         <v>78</v>
@@ -4082,13 +4042,13 @@
         <v>118232</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E26">
         <v>77</v>
@@ -4099,13 +4059,13 @@
         <v>118117</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E27">
         <v>76</v>
@@ -4116,13 +4076,13 @@
         <v>117193</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E28">
         <v>75</v>
@@ -4133,13 +4093,13 @@
         <v>117186</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E29">
         <v>74</v>
@@ -4150,13 +4110,13 @@
         <v>116953</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E30">
         <v>73</v>
@@ -4167,13 +4127,13 @@
         <v>116881</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E31" s="39">
         <v>72</v>
@@ -4436,13 +4396,13 @@
         <v>116797</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E32">
         <v>71</v>
@@ -4453,13 +4413,13 @@
         <v>116601</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>70</v>
@@ -4470,13 +4430,13 @@
         <v>116448</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E34">
         <v>69</v>
@@ -4487,13 +4447,13 @@
         <v>116441</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E35" s="30">
         <v>68</v>
@@ -4756,13 +4716,13 @@
         <v>116197</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E36">
         <v>67</v>
@@ -4773,13 +4733,13 @@
         <v>115899</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E37" s="39">
         <v>66</v>
@@ -5042,13 +5002,13 @@
         <v>115777</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E38">
         <v>65</v>
@@ -5059,13 +5019,13 @@
         <v>115611</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E39">
         <v>64</v>
@@ -5076,13 +5036,13 @@
         <v>115610</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E40">
         <v>63</v>
@@ -5093,13 +5053,13 @@
         <v>115602</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E41">
         <v>62</v>
@@ -5110,13 +5070,13 @@
         <v>115390</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E42">
         <v>61</v>
@@ -5127,13 +5087,13 @@
         <v>115195</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E43">
         <v>60</v>
@@ -5144,13 +5104,13 @@
         <v>114961</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E44">
         <v>59</v>
@@ -5161,13 +5121,13 @@
         <v>114748</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E45">
         <v>58</v>
@@ -5178,13 +5138,13 @@
         <v>114517</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E46">
         <v>57</v>
@@ -5195,13 +5155,13 @@
         <v>114386</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E47">
         <v>56</v>
@@ -5212,13 +5172,13 @@
         <v>114152</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E48">
         <v>55</v>
@@ -5229,13 +5189,13 @@
         <v>113992</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E49">
         <v>54</v>
@@ -5246,13 +5206,13 @@
         <v>113584</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E50">
         <v>53</v>
@@ -5263,13 +5223,13 @@
         <v>113583</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E51">
         <v>52</v>
@@ -5280,13 +5240,13 @@
         <v>113181</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E52" s="25">
         <v>51</v>
@@ -5549,13 +5509,13 @@
         <v>112512</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -5566,13 +5526,13 @@
         <v>112478</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E54">
         <v>49</v>
@@ -5583,13 +5543,13 @@
         <v>112270</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E55">
         <v>48</v>
@@ -5600,13 +5560,13 @@
         <v>111848</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E56">
         <v>47</v>
@@ -5617,13 +5577,13 @@
         <v>111580</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E57">
         <v>46</v>
@@ -5634,13 +5594,13 @@
         <v>111220</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E58">
         <v>45</v>
@@ -5651,13 +5611,13 @@
         <v>110740</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E59">
         <v>44</v>
@@ -5668,13 +5628,13 @@
         <v>109367</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E60">
         <v>43</v>
@@ -5685,13 +5645,13 @@
         <v>109244</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E61" s="39">
         <v>42</v>
@@ -5954,13 +5914,13 @@
         <v>108950</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E62">
         <v>41</v>
@@ -5971,13 +5931,13 @@
         <v>108856</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E63">
         <v>40</v>
@@ -5988,13 +5948,13 @@
         <v>108855</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E64">
         <v>39</v>
@@ -6005,13 +5965,13 @@
         <v>108754</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E65">
         <v>38</v>
@@ -6022,13 +5982,13 @@
         <v>108617</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E66">
         <v>37</v>
@@ -6039,13 +5999,13 @@
         <v>108343</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E67" s="15">
         <v>36</v>
@@ -6308,13 +6268,13 @@
         <v>108342</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E68">
         <v>35</v>
@@ -6325,13 +6285,13 @@
         <v>107869</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E69">
         <v>34</v>
@@ -6342,13 +6302,13 @@
         <v>107491</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E70">
         <v>33</v>
@@ -6359,13 +6319,13 @@
         <v>106997</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E71" s="35">
         <v>32</v>
@@ -6628,13 +6588,13 @@
         <v>106993</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E72">
         <v>31</v>
@@ -6645,13 +6605,13 @@
         <v>106389</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E73">
         <v>30</v>
@@ -6662,13 +6622,13 @@
         <v>106388</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E74" s="20">
         <v>29</v>
@@ -6931,13 +6891,13 @@
         <v>106272</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E75" s="39">
         <v>28</v>
@@ -7200,13 +7160,13 @@
         <v>106042</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E76">
         <v>27</v>
@@ -7217,13 +7177,13 @@
         <v>105840</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E77" s="39">
         <v>26</v>
@@ -7486,13 +7446,13 @@
         <v>105655</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E78">
         <v>25</v>
@@ -7503,13 +7463,13 @@
         <v>104996</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E79">
         <v>24</v>
@@ -7520,13 +7480,13 @@
         <v>103293</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E80">
         <v>23</v>
@@ -7537,13 +7497,13 @@
         <v>102906</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E81">
         <v>22</v>
@@ -7554,13 +7514,13 @@
         <v>102687</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E82">
         <v>21</v>
@@ -7571,13 +7531,13 @@
         <v>102674</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E83" s="15">
         <v>20</v>
@@ -7840,13 +7800,13 @@
         <v>102289</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E84">
         <v>19</v>
@@ -7857,13 +7817,13 @@
         <v>102089</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E85">
         <v>18</v>
@@ -7874,13 +7834,13 @@
         <v>101596</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E86">
         <v>17</v>
@@ -7891,13 +7851,13 @@
         <v>101163</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E87" s="39">
         <v>16</v>
@@ -8160,13 +8120,13 @@
         <v>101162</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E88" s="35">
         <v>15</v>
@@ -8429,13 +8389,13 @@
         <v>100689</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E89">
         <v>14</v>
@@ -8446,13 +8406,13 @@
         <v>100680</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E90">
         <v>13</v>
@@ -8463,13 +8423,13 @@
         <v>100562</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E91">
         <v>12</v>
@@ -8480,13 +8440,13 @@
         <v>100010</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E92">
         <v>11</v>
@@ -8497,13 +8457,13 @@
         <v>99982</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E93">
         <v>10</v>
@@ -8514,13 +8474,13 @@
         <v>99716</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E94">
         <v>9</v>
@@ -8531,13 +8491,13 @@
         <v>99581</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E95">
         <v>8</v>
@@ -8548,13 +8508,13 @@
         <v>99480</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E96" s="39">
         <v>7</v>
@@ -8817,13 +8777,13 @@
         <v>98869</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E97" s="25">
         <v>6</v>
@@ -9086,13 +9046,13 @@
         <v>98578</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -9103,13 +9063,13 @@
         <v>98197</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E99" s="25">
         <v>4</v>
@@ -9372,13 +9332,13 @@
         <v>98078</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -9389,13 +9349,13 @@
         <v>98059</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -9406,13 +9366,13 @@
         <v>96024</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E102">
         <v>1</v>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="15960" windowHeight="16320"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="237">
   <si>
     <r>
       <rPr>
@@ -1335,6 +1335,15 @@
   </si>
   <si>
     <t>Lots of people are around! Are you more likely to be right in the middle of things, or looking for your own quieter space?</t>
+  </si>
+  <si>
+    <t>Face validity</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1510,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1624,6 +1633,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2842,18 +2854,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G102" sqref="G2:H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="257" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="1" customWidth="1"/>
+    <col min="7" max="257" width="9.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2872,6 +2885,9 @@
       <c r="E1" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="F1" s="41" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="2" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
@@ -2889,6 +2905,17 @@
       <c r="E2">
         <v>101</v>
       </c>
+      <c r="F2" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>IF((F2="y"),B2, "")</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>IF((F2="y"),E2, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -2906,6 +2933,17 @@
       <c r="E3">
         <v>100</v>
       </c>
+      <c r="F3" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G66" si="0">IF((F3="y"),B3, "")</f>
+        <v/>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H66" si="1">IF((F3="y"),E3, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:257" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
@@ -2923,9 +2961,17 @@
       <c r="E4" s="20">
         <v>99</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q123621</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
@@ -3192,6 +3238,17 @@
       <c r="E5">
         <v>98</v>
       </c>
+      <c r="F5" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q123464</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -3209,6 +3266,17 @@
       <c r="E6">
         <v>97</v>
       </c>
+      <c r="F6" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q122771</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="7" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
@@ -3226,6 +3294,17 @@
       <c r="E7">
         <v>96</v>
       </c>
+      <c r="F7" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q122770</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
@@ -3243,6 +3322,17 @@
       <c r="E8">
         <v>95</v>
       </c>
+      <c r="F8" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
@@ -3260,6 +3350,17 @@
       <c r="E9">
         <v>94</v>
       </c>
+      <c r="F9" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
@@ -3277,6 +3378,17 @@
       <c r="E10">
         <v>93</v>
       </c>
+      <c r="F10" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
@@ -3294,6 +3406,17 @@
       <c r="E11">
         <v>92</v>
       </c>
+      <c r="F11" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -3311,6 +3434,17 @@
       <c r="E12">
         <v>91</v>
       </c>
+      <c r="F12" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
@@ -3328,6 +3462,17 @@
       <c r="E13">
         <v>90</v>
       </c>
+      <c r="F13" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
@@ -3345,6 +3490,17 @@
       <c r="E14">
         <v>89</v>
       </c>
+      <c r="F14" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q120650</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
@@ -3362,9 +3518,17 @@
       <c r="E15" s="39">
         <v>88</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="F15" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q120472</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -3631,9 +3795,17 @@
       <c r="E16" s="39">
         <v>87</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q120379</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -3900,6 +4072,17 @@
       <c r="E17">
         <v>86</v>
       </c>
+      <c r="F17" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q120194</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
@@ -3917,6 +4100,17 @@
       <c r="E18">
         <v>85</v>
       </c>
+      <c r="F18" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q120014</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
@@ -3934,6 +4128,17 @@
       <c r="E19">
         <v>84</v>
       </c>
+      <c r="F19" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
@@ -3951,6 +4156,17 @@
       <c r="E20">
         <v>83</v>
       </c>
+      <c r="F20" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
@@ -3968,6 +4184,17 @@
       <c r="E21">
         <v>82</v>
       </c>
+      <c r="F21" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q119650</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="22" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
@@ -3985,6 +4212,17 @@
       <c r="E22">
         <v>81</v>
       </c>
+      <c r="F22" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q119334</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
@@ -4002,6 +4240,17 @@
       <c r="E23">
         <v>80</v>
       </c>
+      <c r="F23" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
@@ -4019,6 +4268,17 @@
       <c r="E24">
         <v>79</v>
       </c>
+      <c r="F24" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
@@ -4036,6 +4296,17 @@
       <c r="E25">
         <v>78</v>
       </c>
+      <c r="F25" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q118233</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
@@ -4053,6 +4324,17 @@
       <c r="E26">
         <v>77</v>
       </c>
+      <c r="F26" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q118232</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
@@ -4070,6 +4352,17 @@
       <c r="E27">
         <v>76</v>
       </c>
+      <c r="F27" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q118117</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="28" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
@@ -4087,6 +4380,17 @@
       <c r="E28">
         <v>75</v>
       </c>
+      <c r="F28" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q117193</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
@@ -4104,6 +4408,17 @@
       <c r="E29">
         <v>74</v>
       </c>
+      <c r="F29" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
@@ -4121,6 +4436,17 @@
       <c r="E30">
         <v>73</v>
       </c>
+      <c r="F30" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q116953</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="31" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37">
@@ -4138,9 +4464,17 @@
       <c r="E31" s="39">
         <v>72</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="F31" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q116881</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -4407,6 +4741,17 @@
       <c r="E32">
         <v>71</v>
       </c>
+      <c r="F32" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
@@ -4424,6 +4769,17 @@
       <c r="E33">
         <v>70</v>
       </c>
+      <c r="F33" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q116601</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="34" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
@@ -4441,6 +4797,17 @@
       <c r="E34">
         <v>69</v>
       </c>
+      <c r="F34" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:257" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
@@ -4458,9 +4825,17 @@
       <c r="E35" s="30">
         <v>68</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="F35" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -4727,6 +5102,17 @@
       <c r="E36">
         <v>67</v>
       </c>
+      <c r="F36" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37">
@@ -4744,9 +5130,17 @@
       <c r="E37" s="39">
         <v>66</v>
       </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="F37" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q115899</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>
@@ -5013,6 +5407,17 @@
       <c r="E38">
         <v>65</v>
       </c>
+      <c r="F38" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
@@ -5030,6 +5435,17 @@
       <c r="E39">
         <v>64</v>
       </c>
+      <c r="F39" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q115611</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
@@ -5047,6 +5463,17 @@
       <c r="E40">
         <v>63</v>
       </c>
+      <c r="F40" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q115610</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="41" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
@@ -5064,6 +5491,17 @@
       <c r="E41">
         <v>62</v>
       </c>
+      <c r="F41" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q115602</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
@@ -5081,6 +5519,17 @@
       <c r="E42">
         <v>61</v>
       </c>
+      <c r="F42" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="43" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
@@ -5098,6 +5547,17 @@
       <c r="E43">
         <v>60</v>
       </c>
+      <c r="F43" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q115195</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="44" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
@@ -5115,6 +5575,17 @@
       <c r="E44">
         <v>59</v>
       </c>
+      <c r="F44" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q114961</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="45" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
@@ -5132,6 +5603,17 @@
       <c r="E45">
         <v>58</v>
       </c>
+      <c r="F45" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q114748</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="46" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
@@ -5149,6 +5631,17 @@
       <c r="E46">
         <v>57</v>
       </c>
+      <c r="F46" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="47" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
@@ -5166,6 +5659,17 @@
       <c r="E47">
         <v>56</v>
       </c>
+      <c r="F47" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="48" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
@@ -5183,6 +5687,17 @@
       <c r="E48">
         <v>55</v>
       </c>
+      <c r="F48" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q114152</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="49" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
@@ -5200,6 +5715,17 @@
       <c r="E49">
         <v>54</v>
       </c>
+      <c r="F49" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q113992</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="50" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
@@ -5217,6 +5743,17 @@
       <c r="E50">
         <v>53</v>
       </c>
+      <c r="F50" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="51" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
@@ -5234,6 +5771,17 @@
       <c r="E51">
         <v>52</v>
       </c>
+      <c r="F51" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q113583</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="52" spans="1:257" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21">
@@ -5251,9 +5799,17 @@
       <c r="E52" s="25">
         <v>51</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
+      <c r="F52" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q113181</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
@@ -5520,6 +6076,17 @@
       <c r="E53">
         <v>50</v>
       </c>
+      <c r="F53" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
@@ -5537,6 +6104,17 @@
       <c r="E54">
         <v>49</v>
       </c>
+      <c r="F54" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
@@ -5554,6 +6132,17 @@
       <c r="E55">
         <v>48</v>
       </c>
+      <c r="F55" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="56" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
@@ -5571,6 +6160,17 @@
       <c r="E56">
         <v>47</v>
       </c>
+      <c r="F56" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q111848</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="57" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
@@ -5588,6 +6188,17 @@
       <c r="E57">
         <v>46</v>
       </c>
+      <c r="F57" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q111580</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="58" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
@@ -5605,6 +6216,17 @@
       <c r="E58">
         <v>45</v>
       </c>
+      <c r="F58" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
@@ -5622,6 +6244,17 @@
       <c r="E59">
         <v>44</v>
       </c>
+      <c r="F59" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q110740</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="60" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
@@ -5639,6 +6272,17 @@
       <c r="E60">
         <v>43</v>
       </c>
+      <c r="F60" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q109367</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="61" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="37">
@@ -5656,9 +6300,17 @@
       <c r="E61" s="39">
         <v>42</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
+      <c r="F61" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q109244</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
       <c r="K61" s="38"/>
@@ -5925,6 +6577,17 @@
       <c r="E62">
         <v>41</v>
       </c>
+      <c r="F62" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
@@ -5942,6 +6605,17 @@
       <c r="E63">
         <v>40</v>
       </c>
+      <c r="F63" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q108856</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="64" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
@@ -5959,6 +6633,17 @@
       <c r="E64">
         <v>39</v>
       </c>
+      <c r="F64" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q108855</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="65" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
@@ -5976,6 +6661,17 @@
       <c r="E65">
         <v>38</v>
       </c>
+      <c r="F65" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q108754</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="66" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
@@ -5993,6 +6689,17 @@
       <c r="E66">
         <v>37</v>
       </c>
+      <c r="F66" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Q108617</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="67" spans="1:257" s="15" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
@@ -6010,9 +6717,17 @@
       <c r="E67" s="15">
         <v>36</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="F67" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f t="shared" ref="G67:G102" si="2">IF((F67="y"),B67, "")</f>
+        <v>Q108343</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H102" si="3">IF((F67="y"),E67, "")</f>
+        <v>36</v>
+      </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
@@ -6279,6 +6994,17 @@
       <c r="E68">
         <v>35</v>
       </c>
+      <c r="F68" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q108342</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="69" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
@@ -6296,6 +7022,17 @@
       <c r="E69">
         <v>34</v>
       </c>
+      <c r="F69" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="70" spans="1:257" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
@@ -6313,6 +7050,17 @@
       <c r="E70">
         <v>33</v>
       </c>
+      <c r="F70" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="71" spans="1:257" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31">
@@ -6330,9 +7078,17 @@
       <c r="E71" s="35">
         <v>32</v>
       </c>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
+      <c r="F71" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
       <c r="K71" s="32"/>
@@ -6599,6 +7355,17 @@
       <c r="E72">
         <v>31</v>
       </c>
+      <c r="F72" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="73" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
@@ -6616,6 +7383,17 @@
       <c r="E73">
         <v>30</v>
       </c>
+      <c r="F73" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="74" spans="1:257" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
@@ -6633,9 +7411,17 @@
       <c r="E74" s="20">
         <v>29</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
+      <c r="F74" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q106388</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
@@ -6902,9 +7688,17 @@
       <c r="E75" s="39">
         <v>28</v>
       </c>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
+      <c r="F75" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q106272</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
       <c r="I75" s="38"/>
       <c r="J75" s="38"/>
       <c r="K75" s="38"/>
@@ -7171,6 +7965,17 @@
       <c r="E76">
         <v>27</v>
       </c>
+      <c r="F76" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q106042</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="77" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="37">
@@ -7188,9 +7993,17 @@
       <c r="E77" s="39">
         <v>26</v>
       </c>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
+      <c r="F77" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q105840</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
       <c r="I77" s="38"/>
       <c r="J77" s="38"/>
       <c r="K77" s="38"/>
@@ -7457,6 +8270,17 @@
       <c r="E78">
         <v>25</v>
       </c>
+      <c r="F78" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="79" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
@@ -7474,6 +8298,17 @@
       <c r="E79">
         <v>24</v>
       </c>
+      <c r="F79" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="80" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
@@ -7491,6 +8326,17 @@
       <c r="E80">
         <v>23</v>
       </c>
+      <c r="F80" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G80" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="81" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
@@ -7508,6 +8354,17 @@
       <c r="E81">
         <v>22</v>
       </c>
+      <c r="F81" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G81" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="82" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
@@ -7525,6 +8382,17 @@
       <c r="E82">
         <v>21</v>
       </c>
+      <c r="F82" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="83" spans="1:257" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
@@ -7542,9 +8410,17 @@
       <c r="E83" s="15">
         <v>20</v>
       </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="F83" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G83" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q102674</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
@@ -7811,6 +8687,17 @@
       <c r="E84">
         <v>19</v>
       </c>
+      <c r="F84" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="85" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
@@ -7828,6 +8715,17 @@
       <c r="E85">
         <v>18</v>
       </c>
+      <c r="F85" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G85" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q102089</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="86" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
@@ -7845,6 +8743,17 @@
       <c r="E86">
         <v>17</v>
       </c>
+      <c r="F86" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G86" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="87" spans="1:257" s="39" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="37">
@@ -7862,9 +8771,17 @@
       <c r="E87" s="39">
         <v>16</v>
       </c>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
+      <c r="F87" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G87" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q101163</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
       <c r="I87" s="38"/>
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
@@ -8131,9 +9048,17 @@
       <c r="E88" s="35">
         <v>15</v>
       </c>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
+      <c r="F88" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G88" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q101162</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
       <c r="K88" s="32"/>
@@ -8400,6 +9325,17 @@
       <c r="E89">
         <v>14</v>
       </c>
+      <c r="F89" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="90" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
@@ -8417,6 +9353,17 @@
       <c r="E90">
         <v>13</v>
       </c>
+      <c r="F90" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="91" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
@@ -8434,6 +9381,17 @@
       <c r="E91">
         <v>12</v>
       </c>
+      <c r="F91" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q100562</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="92" spans="1:257" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
@@ -8451,6 +9409,17 @@
       <c r="E92">
         <v>11</v>
       </c>
+      <c r="F92" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G92" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="93" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
@@ -8468,6 +9437,17 @@
       <c r="E93">
         <v>10</v>
       </c>
+      <c r="F93" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G93" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="94" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
@@ -8485,6 +9465,17 @@
       <c r="E94">
         <v>9</v>
       </c>
+      <c r="F94" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G94" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q99716</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:257" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
@@ -8502,6 +9493,17 @@
       <c r="E95">
         <v>8</v>
       </c>
+      <c r="F95" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G95" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="96" spans="1:257" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="37">
@@ -8519,9 +9521,17 @@
       <c r="E96" s="39">
         <v>7</v>
       </c>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
+      <c r="F96" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q99480</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
       <c r="I96" s="38"/>
       <c r="J96" s="38"/>
       <c r="K96" s="38"/>
@@ -8788,9 +9798,17 @@
       <c r="E97" s="25">
         <v>6</v>
       </c>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
+      <c r="F97" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G97" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q98869</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
@@ -9057,6 +10075,17 @@
       <c r="E98">
         <v>5</v>
       </c>
+      <c r="F98" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Q98578</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="99" spans="1:257" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21">
@@ -9074,9 +10103,17 @@
       <c r="E99" s="25">
         <v>4</v>
       </c>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
+      <c r="F99" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
@@ -9343,6 +10380,17 @@
       <c r="E100">
         <v>3</v>
       </c>
+      <c r="F100" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G100" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="101" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
@@ -9360,6 +10408,17 @@
       <c r="E101">
         <v>2</v>
       </c>
+      <c r="F101" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="102" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
@@ -9376,6 +10435,17 @@
       </c>
       <c r="E102">
         <v>1</v>
+      </c>
+      <c r="F102" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H102" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>
